--- a/BackTest/2019-11-01 BackTest DAD.xlsx
+++ b/BackTest/2019-11-01 BackTest DAD.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>58</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
       <c r="L12" t="n">
         <v>495</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>63</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-50</v>
+      </c>
       <c r="L13" t="n">
         <v>491.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>64</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L14" t="n">
         <v>488.8</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>65</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L15" t="n">
         <v>486.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>68</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>486.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>70</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L17" t="n">
         <v>484.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>73</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-54.83870967741935</v>
+      </c>
       <c r="L18" t="n">
         <v>483.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>79</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-7.142857142857142</v>
+      </c>
       <c r="L19" t="n">
         <v>482.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>108</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>44.44444444444444</v>
+      </c>
       <c r="L20" t="n">
         <v>485.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>115</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>36.84210526315789</v>
+      </c>
       <c r="L21" t="n">
         <v>486.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>125</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>25.80645161290322</v>
+      </c>
       <c r="L22" t="n">
         <v>488</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>134</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.060606060606061</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L23" t="n">
         <v>490.5</v>
@@ -1466,7 +1488,7 @@
         <v>144</v>
       </c>
       <c r="K24" t="n">
-        <v>5.109489051094891</v>
+        <v>44.30379746835442</v>
       </c>
       <c r="L24" t="n">
         <v>494.1</v>
@@ -1515,7 +1537,7 @@
         <v>145</v>
       </c>
       <c r="K25" t="n">
-        <v>10.76923076923077</v>
+        <v>40.25974025974026</v>
       </c>
       <c r="L25" t="n">
         <v>497.5</v>
@@ -1564,7 +1586,7 @@
         <v>149</v>
       </c>
       <c r="K26" t="n">
-        <v>23.57723577235772</v>
+        <v>46.83544303797468</v>
       </c>
       <c r="L26" t="n">
         <v>501</v>
@@ -1613,7 +1635,7 @@
         <v>156</v>
       </c>
       <c r="K27" t="n">
-        <v>24.19354838709678</v>
+        <v>56.62650602409639</v>
       </c>
       <c r="L27" t="n">
         <v>505.4</v>
@@ -1662,7 +1684,7 @@
         <v>157</v>
       </c>
       <c r="K28" t="n">
-        <v>28.33333333333333</v>
+        <v>51.28205128205128</v>
       </c>
       <c r="L28" t="n">
         <v>510</v>
@@ -1711,7 +1733,7 @@
         <v>161</v>
       </c>
       <c r="K29" t="n">
-        <v>21.00840336134454</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L29" t="n">
         <v>513.6</v>
@@ -1760,7 +1782,7 @@
         <v>165</v>
       </c>
       <c r="K30" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L30" t="n">
         <v>513.9</v>
@@ -1809,7 +1831,7 @@
         <v>166</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21428571428572</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L31" t="n">
         <v>514.8</v>
@@ -1860,7 +1882,7 @@
         <v>172</v>
       </c>
       <c r="K32" t="n">
-        <v>21.05263157894737</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L32" t="n">
         <v>516.1</v>
@@ -1911,7 +1933,7 @@
         <v>175</v>
       </c>
       <c r="K33" t="n">
-        <v>23.21428571428572</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L33" t="n">
         <v>516.2</v>
@@ -1962,7 +1984,7 @@
         <v>179</v>
       </c>
       <c r="K34" t="n">
-        <v>26.95652173913043</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L34" t="n">
         <v>515.7</v>
@@ -2013,7 +2035,7 @@
         <v>181</v>
       </c>
       <c r="K35" t="n">
-        <v>27.58620689655172</v>
+        <v>-18.75</v>
       </c>
       <c r="L35" t="n">
         <v>515.5</v>
@@ -2064,7 +2086,7 @@
         <v>187</v>
       </c>
       <c r="K36" t="n">
-        <v>19.32773109243698</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L36" t="n">
         <v>514.3</v>
@@ -2115,7 +2137,7 @@
         <v>193</v>
       </c>
       <c r="K37" t="n">
-        <v>15.44715447154472</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L37" t="n">
         <v>511.8</v>
@@ -2166,7 +2188,7 @@
         <v>194</v>
       </c>
       <c r="K38" t="n">
-        <v>19.00826446280992</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L38" t="n">
         <v>509.5</v>
@@ -2217,7 +2239,7 @@
         <v>197</v>
       </c>
       <c r="K39" t="n">
-        <v>16.94915254237288</v>
+        <v>-37.5</v>
       </c>
       <c r="L39" t="n">
         <v>507.9</v>
@@ -2268,7 +2290,7 @@
         <v>200</v>
       </c>
       <c r="K40" t="n">
-        <v>-13.04347826086956</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L40" t="n">
         <v>506.4</v>
@@ -2319,7 +2341,7 @@
         <v>203</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.272727272727273</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L41" t="n">
         <v>505.3</v>
@@ -2370,7 +2392,7 @@
         <v>203</v>
       </c>
       <c r="K42" t="n">
-        <v>10.25641025641026</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L42" t="n">
         <v>504.8</v>
@@ -2421,7 +2443,7 @@
         <v>205</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.225352112676056</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L43" t="n">
         <v>504.4</v>
@@ -2472,7 +2494,7 @@
         <v>205</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.31147540983606</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L44" t="n">
         <v>503.6</v>
@@ -2523,7 +2545,7 @@
         <v>208</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L45" t="n">
         <v>502.9</v>
@@ -2574,7 +2596,7 @@
         <v>210</v>
       </c>
       <c r="K46" t="n">
-        <v>-24.59016393442623</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L46" t="n">
         <v>502.6</v>
@@ -2625,7 +2647,7 @@
         <v>218</v>
       </c>
       <c r="K47" t="n">
-        <v>-48.38709677419355</v>
+        <v>-25</v>
       </c>
       <c r="L47" t="n">
         <v>502.1</v>
@@ -2676,7 +2698,7 @@
         <v>218</v>
       </c>
       <c r="K48" t="n">
-        <v>-47.54098360655738</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L48" t="n">
         <v>501.5</v>
@@ -2727,7 +2749,7 @@
         <v>220</v>
       </c>
       <c r="K49" t="n">
-        <v>-45.76271186440678</v>
+        <v>-40</v>
       </c>
       <c r="L49" t="n">
         <v>500.4</v>
@@ -2778,7 +2800,7 @@
         <v>222</v>
       </c>
       <c r="K50" t="n">
-        <v>-36.84210526315789</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L50" t="n">
         <v>499.8</v>
@@ -2829,7 +2851,7 @@
         <v>226</v>
       </c>
       <c r="K51" t="n">
-        <v>-40</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L51" t="n">
         <v>498.5</v>
@@ -2880,7 +2902,7 @@
         <v>232</v>
       </c>
       <c r="K52" t="n">
-        <v>-20</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L52" t="n">
         <v>497.8</v>
@@ -2931,7 +2953,7 @@
         <v>240</v>
       </c>
       <c r="K53" t="n">
-        <v>-26.15384615384616</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L53" t="n">
         <v>496.5</v>
@@ -2982,7 +3004,7 @@
         <v>244</v>
       </c>
       <c r="K54" t="n">
-        <v>-26.15384615384616</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>495.6</v>
@@ -3033,7 +3055,7 @@
         <v>250</v>
       </c>
       <c r="K55" t="n">
-        <v>-18.84057971014493</v>
+        <v>-10</v>
       </c>
       <c r="L55" t="n">
         <v>495</v>
@@ -3084,7 +3106,7 @@
         <v>252</v>
       </c>
       <c r="K56" t="n">
-        <v>-7.692307692307693</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L56" t="n">
         <v>494.8</v>
@@ -3135,7 +3157,7 @@
         <v>258</v>
       </c>
       <c r="K57" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>494.8</v>
@@ -3186,7 +3208,7 @@
         <v>262</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.941176470588235</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>495.2</v>
@@ -3237,7 +3259,7 @@
         <v>266</v>
       </c>
       <c r="K59" t="n">
-        <v>-1.449275362318841</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L59" t="n">
         <v>496.2</v>
@@ -3288,7 +3310,7 @@
         <v>278</v>
       </c>
       <c r="K60" t="n">
-        <v>17.94871794871795</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L60" t="n">
         <v>498.2</v>
@@ -3339,7 +3361,7 @@
         <v>281</v>
       </c>
       <c r="K61" t="n">
-        <v>17.94871794871795</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L61" t="n">
         <v>500.9</v>
@@ -3390,7 +3412,7 @@
         <v>287</v>
       </c>
       <c r="K62" t="n">
-        <v>9.523809523809524</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L62" t="n">
         <v>502.4</v>
@@ -3441,7 +3463,7 @@
         <v>291</v>
       </c>
       <c r="K63" t="n">
-        <v>6.976744186046512</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L63" t="n">
         <v>504.3</v>
@@ -3492,7 +3514,7 @@
         <v>293</v>
       </c>
       <c r="K64" t="n">
-        <v>9.090909090909092</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L64" t="n">
         <v>506</v>
@@ -3543,7 +3565,7 @@
         <v>296</v>
       </c>
       <c r="K65" t="n">
-        <v>2.272727272727273</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L65" t="n">
         <v>506.8</v>
@@ -3594,7 +3616,7 @@
         <v>296</v>
       </c>
       <c r="K66" t="n">
-        <v>4.651162790697675</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L66" t="n">
         <v>507.4</v>
@@ -3645,7 +3667,7 @@
         <v>299</v>
       </c>
       <c r="K67" t="n">
-        <v>18.51851851851852</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L67" t="n">
         <v>508.9</v>
@@ -3696,7 +3718,7 @@
         <v>299</v>
       </c>
       <c r="K68" t="n">
-        <v>18.51851851851852</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L68" t="n">
         <v>510</v>
@@ -3747,7 +3769,7 @@
         <v>303</v>
       </c>
       <c r="K69" t="n">
-        <v>15.66265060240964</v>
+        <v>-36</v>
       </c>
       <c r="L69" t="n">
         <v>510.3</v>
@@ -3798,7 +3820,7 @@
         <v>303</v>
       </c>
       <c r="K70" t="n">
-        <v>13.58024691358025</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L70" t="n">
         <v>509.4</v>
@@ -3849,7 +3871,7 @@
         <v>310</v>
       </c>
       <c r="K71" t="n">
-        <v>26.19047619047619</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L71" t="n">
         <v>508.9</v>
@@ -3900,7 +3922,7 @@
         <v>317</v>
       </c>
       <c r="K72" t="n">
-        <v>10.58823529411765</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L72" t="n">
         <v>508.3</v>
@@ -3951,7 +3973,7 @@
         <v>322</v>
       </c>
       <c r="K73" t="n">
-        <v>26.82926829268293</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L73" t="n">
         <v>508.6</v>
@@ -4002,7 +4024,7 @@
         <v>323</v>
       </c>
       <c r="K74" t="n">
-        <v>21.51898734177215</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L74" t="n">
         <v>508.6</v>
@@ -4053,7 +4075,7 @@
         <v>328</v>
       </c>
       <c r="K75" t="n">
-        <v>20.51282051282051</v>
+        <v>25</v>
       </c>
       <c r="L75" t="n">
         <v>509.4</v>
@@ -4104,7 +4126,7 @@
         <v>332</v>
       </c>
       <c r="K76" t="n">
-        <v>22.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L76" t="n">
         <v>510.6</v>
@@ -4155,7 +4177,7 @@
         <v>332</v>
       </c>
       <c r="K77" t="n">
-        <v>32.43243243243244</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L77" t="n">
         <v>511.5</v>
@@ -4206,7 +4228,7 @@
         <v>345</v>
       </c>
       <c r="K78" t="n">
-        <v>8.433734939759036</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>511.1</v>
@@ -4257,7 +4279,7 @@
         <v>347</v>
       </c>
       <c r="K79" t="n">
-        <v>6.172839506172839</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L79" t="n">
         <v>511.3</v>
@@ -4308,7 +4330,7 @@
         <v>349</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.042253521126761</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L80" t="n">
         <v>511.7</v>
@@ -4359,7 +4381,7 @@
         <v>354</v>
       </c>
       <c r="K81" t="n">
-        <v>-4.10958904109589</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L81" t="n">
         <v>511.9</v>
@@ -4410,7 +4432,7 @@
         <v>357</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L82" t="n">
         <v>512.5</v>
@@ -4461,7 +4483,7 @@
         <v>372</v>
       </c>
       <c r="K83" t="n">
-        <v>23.45679012345679</v>
+        <v>34.69387755102041</v>
       </c>
       <c r="L83" t="n">
         <v>514.1</v>
@@ -4512,7 +4534,7 @@
         <v>386</v>
       </c>
       <c r="K84" t="n">
-        <v>3.225806451612903</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L84" t="n">
         <v>514.4</v>
@@ -4563,7 +4585,7 @@
         <v>388</v>
       </c>
       <c r="K85" t="n">
-        <v>8.695652173913043</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L85" t="n">
         <v>514.4</v>
@@ -4614,7 +4636,7 @@
         <v>390</v>
       </c>
       <c r="K86" t="n">
-        <v>10.63829787234043</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L86" t="n">
         <v>514.2</v>
@@ -4665,7 +4687,7 @@
         <v>403</v>
       </c>
       <c r="K87" t="n">
-        <v>19.23076923076923</v>
+        <v>41.37931034482759</v>
       </c>
       <c r="L87" t="n">
         <v>515.3</v>
@@ -4716,7 +4738,7 @@
         <v>405</v>
       </c>
       <c r="K88" t="n">
-        <v>16.9811320754717</v>
+        <v>34.48275862068966</v>
       </c>
       <c r="L88" t="n">
         <v>517.5</v>
@@ -4767,7 +4789,7 @@
         <v>409</v>
       </c>
       <c r="K89" t="n">
-        <v>16.9811320754717</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>519.1</v>
@@ -4818,7 +4840,7 @@
         <v>412</v>
       </c>
       <c r="K90" t="n">
-        <v>13.76146788990826</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L90" t="n">
         <v>520.2</v>
@@ -4869,7 +4891,7 @@
         <v>415</v>
       </c>
       <c r="K91" t="n">
-        <v>10.47619047619048</v>
+        <v>20.68965517241379</v>
       </c>
       <c r="L91" t="n">
         <v>521.1</v>
@@ -4920,7 +4942,7 @@
         <v>418</v>
       </c>
       <c r="K92" t="n">
-        <v>14.85148514851485</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L92" t="n">
         <v>522</v>
@@ -4971,7 +4993,7 @@
         <v>421</v>
       </c>
       <c r="K93" t="n">
-        <v>7.07070707070707</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>521.1</v>
@@ -5022,7 +5044,7 @@
         <v>421</v>
       </c>
       <c r="K94" t="n">
-        <v>8.163265306122449</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L94" t="n">
         <v>521.6</v>
@@ -5073,7 +5095,7 @@
         <v>423</v>
       </c>
       <c r="K95" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L95" t="n">
         <v>522.1</v>
@@ -5124,7 +5146,7 @@
         <v>433</v>
       </c>
       <c r="K96" t="n">
-        <v>-8.91089108910891</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L96" t="n">
         <v>521.4</v>
@@ -5175,7 +5197,7 @@
         <v>437</v>
       </c>
       <c r="K97" t="n">
-        <v>-12.38095238095238</v>
+        <v>-68.75</v>
       </c>
       <c r="L97" t="n">
         <v>519</v>
@@ -5226,7 +5248,7 @@
         <v>461</v>
       </c>
       <c r="K98" t="n">
-        <v>20.68965517241379</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L98" t="n">
         <v>519.2</v>
@@ -5277,7 +5299,7 @@
         <v>471</v>
       </c>
       <c r="K99" t="n">
-        <v>9.67741935483871</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L99" t="n">
         <v>518.8</v>
@@ -5328,7 +5350,7 @@
         <v>473</v>
       </c>
       <c r="K100" t="n">
-        <v>9.67741935483871</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L100" t="n">
         <v>518.9</v>
@@ -5379,7 +5401,7 @@
         <v>473</v>
       </c>
       <c r="K101" t="n">
-        <v>5.88235294117647</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L101" t="n">
         <v>518.7</v>
@@ -5430,7 +5452,7 @@
         <v>475</v>
       </c>
       <c r="K102" t="n">
-        <v>6.779661016949152</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L102" t="n">
         <v>518.6</v>
@@ -5481,7 +5503,7 @@
         <v>481</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.92660550458716</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L103" t="n">
         <v>518.2</v>
@@ -5532,7 +5554,7 @@
         <v>485</v>
       </c>
       <c r="K104" t="n">
-        <v>5.05050505050505</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L104" t="n">
         <v>518.2</v>
@@ -5583,7 +5605,7 @@
         <v>486</v>
       </c>
       <c r="K105" t="n">
-        <v>4.081632653061225</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L105" t="n">
         <v>518.1</v>
@@ -5634,7 +5656,7 @@
         <v>487</v>
       </c>
       <c r="K106" t="n">
-        <v>1.030927835051546</v>
+        <v>24</v>
       </c>
       <c r="L106" t="n">
         <v>518.9</v>
@@ -5685,7 +5707,7 @@
         <v>487</v>
       </c>
       <c r="K107" t="n">
-        <v>-14.28571428571428</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L107" t="n">
         <v>520.1</v>
@@ -5736,7 +5758,7 @@
         <v>489</v>
       </c>
       <c r="K108" t="n">
-        <v>-9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>519.1</v>
@@ -5787,7 +5809,7 @@
         <v>489</v>
       </c>
       <c r="K109" t="n">
-        <v>-5</v>
+        <v>-12.5</v>
       </c>
       <c r="L109" t="n">
         <v>519.1</v>
@@ -5838,7 +5860,7 @@
         <v>493</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.172839506172839</v>
+        <v>-30</v>
       </c>
       <c r="L110" t="n">
         <v>518.5</v>
@@ -5889,7 +5911,7 @@
         <v>496</v>
       </c>
       <c r="K111" t="n">
-        <v>-6.172839506172839</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L111" t="n">
         <v>518.2</v>
@@ -5940,7 +5962,7 @@
         <v>502</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.523809523809524</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L112" t="n">
         <v>517.5</v>
@@ -5991,7 +6013,7 @@
         <v>502</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.172839506172839</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L113" t="n">
         <v>517.4</v>
@@ -6042,7 +6064,7 @@
         <v>503</v>
       </c>
       <c r="K114" t="n">
-        <v>-7.317073170731707</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L114" t="n">
         <v>516.8</v>
@@ -6093,7 +6115,7 @@
         <v>509</v>
       </c>
       <c r="K115" t="n">
-        <v>-2.325581395348837</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>516.7</v>
@@ -6144,7 +6166,7 @@
         <v>514</v>
       </c>
       <c r="K116" t="n">
-        <v>3.703703703703703</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L116" t="n">
         <v>516.2</v>
@@ -6195,7 +6217,7 @@
         <v>520</v>
       </c>
       <c r="K117" t="n">
-        <v>1.204819277108434</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L117" t="n">
         <v>515.1</v>
@@ -6246,7 +6268,7 @@
         <v>520</v>
       </c>
       <c r="K118" t="n">
-        <v>-38.98305084745763</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L118" t="n">
         <v>513.8</v>
@@ -6297,7 +6319,7 @@
         <v>520</v>
       </c>
       <c r="K119" t="n">
-        <v>-26.53061224489796</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>512.5</v>
@@ -6348,7 +6370,7 @@
         <v>521</v>
       </c>
       <c r="K120" t="n">
-        <v>-29.16666666666667</v>
+        <v>-44</v>
       </c>
       <c r="L120" t="n">
         <v>511.7</v>
@@ -6399,7 +6421,7 @@
         <v>522</v>
       </c>
       <c r="K121" t="n">
-        <v>-30.61224489795918</v>
+        <v>-30</v>
       </c>
       <c r="L121" t="n">
         <v>510.5</v>
@@ -6450,7 +6472,7 @@
         <v>530</v>
       </c>
       <c r="K122" t="n">
-        <v>-38.18181818181819</v>
+        <v>-50</v>
       </c>
       <c r="L122" t="n">
         <v>509.1</v>
@@ -6501,7 +6523,7 @@
         <v>531</v>
       </c>
       <c r="K123" t="n">
-        <v>-28</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>507.8</v>
@@ -6552,7 +6574,7 @@
         <v>533</v>
       </c>
       <c r="K124" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L124" t="n">
         <v>506.8</v>
@@ -6603,7 +6625,7 @@
         <v>535</v>
       </c>
       <c r="K125" t="n">
-        <v>-30.61224489795918</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L125" t="n">
         <v>505.4</v>
@@ -6654,7 +6676,7 @@
         <v>537</v>
       </c>
       <c r="K126" t="n">
-        <v>-24</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L126" t="n">
         <v>504.7</v>
@@ -6705,7 +6727,7 @@
         <v>540</v>
       </c>
       <c r="K127" t="n">
-        <v>-16.9811320754717</v>
+        <v>10</v>
       </c>
       <c r="L127" t="n">
         <v>504.9</v>
@@ -6756,7 +6778,7 @@
         <v>547</v>
       </c>
       <c r="K128" t="n">
-        <v>-31.03448275862069</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L128" t="n">
         <v>504.4</v>
@@ -6807,7 +6829,7 @@
         <v>557</v>
       </c>
       <c r="K129" t="n">
-        <v>-41.17647058823529</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L129" t="n">
         <v>502.9</v>
@@ -6858,7 +6880,7 @@
         <v>558</v>
       </c>
       <c r="K130" t="n">
-        <v>-35.38461538461539</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L130" t="n">
         <v>501.4</v>
@@ -6909,7 +6931,7 @@
         <v>562</v>
       </c>
       <c r="K131" t="n">
-        <v>-33.33333333333333</v>
+        <v>-6.25</v>
       </c>
       <c r="L131" t="n">
         <v>500.4</v>
@@ -6960,7 +6982,7 @@
         <v>562</v>
       </c>
       <c r="K132" t="n">
-        <v>-26.66666666666667</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L132" t="n">
         <v>500.2</v>
@@ -7011,7 +7033,7 @@
         <v>562</v>
       </c>
       <c r="K133" t="n">
-        <v>-26.66666666666667</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L133" t="n">
         <v>499.9</v>
@@ -7062,7 +7084,7 @@
         <v>564</v>
       </c>
       <c r="K134" t="n">
-        <v>-21.31147540983606</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L134" t="n">
         <v>499.6</v>
@@ -7113,7 +7135,7 @@
         <v>564</v>
       </c>
       <c r="K135" t="n">
-        <v>-34.54545454545455</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L135" t="n">
         <v>499.1</v>
@@ -7164,7 +7186,7 @@
         <v>564</v>
       </c>
       <c r="K136" t="n">
-        <v>-28</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L136" t="n">
         <v>498.4</v>
@@ -7215,7 +7237,7 @@
         <v>567</v>
       </c>
       <c r="K137" t="n">
-        <v>-10.63829787234043</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>497.7</v>
@@ -7266,7 +7288,7 @@
         <v>574</v>
       </c>
       <c r="K138" t="n">
-        <v>3.703703703703703</v>
+        <v>100</v>
       </c>
       <c r="L138" t="n">
         <v>498.4</v>
@@ -7317,7 +7339,7 @@
         <v>576</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L139" t="n">
         <v>499.9</v>
@@ -7368,7 +7390,7 @@
         <v>577</v>
       </c>
       <c r="K140" t="n">
-        <v>-3.571428571428571</v>
+        <v>60</v>
       </c>
       <c r="L140" t="n">
         <v>501.2</v>
@@ -7419,7 +7441,7 @@
         <v>578</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="L141" t="n">
         <v>502.2</v>
@@ -7470,7 +7492,7 @@
         <v>582</v>
       </c>
       <c r="K142" t="n">
-        <v>7.692307692307693</v>
+        <v>30</v>
       </c>
       <c r="L142" t="n">
         <v>502.8</v>
@@ -7521,7 +7543,7 @@
         <v>583</v>
       </c>
       <c r="K143" t="n">
-        <v>7.692307692307693</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L143" t="n">
         <v>503.5</v>
@@ -7572,7 +7594,7 @@
         <v>583</v>
       </c>
       <c r="K144" t="n">
-        <v>4</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L144" t="n">
         <v>504</v>
@@ -7623,7 +7645,7 @@
         <v>585</v>
       </c>
       <c r="K145" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>504.7</v>
@@ -7674,7 +7696,7 @@
         <v>585</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L146" t="n">
         <v>505.4</v>
@@ -7725,7 +7747,7 @@
         <v>586</v>
       </c>
       <c r="K147" t="n">
-        <v>-8.695652173913043</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>505.7</v>
@@ -7776,7 +7798,7 @@
         <v>588</v>
       </c>
       <c r="K148" t="n">
-        <v>2.439024390243902</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>505.1</v>
@@ -7827,7 +7849,7 @@
         <v>590</v>
       </c>
       <c r="K149" t="n">
-        <v>27.27272727272727</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L149" t="n">
         <v>504.5</v>
@@ -7878,7 +7900,7 @@
         <v>593</v>
       </c>
       <c r="K150" t="n">
-        <v>14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L150" t="n">
         <v>503.7</v>
@@ -7929,7 +7951,7 @@
         <v>596</v>
       </c>
       <c r="K151" t="n">
-        <v>-5.88235294117647</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L151" t="n">
         <v>502.5</v>
@@ -7980,7 +8002,7 @@
         <v>603</v>
       </c>
       <c r="K152" t="n">
-        <v>-21.95121951219512</v>
+        <v>-80</v>
       </c>
       <c r="L152" t="n">
         <v>501</v>
@@ -8031,7 +8053,7 @@
         <v>603</v>
       </c>
       <c r="K153" t="n">
-        <v>-21.95121951219512</v>
+        <v>-80</v>
       </c>
       <c r="L153" t="n">
         <v>499.4</v>
@@ -8082,7 +8104,7 @@
         <v>610</v>
       </c>
       <c r="K154" t="n">
-        <v>-8.695652173913043</v>
+        <v>-44</v>
       </c>
       <c r="L154" t="n">
         <v>498.5</v>
@@ -8133,7 +8155,7 @@
         <v>610</v>
       </c>
       <c r="K155" t="n">
-        <v>-8.695652173913043</v>
+        <v>-44</v>
       </c>
       <c r="L155" t="n">
         <v>497.4</v>
@@ -8184,7 +8206,7 @@
         <v>611</v>
       </c>
       <c r="K156" t="n">
-        <v>-6.382978723404255</v>
+        <v>-36</v>
       </c>
       <c r="L156" t="n">
         <v>496.4</v>
@@ -8235,7 +8257,7 @@
         <v>612</v>
       </c>
       <c r="K157" t="n">
-        <v>-15.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>495.4</v>
@@ -8337,7 +8359,7 @@
         <v>625</v>
       </c>
       <c r="K159" t="n">
-        <v>-51.02040816326531</v>
+        <v>-50</v>
       </c>
       <c r="L159" t="n">
         <v>491.7</v>
@@ -8388,7 +8410,7 @@
         <v>630</v>
       </c>
       <c r="K160" t="n">
-        <v>-35.84905660377358</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L160" t="n">
         <v>490.6</v>
@@ -8439,7 +8461,7 @@
         <v>631</v>
       </c>
       <c r="K161" t="n">
-        <v>-35.84905660377358</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>489.9</v>
@@ -8490,7 +8512,7 @@
         <v>632</v>
       </c>
       <c r="K162" t="n">
-        <v>-28</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L162" t="n">
         <v>490</v>
@@ -8541,7 +8563,7 @@
         <v>638</v>
       </c>
       <c r="K163" t="n">
-        <v>-38.18181818181819</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L163" t="n">
         <v>489.5</v>
@@ -8592,7 +8614,7 @@
         <v>638</v>
       </c>
       <c r="K164" t="n">
-        <v>-38.18181818181819</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L164" t="n">
         <v>488.3</v>
@@ -8643,7 +8665,7 @@
         <v>642</v>
       </c>
       <c r="K165" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L165" t="n">
         <v>487.5</v>
@@ -8694,7 +8716,7 @@
         <v>643</v>
       </c>
       <c r="K166" t="n">
-        <v>-34.48275862068966</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L166" t="n">
         <v>486.5</v>
@@ -8745,7 +8767,7 @@
         <v>644</v>
       </c>
       <c r="K167" t="n">
-        <v>-34.48275862068966</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>485.5</v>
@@ -8796,7 +8818,7 @@
         <v>649</v>
       </c>
       <c r="K168" t="n">
-        <v>-37.70491803278689</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L168" t="n">
         <v>485</v>
@@ -8847,7 +8869,7 @@
         <v>655</v>
       </c>
       <c r="K169" t="n">
-        <v>-23.07692307692308</v>
+        <v>-4</v>
       </c>
       <c r="L169" t="n">
         <v>485.4</v>
@@ -8898,7 +8920,7 @@
         <v>658</v>
       </c>
       <c r="K170" t="n">
-        <v>-23.07692307692308</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L170" t="n">
         <v>485</v>
@@ -8949,7 +8971,7 @@
         <v>660</v>
       </c>
       <c r="K171" t="n">
-        <v>-21.875</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L171" t="n">
         <v>484.3</v>
@@ -9000,7 +9022,7 @@
         <v>662</v>
       </c>
       <c r="K172" t="n">
-        <v>-8.474576271186439</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>483.7</v>
@@ -9051,7 +9073,7 @@
         <v>664</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.918032786885246</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L173" t="n">
         <v>483.9</v>
@@ -9102,7 +9124,7 @@
         <v>664</v>
       </c>
       <c r="K174" t="n">
-        <v>-18.51851851851852</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L174" t="n">
         <v>484.1</v>
@@ -9153,7 +9175,7 @@
         <v>667</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.28070175438596</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L175" t="n">
         <v>484.2</v>
@@ -9204,7 +9226,7 @@
         <v>669</v>
       </c>
       <c r="K176" t="n">
-        <v>-17.24137931034483</v>
+        <v>4</v>
       </c>
       <c r="L176" t="n">
         <v>484.2</v>
@@ -9255,7 +9277,7 @@
         <v>673</v>
       </c>
       <c r="K177" t="n">
-        <v>-21.31147540983606</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L177" t="n">
         <v>483.9</v>
@@ -9306,7 +9328,7 @@
         <v>674</v>
       </c>
       <c r="K178" t="n">
-        <v>-3.846153846153846</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L178" t="n">
         <v>484.2</v>
@@ -9357,7 +9379,7 @@
         <v>682</v>
       </c>
       <c r="K179" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>484.7</v>
@@ -9408,7 +9430,7 @@
         <v>688</v>
       </c>
       <c r="K180" t="n">
-        <v>-3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>484.9</v>
@@ -9459,7 +9481,7 @@
         <v>689</v>
       </c>
       <c r="K181" t="n">
-        <v>-6.896551724137931</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L181" t="n">
         <v>485.2</v>
@@ -9510,7 +9532,7 @@
         <v>698</v>
       </c>
       <c r="K182" t="n">
-        <v>-21.21212121212121</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L182" t="n">
         <v>484.4</v>
@@ -9561,7 +9583,7 @@
         <v>704</v>
       </c>
       <c r="K183" t="n">
-        <v>-3.03030303030303</v>
+        <v>-10</v>
       </c>
       <c r="L183" t="n">
         <v>484</v>
@@ -9612,7 +9634,7 @@
         <v>706</v>
       </c>
       <c r="K184" t="n">
-        <v>-5.88235294117647</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L184" t="n">
         <v>483.4</v>
@@ -9663,7 +9685,7 @@
         <v>707</v>
       </c>
       <c r="K185" t="n">
-        <v>-10.76923076923077</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L185" t="n">
         <v>482.6</v>
@@ -9714,7 +9736,7 @@
         <v>709</v>
       </c>
       <c r="K186" t="n">
-        <v>-12.12121212121212</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L186" t="n">
         <v>481.8</v>
@@ -9765,7 +9787,7 @@
         <v>710</v>
       </c>
       <c r="K187" t="n">
-        <v>-9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L187" t="n">
         <v>481.5</v>
@@ -9816,7 +9838,7 @@
         <v>714</v>
       </c>
       <c r="K188" t="n">
-        <v>4.615384615384616</v>
+        <v>-25</v>
       </c>
       <c r="L188" t="n">
         <v>481.5</v>
@@ -9867,7 +9889,7 @@
         <v>718</v>
       </c>
       <c r="K189" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>480.3</v>
@@ -9918,7 +9940,7 @@
         <v>720</v>
       </c>
       <c r="K190" t="n">
-        <v>-9.67741935483871</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L190" t="n">
         <v>479.5</v>
@@ -9969,7 +9991,7 @@
         <v>726</v>
       </c>
       <c r="K191" t="n">
-        <v>3.03030303030303</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L191" t="n">
         <v>479.4</v>
@@ -10020,7 +10042,7 @@
         <v>733</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.859154929577464</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L192" t="n">
         <v>479.5</v>
@@ -10071,7 +10093,7 @@
         <v>740</v>
       </c>
       <c r="K193" t="n">
-        <v>-2.631578947368421</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L193" t="n">
         <v>479.7</v>
@@ -10122,7 +10144,7 @@
         <v>746</v>
       </c>
       <c r="K194" t="n">
-        <v>4.878048780487805</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L194" t="n">
         <v>480.7</v>
@@ -10173,7 +10195,7 @@
         <v>764</v>
       </c>
       <c r="K195" t="n">
-        <v>-17.52577319587629</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L195" t="n">
         <v>479.8</v>
@@ -10224,7 +10246,7 @@
         <v>771</v>
       </c>
       <c r="K196" t="n">
-        <v>-7.84313725490196</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L196" t="n">
         <v>479.8</v>
@@ -10275,7 +10297,7 @@
         <v>777</v>
       </c>
       <c r="K197" t="n">
-        <v>1.923076923076923</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L197" t="n">
         <v>480.3</v>
@@ -10326,7 +10348,7 @@
         <v>778</v>
       </c>
       <c r="K198" t="n">
-        <v>1.923076923076923</v>
+        <v>10</v>
       </c>
       <c r="L198" t="n">
         <v>480.5</v>
@@ -10377,7 +10399,7 @@
         <v>784</v>
       </c>
       <c r="K199" t="n">
-        <v>-11.76470588235294</v>
+        <v>3.125</v>
       </c>
       <c r="L199" t="n">
         <v>480.5</v>
@@ -10428,7 +10450,7 @@
         <v>785</v>
       </c>
       <c r="K200" t="n">
-        <v>-7.216494845360824</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L200" t="n">
         <v>480.6</v>
@@ -10479,7 +10501,7 @@
         <v>786</v>
       </c>
       <c r="K201" t="n">
-        <v>-7.216494845360824</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L201" t="n">
         <v>480</v>
@@ -10530,7 +10552,7 @@
         <v>790</v>
       </c>
       <c r="K202" t="n">
-        <v>-2.173913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L202" t="n">
         <v>479.7</v>
@@ -10581,7 +10603,7 @@
         <v>793</v>
       </c>
       <c r="K203" t="n">
-        <v>-5.617977528089887</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L203" t="n">
         <v>479</v>
@@ -10632,7 +10654,7 @@
         <v>794</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.545454545454546</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>477.6</v>
@@ -10683,7 +10705,7 @@
         <v>795</v>
       </c>
       <c r="K205" t="n">
-        <v>-4.545454545454546</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L205" t="n">
         <v>478.1</v>
@@ -10734,7 +10756,7 @@
         <v>796</v>
       </c>
       <c r="K206" t="n">
-        <v>-1.149425287356322</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L206" t="n">
         <v>478</v>
@@ -10785,7 +10807,7 @@
         <v>803</v>
       </c>
       <c r="K207" t="n">
-        <v>5.376344086021505</v>
+        <v>-4</v>
       </c>
       <c r="L207" t="n">
         <v>478</v>
@@ -10836,7 +10858,7 @@
         <v>808</v>
       </c>
       <c r="K208" t="n">
-        <v>6.382978723404255</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L208" t="n">
         <v>478.4</v>
@@ -10887,7 +10909,7 @@
         <v>814</v>
       </c>
       <c r="K209" t="n">
-        <v>4.166666666666666</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L209" t="n">
         <v>478.8</v>
@@ -10938,7 +10960,7 @@
         <v>820</v>
       </c>
       <c r="K210" t="n">
-        <v>12</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L210" t="n">
         <v>479.9</v>
@@ -10989,7 +11011,7 @@
         <v>825</v>
       </c>
       <c r="K211" t="n">
-        <v>1.01010101010101</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L211" t="n">
         <v>480.6</v>
@@ -11040,7 +11062,7 @@
         <v>825</v>
       </c>
       <c r="K212" t="n">
-        <v>8.695652173913043</v>
+        <v>25</v>
       </c>
       <c r="L212" t="n">
         <v>481.7</v>
@@ -11091,7 +11113,7 @@
         <v>833</v>
       </c>
       <c r="K213" t="n">
-        <v>9.67741935483871</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L213" t="n">
         <v>483.3</v>
@@ -11142,7 +11164,7 @@
         <v>835</v>
       </c>
       <c r="K214" t="n">
-        <v>1.123595505617978</v>
+        <v>35</v>
       </c>
       <c r="L214" t="n">
         <v>484.8</v>
@@ -11193,7 +11215,7 @@
         <v>835</v>
       </c>
       <c r="K215" t="n">
-        <v>26.76056338028169</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>486.2</v>
@@ -11244,7 +11266,7 @@
         <v>839</v>
       </c>
       <c r="K216" t="n">
-        <v>11.76470588235294</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L216" t="n">
         <v>487.1</v>
@@ -11295,7 +11317,7 @@
         <v>845</v>
       </c>
       <c r="K217" t="n">
-        <v>11.76470588235294</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L217" t="n">
         <v>487.9</v>
@@ -11346,7 +11368,7 @@
         <v>846</v>
       </c>
       <c r="K218" t="n">
-        <v>8.823529411764707</v>
+        <v>25</v>
       </c>
       <c r="L218" t="n">
         <v>488.1</v>
@@ -11397,7 +11419,7 @@
         <v>848</v>
       </c>
       <c r="K219" t="n">
-        <v>21.875</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L219" t="n">
         <v>489.1</v>
@@ -11448,7 +11470,7 @@
         <v>851</v>
       </c>
       <c r="K220" t="n">
-        <v>18.18181818181818</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L220" t="n">
         <v>489.2</v>
@@ -11499,7 +11521,7 @@
         <v>851</v>
       </c>
       <c r="K221" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L221" t="n">
         <v>489.8</v>
@@ -11550,7 +11572,7 @@
         <v>856</v>
       </c>
       <c r="K222" t="n">
-        <v>33.33333333333333</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L222" t="n">
         <v>490.9</v>
@@ -11601,7 +11623,7 @@
         <v>859</v>
       </c>
       <c r="K223" t="n">
-        <v>24.24242424242424</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L223" t="n">
         <v>490.9</v>
@@ -11652,7 +11674,7 @@
         <v>861</v>
       </c>
       <c r="K224" t="n">
-        <v>28.35820895522388</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L224" t="n">
         <v>491.3</v>
@@ -11703,7 +11725,7 @@
         <v>861</v>
       </c>
       <c r="K225" t="n">
-        <v>27.27272727272727</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L225" t="n">
         <v>491.7</v>
@@ -11754,7 +11776,7 @@
         <v>865</v>
       </c>
       <c r="K226" t="n">
-        <v>18.84057971014493</v>
+        <v>-10</v>
       </c>
       <c r="L226" t="n">
         <v>492.1</v>
@@ -11805,7 +11827,7 @@
         <v>869</v>
       </c>
       <c r="K227" t="n">
-        <v>15.15151515151515</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L227" t="n">
         <v>492.3</v>
@@ -11856,7 +11878,7 @@
         <v>870</v>
       </c>
       <c r="K228" t="n">
-        <v>9.67741935483871</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L228" t="n">
         <v>492.7</v>
@@ -11907,7 +11929,7 @@
         <v>873</v>
       </c>
       <c r="K229" t="n">
-        <v>25.42372881355932</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L229" t="n">
         <v>493.2</v>
@@ -11958,7 +11980,7 @@
         <v>875</v>
       </c>
       <c r="K230" t="n">
-        <v>20</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L230" t="n">
         <v>494.2</v>
@@ -12009,7 +12031,7 @@
         <v>885</v>
       </c>
       <c r="K231" t="n">
-        <v>43.33333333333334</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L231" t="n">
         <v>496.2</v>
@@ -12060,7 +12082,7 @@
         <v>889</v>
       </c>
       <c r="K232" t="n">
-        <v>34.375</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L232" t="n">
         <v>497.3</v>
@@ -12111,7 +12133,7 @@
         <v>894</v>
       </c>
       <c r="K233" t="n">
-        <v>14.75409836065574</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L233" t="n">
         <v>498.2</v>
@@ -12162,7 +12184,7 @@
         <v>898</v>
       </c>
       <c r="K234" t="n">
-        <v>23.80952380952381</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L234" t="n">
         <v>499.3</v>
@@ -12213,7 +12235,7 @@
         <v>899</v>
       </c>
       <c r="K235" t="n">
-        <v>25</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L235" t="n">
         <v>500.5</v>
@@ -12264,7 +12286,7 @@
         <v>908</v>
       </c>
       <c r="K236" t="n">
-        <v>42.02898550724638</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L236" t="n">
         <v>503</v>
@@ -12315,7 +12337,7 @@
         <v>918</v>
       </c>
       <c r="K237" t="n">
-        <v>45.20547945205479</v>
+        <v>62.5</v>
       </c>
       <c r="L237" t="n">
         <v>506.1</v>
@@ -12366,7 +12388,7 @@
         <v>925</v>
       </c>
       <c r="K238" t="n">
-        <v>34.17721518987342</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L238" t="n">
         <v>508.4</v>
@@ -12417,7 +12439,7 @@
         <v>932</v>
       </c>
       <c r="K239" t="n">
-        <v>38.09523809523809</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L239" t="n">
         <v>511.1</v>
@@ -12468,7 +12490,7 @@
         <v>941</v>
       </c>
       <c r="K240" t="n">
-        <v>28.88888888888889</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="L240" t="n">
         <v>512.7</v>
@@ -12519,7 +12541,7 @@
         <v>948</v>
       </c>
       <c r="K241" t="n">
-        <v>19.58762886597938</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L241" t="n">
         <v>512.6</v>
@@ -12570,7 +12592,7 @@
         <v>957</v>
       </c>
       <c r="K242" t="n">
-        <v>4.95049504950495</v>
+        <v>-1.587301587301587</v>
       </c>
       <c r="L242" t="n">
         <v>512</v>
@@ -12621,7 +12643,7 @@
         <v>964</v>
       </c>
       <c r="K243" t="n">
-        <v>14.28571428571428</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L243" t="n">
         <v>512.6</v>
@@ -12672,7 +12694,7 @@
         <v>965</v>
       </c>
       <c r="K244" t="n">
-        <v>13.46153846153846</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L244" t="n">
         <v>512.9</v>
@@ -12723,7 +12745,7 @@
         <v>970</v>
       </c>
       <c r="K245" t="n">
-        <v>8.256880733944955</v>
+        <v>-19.35483870967742</v>
       </c>
       <c r="L245" t="n">
         <v>512.6</v>
@@ -12774,7 +12796,7 @@
         <v>970</v>
       </c>
       <c r="K246" t="n">
-        <v>12.38095238095238</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L246" t="n">
         <v>511.4</v>
@@ -12825,7 +12847,7 @@
         <v>976</v>
       </c>
       <c r="K247" t="n">
-        <v>2.803738317757009</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L247" t="n">
         <v>508.6</v>
@@ -12876,7 +12898,7 @@
         <v>978</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L248" t="n">
         <v>506.3</v>
@@ -12927,7 +12949,7 @@
         <v>984</v>
       </c>
       <c r="K249" t="n">
-        <v>2.702702702702703</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L249" t="n">
         <v>503.9</v>
@@ -12978,7 +13000,7 @@
         <v>988</v>
       </c>
       <c r="K250" t="n">
-        <v>-2.654867256637168</v>
+        <v>-30</v>
       </c>
       <c r="L250" t="n">
         <v>502</v>
@@ -13029,7 +13051,7 @@
         <v>990</v>
       </c>
       <c r="K251" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L251" t="n">
         <v>500.6</v>
@@ -13080,7 +13102,7 @@
         <v>998</v>
       </c>
       <c r="K252" t="n">
-        <v>-2.752293577981652</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L252" t="n">
         <v>500.9</v>
@@ -13131,7 +13153,7 @@
         <v>1005</v>
       </c>
       <c r="K253" t="n">
-        <v>-4.504504504504505</v>
+        <v>-30</v>
       </c>
       <c r="L253" t="n">
         <v>499.8</v>
@@ -13182,7 +13204,7 @@
         <v>1007</v>
       </c>
       <c r="K254" t="n">
-        <v>-10.09174311926606</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L254" t="n">
         <v>498.4</v>
@@ -13233,7 +13255,7 @@
         <v>1013</v>
       </c>
       <c r="K255" t="n">
-        <v>-5.263157894736842</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L255" t="n">
         <v>498.1</v>
@@ -13284,7 +13306,7 @@
         <v>1013</v>
       </c>
       <c r="K256" t="n">
-        <v>-14.28571428571428</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L256" t="n">
         <v>497.8</v>
@@ -13335,7 +13357,7 @@
         <v>1016</v>
       </c>
       <c r="K257" t="n">
-        <v>-28.57142857142857</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L257" t="n">
         <v>497.8</v>
@@ -13386,7 +13408,7 @@
         <v>1016</v>
       </c>
       <c r="K258" t="n">
-        <v>-23.07692307692308</v>
+        <v>-12.5</v>
       </c>
       <c r="L258" t="n">
         <v>498</v>
@@ -13437,7 +13459,7 @@
         <v>1017</v>
       </c>
       <c r="K259" t="n">
-        <v>-34.11764705882353</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L259" t="n">
         <v>497.5</v>
@@ -13488,7 +13510,7 @@
         <v>1018</v>
       </c>
       <c r="K260" t="n">
-        <v>-24.67532467532467</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L260" t="n">
         <v>497.5</v>
@@ -13539,7 +13561,7 @@
         <v>1022</v>
       </c>
       <c r="K261" t="n">
-        <v>-21.62162162162162</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L261" t="n">
         <v>497.3</v>
@@ -13590,7 +13612,7 @@
         <v>1026</v>
       </c>
       <c r="K262" t="n">
-        <v>-4.347826086956522</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L262" t="n">
         <v>496.7</v>
@@ -13641,7 +13663,7 @@
         <v>1031</v>
       </c>
       <c r="K263" t="n">
-        <v>-22.38805970149254</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L263" t="n">
         <v>496.3</v>
@@ -13692,7 +13714,7 @@
         <v>1033</v>
       </c>
       <c r="K264" t="n">
-        <v>-20.58823529411764</v>
+        <v>-30</v>
       </c>
       <c r="L264" t="n">
         <v>496.3</v>
@@ -13743,7 +13765,7 @@
         <v>1033</v>
       </c>
       <c r="K265" t="n">
-        <v>-14.28571428571428</v>
+        <v>-30</v>
       </c>
       <c r="L265" t="n">
         <v>495.7</v>
@@ -13794,7 +13816,7 @@
         <v>1037</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.462686567164178</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L266" t="n">
         <v>495.5</v>
@@ -13845,7 +13867,7 @@
         <v>1043</v>
       </c>
       <c r="K267" t="n">
-        <v>10.44776119402985</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L267" t="n">
         <v>496.2</v>
@@ -13896,7 +13918,7 @@
         <v>1050</v>
       </c>
       <c r="K268" t="n">
-        <v>2.777777777777778</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L268" t="n">
         <v>496.2</v>
@@ -13947,7 +13969,7 @@
         <v>1058</v>
       </c>
       <c r="K269" t="n">
-        <v>5.405405405405405</v>
+        <v>20</v>
       </c>
       <c r="L269" t="n">
         <v>497.1</v>
@@ -13998,7 +14020,7 @@
         <v>1058</v>
       </c>
       <c r="K270" t="n">
-        <v>11.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>497.9</v>
@@ -14049,7 +14071,7 @@
         <v>1059</v>
       </c>
       <c r="K271" t="n">
-        <v>13.04347826086956</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L271" t="n">
         <v>499</v>
@@ -14100,7 +14122,7 @@
         <v>1068</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.42857142857143</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L272" t="n">
         <v>498.8</v>
@@ -14151,7 +14173,7 @@
         <v>1080</v>
       </c>
       <c r="K273" t="n">
-        <v>14.66666666666667</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L273" t="n">
         <v>500.3</v>
@@ -14202,7 +14224,7 @@
         <v>1089</v>
       </c>
       <c r="K274" t="n">
-        <v>4.878048780487805</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L274" t="n">
         <v>500.7</v>
@@ -14253,7 +14275,7 @@
         <v>1092</v>
       </c>
       <c r="K275" t="n">
-        <v>-6.329113924050633</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L275" t="n">
         <v>500.8</v>
@@ -14304,7 +14326,7 @@
         <v>1102</v>
       </c>
       <c r="K276" t="n">
-        <v>5.617977528089887</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L276" t="n">
         <v>501.5</v>
@@ -14355,7 +14377,7 @@
         <v>1108</v>
       </c>
       <c r="K277" t="n">
-        <v>2.173913043478261</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L277" t="n">
         <v>501</v>
@@ -14406,7 +14428,7 @@
         <v>1111</v>
       </c>
       <c r="K278" t="n">
-        <v>-1.052631578947368</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L278" t="n">
         <v>500.9</v>
@@ -14457,7 +14479,7 @@
         <v>1113</v>
       </c>
       <c r="K279" t="n">
-        <v>2.083333333333333</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L279" t="n">
         <v>500.2</v>
@@ -14508,7 +14530,7 @@
         <v>1116</v>
       </c>
       <c r="K280" t="n">
-        <v>-2.040816326530612</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L280" t="n">
         <v>499.2</v>
@@ -14559,7 +14581,7 @@
         <v>1121</v>
       </c>
       <c r="K281" t="n">
-        <v>7.07070707070707</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L281" t="n">
         <v>498.8</v>
@@ -14610,7 +14632,7 @@
         <v>1121</v>
       </c>
       <c r="K282" t="n">
-        <v>3.157894736842105</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L282" t="n">
         <v>499.3</v>
@@ -14661,7 +14683,7 @@
         <v>1124</v>
       </c>
       <c r="K283" t="n">
-        <v>5.376344086021505</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L283" t="n">
         <v>498.3</v>
@@ -14712,7 +14734,7 @@
         <v>1127</v>
       </c>
       <c r="K284" t="n">
-        <v>6.382978723404255</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L284" t="n">
         <v>498.5</v>
@@ -14763,7 +14785,7 @@
         <v>1131</v>
       </c>
       <c r="K285" t="n">
-        <v>2.040816326530612</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L285" t="n">
         <v>498.6</v>
@@ -14814,7 +14836,7 @@
         <v>1137</v>
       </c>
       <c r="K286" t="n">
-        <v>4</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L286" t="n">
         <v>498.3</v>
@@ -14865,7 +14887,7 @@
         <v>1139</v>
       </c>
       <c r="K287" t="n">
-        <v>-4.166666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L287" t="n">
         <v>498.4</v>
@@ -14916,7 +14938,7 @@
         <v>1142</v>
       </c>
       <c r="K288" t="n">
-        <v>6.521739130434782</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L288" t="n">
         <v>499.1</v>
@@ -14967,7 +14989,7 @@
         <v>1145</v>
       </c>
       <c r="K289" t="n">
-        <v>-5.747126436781609</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L289" t="n">
         <v>499.3</v>
@@ -15018,7 +15040,7 @@
         <v>1145</v>
       </c>
       <c r="K290" t="n">
-        <v>-5.747126436781609</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>499.8</v>
@@ -15069,7 +15091,7 @@
         <v>1146</v>
       </c>
       <c r="K291" t="n">
-        <v>-3.448275862068965</v>
+        <v>4</v>
       </c>
       <c r="L291" t="n">
         <v>499.9</v>
@@ -15120,7 +15142,7 @@
         <v>1147</v>
       </c>
       <c r="K292" t="n">
-        <v>6.329113924050633</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L292" t="n">
         <v>499.9</v>
@@ -15171,7 +15193,7 @@
         <v>1147</v>
       </c>
       <c r="K293" t="n">
-        <v>-10.44776119402985</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>500.2</v>
@@ -15222,7 +15244,7 @@
         <v>1152</v>
       </c>
       <c r="K294" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L294" t="n">
         <v>500.7</v>
@@ -15273,7 +15295,7 @@
         <v>1153</v>
       </c>
       <c r="K295" t="n">
-        <v>18.0327868852459</v>
+        <v>25</v>
       </c>
       <c r="L295" t="n">
         <v>501.7</v>
@@ -15324,7 +15346,7 @@
         <v>1154</v>
       </c>
       <c r="K296" t="n">
-        <v>3.846153846153846</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L296" t="n">
         <v>502.2</v>
@@ -15375,7 +15397,7 @@
         <v>1155</v>
       </c>
       <c r="K297" t="n">
-        <v>19.14893617021277</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L297" t="n">
         <v>503</v>
@@ -15426,7 +15448,7 @@
         <v>1155</v>
       </c>
       <c r="K298" t="n">
-        <v>27.27272727272727</v>
+        <v>80</v>
       </c>
       <c r="L298" t="n">
         <v>503.5</v>
@@ -15477,7 +15499,7 @@
         <v>1156</v>
       </c>
       <c r="K299" t="n">
-        <v>25.58139534883721</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L299" t="n">
         <v>504.4</v>
@@ -15528,7 +15550,7 @@
         <v>1157</v>
       </c>
       <c r="K300" t="n">
-        <v>36.58536585365854</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L300" t="n">
         <v>505.4</v>
@@ -15579,7 +15601,7 @@
         <v>1157</v>
       </c>
       <c r="K301" t="n">
-        <v>27.77777777777778</v>
+        <v>100</v>
       </c>
       <c r="L301" t="n">
         <v>506.3</v>
@@ -15630,7 +15652,7 @@
         <v>1160</v>
       </c>
       <c r="K302" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L302" t="n">
         <v>507.6</v>
@@ -15681,7 +15703,7 @@
         <v>1164</v>
       </c>
       <c r="K303" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>508.5</v>
@@ -15732,7 +15754,7 @@
         <v>1164</v>
       </c>
       <c r="K304" t="n">
-        <v>24.32432432432433</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L304" t="n">
         <v>508.9</v>
@@ -15783,7 +15805,7 @@
         <v>1165</v>
       </c>
       <c r="K305" t="n">
-        <v>41.17647058823529</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L305" t="n">
         <v>509.3</v>
@@ -15834,7 +15856,7 @@
         <v>1170</v>
       </c>
       <c r="K306" t="n">
-        <v>39.39393939393939</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L306" t="n">
         <v>510.1</v>
@@ -15936,7 +15958,7 @@
         <v>1172</v>
       </c>
       <c r="K308" t="n">
-        <v>46.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L308" t="n">
         <v>511.8</v>
@@ -15987,7 +16009,7 @@
         <v>1174</v>
       </c>
       <c r="K309" t="n">
-        <v>51.72413793103448</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L309" t="n">
         <v>512.4</v>
@@ -16038,7 +16060,7 @@
         <v>1177</v>
       </c>
       <c r="K310" t="n">
-        <v>56.25</v>
+        <v>40</v>
       </c>
       <c r="L310" t="n">
         <v>513.2</v>
@@ -16089,7 +16111,7 @@
         <v>1177</v>
       </c>
       <c r="K311" t="n">
-        <v>54.83870967741935</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L311" t="n">
         <v>514</v>
@@ -16140,7 +16162,7 @@
         <v>1178</v>
       </c>
       <c r="K312" t="n">
-        <v>54.83870967741935</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L312" t="n">
         <v>514.4</v>
@@ -16191,7 +16213,7 @@
         <v>1181</v>
       </c>
       <c r="K313" t="n">
-        <v>58.82352941176471</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L313" t="n">
         <v>515.5</v>
@@ -16242,7 +16264,7 @@
         <v>1185</v>
       </c>
       <c r="K314" t="n">
-        <v>57.57575757575758</v>
+        <v>70</v>
       </c>
       <c r="L314" t="n">
         <v>517</v>
@@ -16293,7 +16315,7 @@
         <v>1189</v>
       </c>
       <c r="K315" t="n">
-        <v>38.88888888888889</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L315" t="n">
         <v>518</v>
@@ -16344,7 +16366,7 @@
         <v>1190</v>
       </c>
       <c r="K316" t="n">
-        <v>38.88888888888889</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L316" t="n">
         <v>518.6</v>
@@ -16395,7 +16417,7 @@
         <v>1192</v>
       </c>
       <c r="K317" t="n">
-        <v>40.54054054054054</v>
+        <v>30</v>
       </c>
       <c r="L317" t="n">
         <v>519.3</v>
@@ -16446,7 +16468,7 @@
         <v>1195</v>
       </c>
       <c r="K318" t="n">
-        <v>30</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L318" t="n">
         <v>519.6</v>
@@ -16497,7 +16519,7 @@
         <v>1214</v>
       </c>
       <c r="K319" t="n">
-        <v>51.72413793103448</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="L319" t="n">
         <v>522</v>
@@ -16548,7 +16570,7 @@
         <v>1217</v>
       </c>
       <c r="K320" t="n">
-        <v>53.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L320" t="n">
         <v>524.4</v>
@@ -16599,7 +16621,7 @@
         <v>1219</v>
       </c>
       <c r="K321" t="n">
-        <v>48.38709677419355</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L321" t="n">
         <v>526.6</v>
@@ -16650,7 +16672,7 @@
         <v>1222</v>
       </c>
       <c r="K322" t="n">
-        <v>48.38709677419355</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L322" t="n">
         <v>529.2</v>
@@ -16701,7 +16723,7 @@
         <v>1225</v>
       </c>
       <c r="K323" t="n">
-        <v>50.81967213114754</v>
+        <v>40</v>
       </c>
       <c r="L323" t="n">
         <v>531.2</v>
@@ -16752,7 +16774,7 @@
         <v>1229</v>
       </c>
       <c r="K324" t="n">
-        <v>41.53846153846154</v>
+        <v>40</v>
       </c>
       <c r="L324" t="n">
         <v>532.4</v>
@@ -16803,7 +16825,7 @@
         <v>1237</v>
       </c>
       <c r="K325" t="n">
-        <v>25</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L325" t="n">
         <v>533.2</v>
@@ -16854,7 +16876,7 @@
         <v>1244</v>
       </c>
       <c r="K326" t="n">
-        <v>8.108108108108109</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L326" t="n">
         <v>533.2</v>
@@ -16905,7 +16927,7 @@
         <v>1247</v>
       </c>
       <c r="K327" t="n">
-        <v>10.52631578947368</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L327" t="n">
         <v>533.3</v>
@@ -16956,7 +16978,7 @@
         <v>1251</v>
       </c>
       <c r="K328" t="n">
-        <v>3.79746835443038</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L328" t="n">
         <v>533.3</v>
@@ -17007,7 +17029,7 @@
         <v>1265</v>
       </c>
       <c r="K329" t="n">
-        <v>20.87912087912088</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L329" t="n">
         <v>532.8</v>
@@ -17058,7 +17080,7 @@
         <v>1269</v>
       </c>
       <c r="K330" t="n">
-        <v>13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L330" t="n">
         <v>531.6</v>
@@ -17109,7 +17131,7 @@
         <v>1278</v>
       </c>
       <c r="K331" t="n">
-        <v>2.97029702970297</v>
+        <v>-39.28571428571428</v>
       </c>
       <c r="L331" t="n">
         <v>529.7</v>
@@ -17160,7 +17182,7 @@
         <v>1287</v>
       </c>
       <c r="K332" t="n">
-        <v>11.92660550458716</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L332" t="n">
         <v>528.4</v>
@@ -17211,7 +17233,7 @@
         <v>1297</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L333" t="n">
         <v>526.4</v>
@@ -17262,7 +17284,7 @@
         <v>1301</v>
       </c>
       <c r="K334" t="n">
-        <v>-6.896551724137931</v>
+        <v>-18.75</v>
       </c>
       <c r="L334" t="n">
         <v>524.4</v>
@@ -17313,7 +17335,7 @@
         <v>1303</v>
       </c>
       <c r="K335" t="n">
-        <v>-1.754385964912281</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L335" t="n">
         <v>523.4</v>
@@ -17364,7 +17386,7 @@
         <v>1312</v>
       </c>
       <c r="K336" t="n">
-        <v>4.918032786885246</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="L336" t="n">
         <v>524</v>
@@ -17415,7 +17437,7 @@
         <v>1318</v>
       </c>
       <c r="K337" t="n">
-        <v>-1.587301587301587</v>
+        <v>1.492537313432836</v>
       </c>
       <c r="L337" t="n">
         <v>523.7</v>
@@ -17466,7 +17488,7 @@
         <v>1319</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L338" t="n">
         <v>523.7</v>
@@ -17517,7 +17539,7 @@
         <v>1323</v>
       </c>
       <c r="K339" t="n">
-        <v>-13.76146788990826</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L339" t="n">
         <v>522.7</v>
@@ -17568,7 +17590,7 @@
         <v>1325</v>
       </c>
       <c r="K340" t="n">
-        <v>-14.81481481481481</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L340" t="n">
         <v>522.3</v>
@@ -17619,7 +17641,7 @@
         <v>1327</v>
       </c>
       <c r="K341" t="n">
-        <v>-11.11111111111111</v>
+        <v>-5</v>
       </c>
       <c r="L341" t="n">
         <v>523</v>
@@ -17670,7 +17692,7 @@
         <v>1328</v>
       </c>
       <c r="K342" t="n">
-        <v>-15.09433962264151</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L342" t="n">
         <v>522.7</v>
@@ -17721,7 +17743,7 @@
         <v>1330</v>
       </c>
       <c r="K343" t="n">
-        <v>-14.28571428571428</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L343" t="n">
         <v>523.2</v>
@@ -17772,7 +17794,7 @@
         <v>1333</v>
       </c>
       <c r="K344" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L344" t="n">
         <v>524.4</v>
@@ -17823,7 +17845,7 @@
         <v>1334</v>
       </c>
       <c r="K345" t="n">
-        <v>1.030927835051546</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L345" t="n">
         <v>525.5</v>
@@ -17874,7 +17896,7 @@
         <v>1336</v>
       </c>
       <c r="K346" t="n">
-        <v>6.521739130434782</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>525.5</v>
@@ -17925,7 +17947,7 @@
         <v>1337</v>
       </c>
       <c r="K347" t="n">
-        <v>2.222222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>526</v>
@@ -17976,7 +17998,7 @@
         <v>1338</v>
       </c>
       <c r="K348" t="n">
-        <v>8.045977011494253</v>
+        <v>20</v>
       </c>
       <c r="L348" t="n">
         <v>526.7</v>
@@ -18027,7 +18049,7 @@
         <v>1339</v>
       </c>
       <c r="K349" t="n">
-        <v>-8.108108108108109</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L349" t="n">
         <v>527.1</v>
@@ -18078,7 +18100,7 @@
         <v>1342</v>
       </c>
       <c r="K350" t="n">
-        <v>1.36986301369863</v>
+        <v>20</v>
       </c>
       <c r="L350" t="n">
         <v>527.6</v>
@@ -18129,7 +18151,7 @@
         <v>1349</v>
       </c>
       <c r="K351" t="n">
-        <v>23.94366197183098</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L351" t="n">
         <v>528.6</v>
@@ -18180,7 +18202,7 @@
         <v>1352</v>
       </c>
       <c r="K352" t="n">
-        <v>16.92307692307692</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L352" t="n">
         <v>530</v>
@@ -18231,7 +18253,7 @@
         <v>1355</v>
       </c>
       <c r="K353" t="n">
-        <v>31.03448275862069</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L353" t="n">
         <v>531.3</v>
@@ -18282,7 +18304,7 @@
         <v>1355</v>
       </c>
       <c r="K354" t="n">
-        <v>40.74074074074074</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L354" t="n">
         <v>532.3</v>
@@ -18333,7 +18355,7 @@
         <v>1355</v>
       </c>
       <c r="K355" t="n">
-        <v>38.46153846153847</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L355" t="n">
         <v>533.2</v>
@@ -18384,7 +18406,7 @@
         <v>1355</v>
       </c>
       <c r="K356" t="n">
-        <v>25.58139534883721</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L356" t="n">
         <v>534.3</v>
@@ -18435,7 +18457,7 @@
         <v>1358</v>
       </c>
       <c r="K357" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L357" t="n">
         <v>535.2</v>
@@ -18486,7 +18508,7 @@
         <v>1372</v>
       </c>
       <c r="K358" t="n">
-        <v>1.886792452830189</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L358" t="n">
         <v>534.6</v>
@@ -18537,7 +18559,7 @@
         <v>1373</v>
       </c>
       <c r="K359" t="n">
-        <v>-8</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L359" t="n">
         <v>533.8</v>
@@ -18588,7 +18610,7 @@
         <v>1375</v>
       </c>
       <c r="K360" t="n">
-        <v>-8</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L360" t="n">
         <v>532.9</v>
@@ -18639,7 +18661,7 @@
         <v>1378</v>
       </c>
       <c r="K361" t="n">
-        <v>-5.88235294117647</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L361" t="n">
         <v>531.6</v>
@@ -18690,7 +18712,7 @@
         <v>1380</v>
       </c>
       <c r="K362" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L362" t="n">
         <v>529.8</v>
@@ -18741,7 +18763,7 @@
         <v>1384</v>
       </c>
       <c r="K363" t="n">
-        <v>-11.11111111111111</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L363" t="n">
         <v>527.9</v>
@@ -18792,7 +18814,7 @@
         <v>1385</v>
       </c>
       <c r="K364" t="n">
-        <v>-15.38461538461539</v>
+        <v>-60</v>
       </c>
       <c r="L364" t="n">
         <v>526.1</v>
@@ -18843,7 +18865,7 @@
         <v>1386</v>
       </c>
       <c r="K365" t="n">
-        <v>-19.23076923076923</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L365" t="n">
         <v>524.2</v>
@@ -18894,7 +18916,7 @@
         <v>1387</v>
       </c>
       <c r="K366" t="n">
-        <v>-17.64705882352941</v>
+        <v>-58.62068965517241</v>
       </c>
       <c r="L366" t="n">
         <v>522.2</v>
@@ -18945,7 +18967,7 @@
         <v>1388</v>
       </c>
       <c r="K367" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L367" t="n">
         <v>520.4</v>
@@ -19047,7 +19069,7 @@
         <v>1389</v>
       </c>
       <c r="K369" t="n">
-        <v>-24</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L369" t="n">
         <v>519.6</v>
@@ -19098,7 +19120,7 @@
         <v>1393</v>
       </c>
       <c r="K370" t="n">
-        <v>-21.56862745098039</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L370" t="n">
         <v>519.4</v>
@@ -19149,7 +19171,7 @@
         <v>1394</v>
       </c>
       <c r="K371" t="n">
-        <v>-37.77777777777778</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L371" t="n">
         <v>519</v>
@@ -19200,7 +19222,7 @@
         <v>1394</v>
       </c>
       <c r="K372" t="n">
-        <v>-47.61904761904761</v>
+        <v>20</v>
       </c>
       <c r="L372" t="n">
         <v>518.8</v>
@@ -19251,7 +19273,7 @@
         <v>1396</v>
       </c>
       <c r="K373" t="n">
-        <v>-36.58536585365854</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L373" t="n">
         <v>519.2</v>
@@ -19302,7 +19324,7 @@
         <v>1396</v>
       </c>
       <c r="K374" t="n">
-        <v>-36.58536585365854</v>
+        <v>40</v>
       </c>
       <c r="L374" t="n">
         <v>519.5</v>
@@ -19353,7 +19375,7 @@
         <v>1398</v>
       </c>
       <c r="K375" t="n">
-        <v>-30.23255813953488</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L375" t="n">
         <v>520.1</v>
@@ -19404,7 +19426,7 @@
         <v>1413</v>
       </c>
       <c r="K376" t="n">
-        <v>-48.27586206896552</v>
+        <v>-28</v>
       </c>
       <c r="L376" t="n">
         <v>519.3</v>
@@ -19455,7 +19477,7 @@
         <v>1420</v>
       </c>
       <c r="K377" t="n">
-        <v>-51.61290322580645</v>
+        <v>-43.75</v>
       </c>
       <c r="L377" t="n">
         <v>517.9</v>
@@ -19506,7 +19528,7 @@
         <v>1427</v>
       </c>
       <c r="K378" t="n">
-        <v>-20</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L378" t="n">
         <v>517.2</v>
@@ -19557,7 +19579,7 @@
         <v>1429</v>
       </c>
       <c r="K379" t="n">
-        <v>-14.28571428571428</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L379" t="n">
         <v>516.8</v>
@@ -19608,7 +19630,7 @@
         <v>1432</v>
       </c>
       <c r="K380" t="n">
-        <v>-22.80701754385965</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L380" t="n">
         <v>515.7</v>
@@ -19659,7 +19681,7 @@
         <v>1436</v>
       </c>
       <c r="K381" t="n">
-        <v>-20.68965517241379</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L381" t="n">
         <v>514.9</v>
@@ -19710,7 +19732,7 @@
         <v>1439</v>
       </c>
       <c r="K382" t="n">
-        <v>-22.03389830508474</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L382" t="n">
         <v>513.8</v>
@@ -19761,7 +19783,7 @@
         <v>1439</v>
       </c>
       <c r="K383" t="n">
-        <v>-16.36363636363636</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L383" t="n">
         <v>512.5</v>
@@ -19812,7 +19834,7 @@
         <v>1442</v>
       </c>
       <c r="K384" t="n">
-        <v>-22.80701754385965</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L384" t="n">
         <v>510.9</v>
@@ -19863,7 +19885,7 @@
         <v>1443</v>
       </c>
       <c r="K385" t="n">
-        <v>-22.80701754385965</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L385" t="n">
         <v>509</v>
@@ -19914,7 +19936,7 @@
         <v>1444</v>
       </c>
       <c r="K386" t="n">
-        <v>-22.80701754385965</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L386" t="n">
         <v>508.5</v>
@@ -19965,7 +19987,7 @@
         <v>1446</v>
       </c>
       <c r="K387" t="n">
-        <v>-24.13793103448276</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L387" t="n">
         <v>508.5</v>
@@ -20016,7 +20038,7 @@
         <v>1449</v>
       </c>
       <c r="K388" t="n">
-        <v>-18.0327868852459</v>
+        <v>-30</v>
       </c>
       <c r="L388" t="n">
         <v>508.1</v>
@@ -20067,7 +20089,7 @@
         <v>1450</v>
       </c>
       <c r="K389" t="n">
-        <v>-14.75409836065574</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L389" t="n">
         <v>507.6</v>
@@ -20118,7 +20140,7 @@
         <v>1452</v>
       </c>
       <c r="K390" t="n">
-        <v>-18.64406779661017</v>
+        <v>-25</v>
       </c>
       <c r="L390" t="n">
         <v>507.6</v>
@@ -20169,7 +20191,7 @@
         <v>1455</v>
       </c>
       <c r="K391" t="n">
-        <v>-24.59016393442623</v>
+        <v>-25</v>
       </c>
       <c r="L391" t="n">
         <v>506.9</v>
@@ -20220,7 +20242,7 @@
         <v>1457</v>
       </c>
       <c r="K392" t="n">
-        <v>-20.63492063492063</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L392" t="n">
         <v>506.7</v>
@@ -20271,7 +20293,7 @@
         <v>1466</v>
       </c>
       <c r="K393" t="n">
-        <v>-34.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>505.6</v>
@@ -20322,7 +20344,7 @@
         <v>1471</v>
       </c>
       <c r="K394" t="n">
-        <v>-38.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L394" t="n">
         <v>504.3</v>
@@ -20373,7 +20395,7 @@
         <v>1481</v>
       </c>
       <c r="K395" t="n">
-        <v>-25.30120481927711</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L395" t="n">
         <v>504.1</v>
@@ -20424,7 +20446,7 @@
         <v>1487</v>
       </c>
       <c r="K396" t="n">
-        <v>-16.21621621621622</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L396" t="n">
         <v>503.4</v>
@@ -20475,7 +20497,7 @@
         <v>1488</v>
       </c>
       <c r="K397" t="n">
-        <v>-5.88235294117647</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L397" t="n">
         <v>503</v>
@@ -20526,7 +20548,7 @@
         <v>1490</v>
       </c>
       <c r="K398" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15</v>
       </c>
       <c r="L398" t="n">
         <v>502.5</v>
@@ -20577,7 +20599,7 @@
         <v>1497</v>
       </c>
       <c r="K399" t="n">
-        <v>-5.88235294117647</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L399" t="n">
         <v>502.6</v>
@@ -20628,7 +20650,7 @@
         <v>1501</v>
       </c>
       <c r="K400" t="n">
-        <v>-7.246376811594203</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L400" t="n">
         <v>502.1</v>
@@ -20679,7 +20701,7 @@
         <v>1504</v>
       </c>
       <c r="K401" t="n">
-        <v>-8.823529411764707</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L401" t="n">
         <v>502.2</v>
@@ -20730,7 +20752,7 @@
         <v>1504</v>
       </c>
       <c r="K402" t="n">
-        <v>-4.615384615384616</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L402" t="n">
         <v>502.1</v>
@@ -20781,7 +20803,7 @@
         <v>1507</v>
       </c>
       <c r="K403" t="n">
-        <v>-8.823529411764707</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L403" t="n">
         <v>502.6</v>
@@ -20832,7 +20854,7 @@
         <v>1515</v>
       </c>
       <c r="K404" t="n">
-        <v>-15.06849315068493</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L404" t="n">
         <v>502.8</v>
@@ -20883,7 +20905,7 @@
         <v>1522</v>
       </c>
       <c r="K405" t="n">
-        <v>-3.79746835443038</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L405" t="n">
         <v>502.7</v>
@@ -20934,7 +20956,7 @@
         <v>1525</v>
       </c>
       <c r="K406" t="n">
-        <v>-6.172839506172839</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L406" t="n">
         <v>502.9</v>
@@ -20985,7 +21007,7 @@
         <v>1526</v>
       </c>
       <c r="K407" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>503.1</v>
@@ -21036,7 +21058,7 @@
         <v>1526</v>
       </c>
       <c r="K408" t="n">
-        <v>-6.493506493506493</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L408" t="n">
         <v>503.1</v>
@@ -21087,7 +21109,7 @@
         <v>1526</v>
       </c>
       <c r="K409" t="n">
-        <v>-7.894736842105263</v>
+        <v>-12</v>
       </c>
       <c r="L409" t="n">
         <v>502.4</v>
@@ -21138,7 +21160,7 @@
         <v>1526</v>
       </c>
       <c r="K410" t="n">
-        <v>-10.81081081081081</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L410" t="n">
         <v>502.1</v>
@@ -21189,7 +21211,7 @@
         <v>1536</v>
       </c>
       <c r="K411" t="n">
-        <v>6.172839506172839</v>
+        <v>12.5</v>
       </c>
       <c r="L411" t="n">
         <v>502.5</v>
@@ -21240,7 +21262,7 @@
         <v>1540</v>
       </c>
       <c r="K412" t="n">
-        <v>-1.204819277108434</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L412" t="n">
         <v>502.5</v>
@@ -21291,7 +21313,7 @@
         <v>1541</v>
       </c>
       <c r="K413" t="n">
-        <v>9.333333333333334</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L413" t="n">
         <v>502.7</v>
@@ -21342,7 +21364,7 @@
         <v>1543</v>
       </c>
       <c r="K414" t="n">
-        <v>19.44444444444445</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L414" t="n">
         <v>503.9</v>
@@ -21393,7 +21415,7 @@
         <v>1544</v>
       </c>
       <c r="K415" t="n">
-        <v>4.761904761904762</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L415" t="n">
         <v>504.3</v>
@@ -21444,7 +21466,7 @@
         <v>1546</v>
       </c>
       <c r="K416" t="n">
-        <v>18.64406779661017</v>
+        <v>40</v>
       </c>
       <c r="L416" t="n">
         <v>505.2</v>
@@ -21495,7 +21517,7 @@
         <v>1549</v>
       </c>
       <c r="K417" t="n">
-        <v>11.47540983606557</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L417" t="n">
         <v>505.7</v>
@@ -21546,7 +21568,7 @@
         <v>1553</v>
       </c>
       <c r="K418" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L418" t="n">
         <v>506.6</v>
@@ -21597,7 +21619,7 @@
         <v>1554</v>
       </c>
       <c r="K419" t="n">
-        <v>5.263157894736842</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L419" t="n">
         <v>507.6</v>
@@ -21648,7 +21670,7 @@
         <v>1555</v>
       </c>
       <c r="K420" t="n">
-        <v>14.81481481481481</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L420" t="n">
         <v>508.7</v>
@@ -21699,7 +21721,7 @@
         <v>1555</v>
       </c>
       <c r="K421" t="n">
-        <v>9.803921568627452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L421" t="n">
         <v>508.8</v>
@@ -21750,7 +21772,7 @@
         <v>1557</v>
       </c>
       <c r="K422" t="n">
-        <v>13.20754716981132</v>
+        <v>50</v>
       </c>
       <c r="L422" t="n">
         <v>509.5</v>
@@ -21801,7 +21823,7 @@
         <v>1562</v>
       </c>
       <c r="K423" t="n">
-        <v>9.090909090909092</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L423" t="n">
         <v>509.8</v>
@@ -21852,7 +21874,7 @@
         <v>1563</v>
       </c>
       <c r="K424" t="n">
-        <v>29.16666666666667</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L424" t="n">
         <v>510</v>
@@ -21903,7 +21925,7 @@
         <v>1564</v>
       </c>
       <c r="K425" t="n">
-        <v>19.04761904761905</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L425" t="n">
         <v>510.4</v>
@@ -21954,7 +21976,7 @@
         <v>1566</v>
       </c>
       <c r="K426" t="n">
-        <v>31.70731707317073</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L426" t="n">
         <v>510.8</v>
@@ -22005,7 +22027,7 @@
         <v>1571</v>
       </c>
       <c r="K427" t="n">
-        <v>37.77777777777778</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L427" t="n">
         <v>512</v>
@@ -22056,7 +22078,7 @@
         <v>1573</v>
       </c>
       <c r="K428" t="n">
-        <v>40.42553191489361</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L428" t="n">
         <v>513</v>
@@ -22107,7 +22129,7 @@
         <v>1578</v>
       </c>
       <c r="K429" t="n">
-        <v>26.92307692307692</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L429" t="n">
         <v>513.4</v>
@@ -22158,7 +22180,7 @@
         <v>1579</v>
       </c>
       <c r="K430" t="n">
-        <v>24.52830188679245</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L430" t="n">
         <v>513.6</v>
@@ -22209,7 +22231,7 @@
         <v>1579</v>
       </c>
       <c r="K431" t="n">
-        <v>6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>513.8</v>
@@ -22260,7 +22282,7 @@
         <v>1579</v>
       </c>
       <c r="K432" t="n">
-        <v>17.94871794871795</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L432" t="n">
         <v>513.8</v>
@@ -22311,7 +22333,7 @@
         <v>1580</v>
       </c>
       <c r="K433" t="n">
-        <v>23.07692307692308</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L433" t="n">
         <v>514.4</v>
@@ -22362,7 +22384,7 @@
         <v>1585</v>
       </c>
       <c r="K434" t="n">
-        <v>4.761904761904762</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L434" t="n">
         <v>514.4</v>
@@ -22413,7 +22435,7 @@
         <v>1586</v>
       </c>
       <c r="K435" t="n">
-        <v>9.523809523809524</v>
+        <v>-10</v>
       </c>
       <c r="L435" t="n">
         <v>514.4</v>
@@ -22464,7 +22486,7 @@
         <v>1588</v>
       </c>
       <c r="K436" t="n">
-        <v>9.523809523809524</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L436" t="n">
         <v>514.4</v>
@@ -22515,7 +22537,7 @@
         <v>1589</v>
       </c>
       <c r="K437" t="n">
-        <v>20</v>
+        <v>-37.5</v>
       </c>
       <c r="L437" t="n">
         <v>514</v>
@@ -22566,7 +22588,7 @@
         <v>1589</v>
       </c>
       <c r="K438" t="n">
-        <v>11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L438" t="n">
         <v>513.4</v>
@@ -22617,7 +22639,7 @@
         <v>1591</v>
       </c>
       <c r="K439" t="n">
-        <v>2.702702702702703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L439" t="n">
         <v>513.1</v>
@@ -22668,7 +22690,7 @@
         <v>1597</v>
       </c>
       <c r="K440" t="n">
-        <v>14.28571428571428</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L440" t="n">
         <v>513.5</v>
@@ -22719,7 +22741,7 @@
         <v>1600</v>
       </c>
       <c r="K441" t="n">
-        <v>6.666666666666667</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L441" t="n">
         <v>513.6</v>
@@ -22770,7 +22792,7 @@
         <v>1603</v>
       </c>
       <c r="K442" t="n">
-        <v>-4.347826086956522</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L442" t="n">
         <v>513.4</v>
@@ -22821,7 +22843,7 @@
         <v>1608</v>
       </c>
       <c r="K443" t="n">
-        <v>17.39130434782609</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L443" t="n">
         <v>513.6</v>
@@ -22872,7 +22894,7 @@
         <v>1614</v>
       </c>
       <c r="K444" t="n">
-        <v>1.96078431372549</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>513.7</v>
@@ -22923,7 +22945,7 @@
         <v>1615</v>
       </c>
       <c r="K445" t="n">
-        <v>1.96078431372549</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L445" t="n">
         <v>513.8</v>
@@ -22974,7 +22996,7 @@
         <v>1617</v>
       </c>
       <c r="K446" t="n">
-        <v>1.96078431372549</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>513.9</v>
@@ -23025,7 +23047,7 @@
         <v>1617</v>
       </c>
       <c r="K447" t="n">
-        <v>-8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>513.9</v>
@@ -23076,7 +23098,7 @@
         <v>1619</v>
       </c>
       <c r="K448" t="n">
-        <v>-17.39130434782609</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>513.7</v>
@@ -23127,7 +23149,7 @@
         <v>1621</v>
       </c>
       <c r="K449" t="n">
-        <v>-11.62790697674419</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L449" t="n">
         <v>513.5</v>
@@ -23178,7 +23200,7 @@
         <v>1622</v>
       </c>
       <c r="K450" t="n">
-        <v>-6.976744186046512</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L450" t="n">
         <v>512.8</v>
@@ -23229,7 +23251,7 @@
         <v>1625</v>
       </c>
       <c r="K451" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L451" t="n">
         <v>512.7</v>
@@ -23280,7 +23302,7 @@
         <v>1627</v>
       </c>
       <c r="K452" t="n">
-        <v>-4.166666666666666</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L452" t="n">
         <v>512.7</v>
@@ -23331,7 +23353,7 @@
         <v>1629</v>
       </c>
       <c r="K453" t="n">
-        <v>-2.040816326530612</v>
+        <v>20</v>
       </c>
       <c r="L453" t="n">
         <v>512.4</v>
@@ -23382,7 +23404,7 @@
         <v>1632</v>
       </c>
       <c r="K454" t="n">
-        <v>2.127659574468085</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L454" t="n">
         <v>512.4</v>
@@ -23433,7 +23455,7 @@
         <v>1635</v>
       </c>
       <c r="K455" t="n">
-        <v>6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>512.6</v>
@@ -23484,7 +23506,7 @@
         <v>1640</v>
       </c>
       <c r="K456" t="n">
-        <v>-7.692307692307693</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L456" t="n">
         <v>512.1</v>
@@ -23535,7 +23557,7 @@
         <v>1641</v>
       </c>
       <c r="K457" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L457" t="n">
         <v>511.7</v>
@@ -23586,7 +23608,7 @@
         <v>1642</v>
       </c>
       <c r="K458" t="n">
-        <v>-9.433962264150944</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L458" t="n">
         <v>511.4</v>
@@ -23637,7 +23659,7 @@
         <v>1643</v>
       </c>
       <c r="K459" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L459" t="n">
         <v>511.2</v>
@@ -23688,7 +23710,7 @@
         <v>1645</v>
       </c>
       <c r="K460" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="L460" t="n">
         <v>510.7</v>
@@ -23739,7 +23761,7 @@
         <v>1649</v>
       </c>
       <c r="K461" t="n">
-        <v>-10.20408163265306</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L461" t="n">
         <v>510.3</v>
@@ -23790,7 +23812,7 @@
         <v>1657</v>
       </c>
       <c r="K462" t="n">
-        <v>-18.51851851851852</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L462" t="n">
         <v>509.3</v>
@@ -23841,7 +23863,7 @@
         <v>1663</v>
       </c>
       <c r="K463" t="n">
-        <v>-16.36363636363636</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L463" t="n">
         <v>508.7</v>
@@ -23892,7 +23914,7 @@
         <v>1663</v>
       </c>
       <c r="K464" t="n">
-        <v>-6.122448979591836</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L464" t="n">
         <v>508.4</v>
@@ -23943,7 +23965,7 @@
         <v>1664</v>
       </c>
       <c r="K465" t="n">
-        <v>-6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>507.9</v>
@@ -23994,7 +24016,7 @@
         <v>1664</v>
       </c>
       <c r="K466" t="n">
-        <v>-10.63829787234043</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L466" t="n">
         <v>507.9</v>
@@ -24045,7 +24067,7 @@
         <v>1670</v>
       </c>
       <c r="K467" t="n">
-        <v>-20.75471698113208</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L467" t="n">
         <v>507.2</v>
@@ -24096,7 +24118,7 @@
         <v>1670</v>
       </c>
       <c r="K468" t="n">
-        <v>-17.64705882352941</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L468" t="n">
         <v>506.6</v>
@@ -24147,7 +24169,7 @@
         <v>1670</v>
       </c>
       <c r="K469" t="n">
-        <v>-14.28571428571428</v>
+        <v>-12</v>
       </c>
       <c r="L469" t="n">
         <v>506.1</v>
@@ -24198,7 +24220,7 @@
         <v>1670</v>
       </c>
       <c r="K470" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L470" t="n">
         <v>505.8</v>
@@ -24249,7 +24271,7 @@
         <v>1670</v>
       </c>
       <c r="K471" t="n">
-        <v>-24.44444444444444</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L471" t="n">
         <v>505.1</v>
@@ -24300,7 +24322,7 @@
         <v>1671</v>
       </c>
       <c r="K472" t="n">
-        <v>-22.72727272727273</v>
+        <v>-75</v>
       </c>
       <c r="L472" t="n">
         <v>505.1</v>
@@ -24351,7 +24373,7 @@
         <v>1675</v>
       </c>
       <c r="K473" t="n">
-        <v>-17.39130434782609</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L473" t="n">
         <v>504.9</v>
@@ -24402,7 +24424,7 @@
         <v>1678</v>
       </c>
       <c r="K474" t="n">
-        <v>-17.39130434782609</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L474" t="n">
         <v>504.4</v>
@@ -24453,7 +24475,7 @@
         <v>1678</v>
       </c>
       <c r="K475" t="n">
-        <v>-25.58139534883721</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L475" t="n">
         <v>503.8</v>
@@ -24504,7 +24526,7 @@
         <v>1678</v>
       </c>
       <c r="K476" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>503.2</v>
@@ -24555,7 +24577,7 @@
         <v>1678</v>
       </c>
       <c r="K477" t="n">
-        <v>-18.91891891891892</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>503.2</v>
@@ -24606,7 +24628,7 @@
         <v>1679</v>
       </c>
       <c r="K478" t="n">
-        <v>-18.91891891891892</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L478" t="n">
         <v>503.1</v>
@@ -24657,7 +24679,7 @@
         <v>1680</v>
       </c>
       <c r="K479" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>503.1</v>
@@ -24708,7 +24730,7 @@
         <v>1683</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L480" t="n">
         <v>503.4</v>
@@ -24759,7 +24781,7 @@
         <v>1687</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L481" t="n">
         <v>504.1</v>
@@ -24810,7 +24832,7 @@
         <v>1689</v>
       </c>
       <c r="K482" t="n">
-        <v>31.25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L482" t="n">
         <v>505.1</v>
@@ -24861,7 +24883,7 @@
         <v>1691</v>
       </c>
       <c r="K483" t="n">
-        <v>7.142857142857142</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L483" t="n">
         <v>505.5</v>
@@ -24912,7 +24934,7 @@
         <v>1691</v>
       </c>
       <c r="K484" t="n">
-        <v>7.142857142857142</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L484" t="n">
         <v>506.2</v>
@@ -24963,7 +24985,7 @@
         <v>1691</v>
       </c>
       <c r="K485" t="n">
-        <v>3.703703703703703</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L485" t="n">
         <v>506.9</v>
@@ -25014,7 +25036,7 @@
         <v>1693</v>
       </c>
       <c r="K486" t="n">
-        <v>-3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>507.4</v>
@@ -25065,7 +25087,7 @@
         <v>1693</v>
       </c>
       <c r="K487" t="n">
-        <v>21.73913043478261</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L487" t="n">
         <v>507.9</v>
@@ -25116,7 +25138,7 @@
         <v>1695</v>
       </c>
       <c r="K488" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L488" t="n">
         <v>508.3</v>
@@ -25167,7 +25189,7 @@
         <v>1696</v>
       </c>
       <c r="K489" t="n">
-        <v>15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L489" t="n">
         <v>508.7</v>
@@ -25218,7 +25240,7 @@
         <v>1696</v>
       </c>
       <c r="K490" t="n">
-        <v>15.38461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>508.8</v>
@@ -25269,7 +25291,7 @@
         <v>1696</v>
       </c>
       <c r="K491" t="n">
-        <v>15.38461538461539</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L491" t="n">
         <v>508.5</v>
@@ -25320,7 +25342,7 @@
         <v>1696</v>
       </c>
       <c r="K492" t="n">
-        <v>20</v>
+        <v>-60</v>
       </c>
       <c r="L492" t="n">
         <v>508</v>
@@ -25371,7 +25393,7 @@
         <v>1696</v>
       </c>
       <c r="K493" t="n">
-        <v>4.761904761904762</v>
+        <v>-60</v>
       </c>
       <c r="L493" t="n">
         <v>507.7</v>
@@ -25422,7 +25444,7 @@
         <v>1696</v>
       </c>
       <c r="K494" t="n">
-        <v>22.22222222222222</v>
+        <v>-60</v>
       </c>
       <c r="L494" t="n">
         <v>507.4</v>
@@ -25473,7 +25495,7 @@
         <v>1696</v>
       </c>
       <c r="K495" t="n">
-        <v>22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>507.1</v>
@@ -25524,7 +25546,7 @@
         <v>1696</v>
       </c>
       <c r="K496" t="n">
-        <v>22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L496" t="n">
         <v>507</v>
@@ -25575,7 +25597,7 @@
         <v>1696</v>
       </c>
       <c r="K497" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L497" t="n">
         <v>506.9</v>
@@ -25625,9 +25647,7 @@
       <c r="J498" t="n">
         <v>1696</v>
       </c>
-      <c r="K498" t="n">
-        <v>29.41176470588236</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>507</v>
       </c>
@@ -25677,7 +25697,7 @@
         <v>1697</v>
       </c>
       <c r="K499" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L499" t="n">
         <v>507.1</v>
@@ -25728,7 +25748,7 @@
         <v>1698</v>
       </c>
       <c r="K500" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L500" t="n">
         <v>507.3</v>
@@ -25779,7 +25799,7 @@
         <v>1698</v>
       </c>
       <c r="K501" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L501" t="n">
         <v>507.5</v>
@@ -25830,7 +25850,7 @@
         <v>1698</v>
       </c>
       <c r="K502" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L502" t="n">
         <v>507.7</v>
@@ -25881,7 +25901,7 @@
         <v>1698</v>
       </c>
       <c r="K503" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L503" t="n">
         <v>507.9</v>
@@ -25932,7 +25952,7 @@
         <v>1699</v>
       </c>
       <c r="K504" t="n">
-        <v>-25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L504" t="n">
         <v>508</v>
@@ -25983,7 +26003,7 @@
         <v>1699</v>
       </c>
       <c r="K505" t="n">
-        <v>-25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L505" t="n">
         <v>508.1</v>
@@ -26034,7 +26054,7 @@
         <v>1699</v>
       </c>
       <c r="K506" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>508.2</v>
@@ -26085,7 +26105,7 @@
         <v>1700</v>
       </c>
       <c r="K507" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L507" t="n">
         <v>508.4</v>
@@ -26136,7 +26156,7 @@
         <v>1701</v>
       </c>
       <c r="K508" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>508.5</v>
@@ -26187,7 +26207,7 @@
         <v>1702</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L509" t="n">
         <v>508.4</v>
@@ -26238,7 +26258,7 @@
         <v>1703</v>
       </c>
       <c r="K510" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L510" t="n">
         <v>508.1</v>
@@ -26289,7 +26309,7 @@
         <v>1704</v>
       </c>
       <c r="K511" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L511" t="n">
         <v>507.7</v>
@@ -26340,7 +26360,7 @@
         <v>1704</v>
       </c>
       <c r="K512" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L512" t="n">
         <v>507.3</v>
@@ -26391,7 +26411,7 @@
         <v>1705</v>
       </c>
       <c r="K513" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L513" t="n">
         <v>506.8</v>
@@ -26442,7 +26462,7 @@
         <v>1705</v>
       </c>
       <c r="K514" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L514" t="n">
         <v>506.4</v>
@@ -26493,7 +26513,7 @@
         <v>1707</v>
       </c>
       <c r="K515" t="n">
-        <v>-45.45454545454545</v>
+        <v>-75</v>
       </c>
       <c r="L515" t="n">
         <v>505.8</v>
@@ -26544,7 +26564,7 @@
         <v>1708</v>
       </c>
       <c r="K516" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L516" t="n">
         <v>505.1</v>
@@ -26595,7 +26615,7 @@
         <v>1710</v>
       </c>
       <c r="K517" t="n">
-        <v>-28.57142857142857</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L517" t="n">
         <v>504.5</v>
@@ -26646,7 +26666,7 @@
         <v>1712</v>
       </c>
       <c r="K518" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L518" t="n">
         <v>503.8</v>
@@ -26697,7 +26717,7 @@
         <v>1712</v>
       </c>
       <c r="K519" t="n">
-        <v>-46.66666666666666</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L519" t="n">
         <v>503.2</v>
@@ -26748,7 +26768,7 @@
         <v>1714</v>
       </c>
       <c r="K520" t="n">
-        <v>-37.5</v>
+        <v>-20</v>
       </c>
       <c r="L520" t="n">
         <v>502.9</v>
@@ -26799,7 +26819,7 @@
         <v>1714</v>
       </c>
       <c r="K521" t="n">
-        <v>-37.5</v>
+        <v>-20</v>
       </c>
       <c r="L521" t="n">
         <v>502.7</v>
@@ -26850,7 +26870,7 @@
         <v>1716</v>
       </c>
       <c r="K522" t="n">
-        <v>-44.44444444444444</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L522" t="n">
         <v>502.3</v>
@@ -26901,7 +26921,7 @@
         <v>1716</v>
       </c>
       <c r="K523" t="n">
-        <v>-44.44444444444444</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L523" t="n">
         <v>502</v>
@@ -26952,7 +26972,7 @@
         <v>1716</v>
       </c>
       <c r="K524" t="n">
-        <v>-41.17647058823529</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L524" t="n">
         <v>501.7</v>
@@ -27003,7 +27023,7 @@
         <v>1718</v>
       </c>
       <c r="K525" t="n">
-        <v>-47.36842105263158</v>
+        <v>-20</v>
       </c>
       <c r="L525" t="n">
         <v>501.4</v>
@@ -27054,7 +27074,7 @@
         <v>1722</v>
       </c>
       <c r="K526" t="n">
-        <v>-56.52173913043478</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L526" t="n">
         <v>500.8</v>
@@ -27105,7 +27125,7 @@
         <v>1723</v>
       </c>
       <c r="K527" t="n">
-        <v>-65.21739130434783</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L527" t="n">
         <v>499.9</v>
@@ -27156,7 +27176,7 @@
         <v>1727</v>
       </c>
       <c r="K528" t="n">
-        <v>-69.23076923076923</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>498.8</v>
@@ -27207,7 +27227,7 @@
         <v>1730</v>
       </c>
       <c r="K529" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L529" t="n">
         <v>497.4</v>
@@ -27258,7 +27278,7 @@
         <v>1735</v>
       </c>
       <c r="K530" t="n">
-        <v>-43.75</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L530" t="n">
         <v>496.3</v>
@@ -27309,7 +27329,7 @@
         <v>1738</v>
       </c>
       <c r="K531" t="n">
-        <v>-29.41176470588236</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L531" t="n">
         <v>495.5</v>
@@ -27360,7 +27380,7 @@
         <v>1738</v>
       </c>
       <c r="K532" t="n">
-        <v>-29.41176470588236</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L532" t="n">
         <v>494.9</v>
@@ -27411,7 +27431,7 @@
         <v>1743</v>
       </c>
       <c r="K533" t="n">
-        <v>-36.84210526315789</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L533" t="n">
         <v>493.8</v>
@@ -27462,7 +27482,7 @@
         <v>1746</v>
       </c>
       <c r="K534" t="n">
-        <v>-26.82926829268293</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L534" t="n">
         <v>493</v>
@@ -27513,7 +27533,7 @@
         <v>1751</v>
       </c>
       <c r="K535" t="n">
-        <v>-31.81818181818182</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L535" t="n">
         <v>491.9</v>
@@ -27564,7 +27584,7 @@
         <v>1753</v>
       </c>
       <c r="K536" t="n">
-        <v>-33.33333333333333</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L536" t="n">
         <v>491</v>
@@ -27615,7 +27635,7 @@
         <v>1759</v>
       </c>
       <c r="K537" t="n">
-        <v>-46.93877551020408</v>
+        <v>-31.25</v>
       </c>
       <c r="L537" t="n">
         <v>489.6</v>
@@ -27666,7 +27686,7 @@
         <v>1759</v>
       </c>
       <c r="K538" t="n">
-        <v>-44.68085106382978</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L538" t="n">
         <v>488.6</v>
@@ -27717,7 +27737,7 @@
         <v>1760</v>
       </c>
       <c r="K539" t="n">
-        <v>-45.83333333333333</v>
+        <v>-52</v>
       </c>
       <c r="L539" t="n">
         <v>487.8</v>
@@ -27768,7 +27788,7 @@
         <v>1764</v>
       </c>
       <c r="K540" t="n">
-        <v>-40</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L540" t="n">
         <v>486.9</v>
@@ -27819,7 +27839,7 @@
         <v>1765</v>
       </c>
       <c r="K541" t="n">
-        <v>-37.25490196078432</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L541" t="n">
         <v>485.8</v>
@@ -27870,7 +27890,7 @@
         <v>1777</v>
       </c>
       <c r="K542" t="n">
-        <v>-47.54098360655738</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L542" t="n">
         <v>483.5</v>
@@ -27921,7 +27941,7 @@
         <v>1780</v>
       </c>
       <c r="K543" t="n">
-        <v>-50</v>
+        <v>-70.58823529411765</v>
       </c>
       <c r="L543" t="n">
         <v>481.4</v>
@@ -27972,7 +27992,7 @@
         <v>1784</v>
       </c>
       <c r="K544" t="n">
-        <v>-41.17647058823529</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L544" t="n">
         <v>479.4</v>
@@ -28023,7 +28043,7 @@
         <v>1784</v>
       </c>
       <c r="K545" t="n">
-        <v>-39.39393939393939</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L545" t="n">
         <v>477.9</v>
@@ -28074,7 +28094,7 @@
         <v>1786</v>
       </c>
       <c r="K546" t="n">
-        <v>-31.25</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L546" t="n">
         <v>476.8</v>
@@ -28125,7 +28145,7 @@
         <v>1787</v>
       </c>
       <c r="K547" t="n">
-        <v>-28.125</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L547" t="n">
         <v>476.4</v>
@@ -28176,7 +28196,7 @@
         <v>1787</v>
       </c>
       <c r="K548" t="n">
-        <v>-23.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L548" t="n">
         <v>476</v>
@@ -28227,7 +28247,7 @@
         <v>1788</v>
       </c>
       <c r="K549" t="n">
-        <v>-20.68965517241379</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L549" t="n">
         <v>475.6</v>
@@ -28278,7 +28298,7 @@
         <v>1803</v>
       </c>
       <c r="K550" t="n">
-        <v>-47.05882352941176</v>
+        <v>-63.1578947368421</v>
       </c>
       <c r="L550" t="n">
         <v>473.3</v>
@@ -28329,7 +28349,7 @@
         <v>1808</v>
       </c>
       <c r="K551" t="n">
-        <v>-42.85714285714285</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L551" t="n">
         <v>471.4</v>
@@ -28380,7 +28400,7 @@
         <v>1815</v>
       </c>
       <c r="K552" t="n">
-        <v>-48.05194805194805</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L552" t="n">
         <v>470</v>
@@ -28431,7 +28451,7 @@
         <v>1825</v>
       </c>
       <c r="K553" t="n">
-        <v>-26.82926829268293</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L553" t="n">
         <v>469.9</v>
@@ -28482,7 +28502,7 @@
         <v>1827</v>
       </c>
       <c r="K554" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L554" t="n">
         <v>469.2</v>
@@ -28533,7 +28553,7 @@
         <v>1830</v>
       </c>
       <c r="K555" t="n">
-        <v>-31.64556962025317</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L555" t="n">
         <v>468.2</v>
@@ -28584,7 +28604,7 @@
         <v>1835</v>
       </c>
       <c r="K556" t="n">
-        <v>-34.14634146341464</v>
+        <v>-37.5</v>
       </c>
       <c r="L556" t="n">
         <v>466.5</v>
@@ -28635,7 +28655,7 @@
         <v>1837</v>
       </c>
       <c r="K557" t="n">
-        <v>-25.64102564102564</v>
+        <v>-32</v>
       </c>
       <c r="L557" t="n">
         <v>464.9</v>
@@ -28686,7 +28706,7 @@
         <v>1840</v>
       </c>
       <c r="K558" t="n">
-        <v>-28.39506172839506</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L558" t="n">
         <v>463</v>
@@ -28737,7 +28757,7 @@
         <v>1848</v>
       </c>
       <c r="K559" t="n">
-        <v>-15.90909090909091</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L559" t="n">
         <v>462</v>
@@ -28788,7 +28808,7 @@
         <v>1848</v>
       </c>
       <c r="K560" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L560" t="n">
         <v>462.5</v>
@@ -28839,7 +28859,7 @@
         <v>1850</v>
       </c>
       <c r="K561" t="n">
-        <v>-24.70588235294118</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L561" t="n">
         <v>462.3</v>
@@ -28890,7 +28910,7 @@
         <v>1850</v>
       </c>
       <c r="K562" t="n">
-        <v>-12.32876712328767</v>
+        <v>-20</v>
       </c>
       <c r="L562" t="n">
         <v>462.8</v>
@@ -28941,7 +28961,7 @@
         <v>1851</v>
       </c>
       <c r="K563" t="n">
-        <v>-7.042253521126761</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L563" t="n">
         <v>462.4</v>
@@ -28992,7 +29012,7 @@
         <v>1856</v>
       </c>
       <c r="K564" t="n">
-        <v>-5.555555555555555</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L564" t="n">
         <v>462.7</v>
@@ -29043,7 +29063,7 @@
         <v>1861</v>
       </c>
       <c r="K565" t="n">
-        <v>1.298701298701299</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L565" t="n">
         <v>463.8</v>
@@ -29094,7 +29114,7 @@
         <v>1863</v>
       </c>
       <c r="K566" t="n">
-        <v>-3.896103896103896</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L566" t="n">
         <v>465.2</v>
@@ -29145,7 +29165,7 @@
         <v>1864</v>
       </c>
       <c r="K567" t="n">
-        <v>-3.896103896103896</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L567" t="n">
         <v>466.5</v>
@@ -29196,7 +29216,7 @@
         <v>1868</v>
       </c>
       <c r="K568" t="n">
-        <v>-8.641975308641975</v>
+        <v>20</v>
       </c>
       <c r="L568" t="n">
         <v>467.7</v>
@@ -29247,7 +29267,7 @@
         <v>1869</v>
       </c>
       <c r="K569" t="n">
-        <v>-6.172839506172839</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L569" t="n">
         <v>468.2</v>
@@ -29298,7 +29318,7 @@
         <v>1869</v>
       </c>
       <c r="K570" t="n">
-        <v>15.15151515151515</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L570" t="n">
         <v>468.7</v>
@@ -29349,7 +29369,7 @@
         <v>1871</v>
       </c>
       <c r="K571" t="n">
-        <v>4.761904761904762</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L571" t="n">
         <v>469.2</v>
@@ -29400,7 +29420,7 @@
         <v>1875</v>
       </c>
       <c r="K572" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>469.3</v>
@@ -29451,7 +29471,7 @@
         <v>1879</v>
       </c>
       <c r="K573" t="n">
-        <v>-14.81481481481481</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L573" t="n">
         <v>468.9</v>
@@ -29502,7 +29522,7 @@
         <v>1881</v>
       </c>
       <c r="K574" t="n">
-        <v>-14.81481481481481</v>
+        <v>-80</v>
       </c>
       <c r="L574" t="n">
         <v>467.8</v>
@@ -29553,7 +29573,7 @@
         <v>1885</v>
       </c>
       <c r="K575" t="n">
-        <v>-16.36363636363636</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L575" t="n">
         <v>465.8</v>
@@ -29604,7 +29624,7 @@
         <v>1887</v>
       </c>
       <c r="K576" t="n">
-        <v>-11.53846153846154</v>
+        <v>-91.30434782608695</v>
       </c>
       <c r="L576" t="n">
         <v>463.8</v>
@@ -29655,7 +29675,7 @@
         <v>1889</v>
       </c>
       <c r="K577" t="n">
-        <v>-19.23076923076923</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L577" t="n">
         <v>461.5</v>
@@ -29706,7 +29726,7 @@
         <v>1890</v>
       </c>
       <c r="K578" t="n">
-        <v>-12</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L578" t="n">
         <v>459.7</v>
@@ -29757,7 +29777,7 @@
         <v>1892</v>
       </c>
       <c r="K579" t="n">
-        <v>-27.27272727272727</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L579" t="n">
         <v>458</v>
@@ -29808,7 +29828,7 @@
         <v>1894</v>
       </c>
       <c r="K580" t="n">
-        <v>-21.73913043478261</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L580" t="n">
         <v>456.5</v>
@@ -29859,7 +29879,7 @@
         <v>1896</v>
       </c>
       <c r="K581" t="n">
-        <v>-21.73913043478261</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L581" t="n">
         <v>455</v>
@@ -29910,7 +29930,7 @@
         <v>1897</v>
       </c>
       <c r="K582" t="n">
-        <v>-19.14893617021277</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L582" t="n">
         <v>454</v>
@@ -29961,7 +29981,7 @@
         <v>1902</v>
       </c>
       <c r="K583" t="n">
-        <v>-29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L583" t="n">
         <v>452.9</v>
@@ -30012,7 +30032,7 @@
         <v>1903</v>
       </c>
       <c r="K584" t="n">
-        <v>-44.68085106382978</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L584" t="n">
         <v>451.9</v>
@@ -30063,7 +30083,7 @@
         <v>1908</v>
       </c>
       <c r="K585" t="n">
-        <v>-65.95744680851064</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L585" t="n">
         <v>450.8</v>
@@ -30114,7 +30134,7 @@
         <v>1914</v>
       </c>
       <c r="K586" t="n">
-        <v>-45.09803921568628</v>
+        <v>-4</v>
       </c>
       <c r="L586" t="n">
         <v>450.5</v>
@@ -30165,7 +30185,7 @@
         <v>1918</v>
       </c>
       <c r="K587" t="n">
-        <v>-51.85185185185185</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L587" t="n">
         <v>450</v>
@@ -30216,7 +30236,7 @@
         <v>1923</v>
       </c>
       <c r="K588" t="n">
-        <v>-34.54545454545455</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L588" t="n">
         <v>449.9</v>
@@ -30267,7 +30287,7 @@
         <v>1923</v>
       </c>
       <c r="K589" t="n">
-        <v>-37.03703703703704</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L589" t="n">
         <v>449.6</v>
@@ -30318,7 +30338,7 @@
         <v>1929</v>
       </c>
       <c r="K590" t="n">
-        <v>-43.33333333333334</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L590" t="n">
         <v>448.5</v>
@@ -30369,7 +30389,7 @@
         <v>1930</v>
       </c>
       <c r="K591" t="n">
-        <v>-42.3728813559322</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L591" t="n">
         <v>447.5</v>
@@ -30420,7 +30440,7 @@
         <v>1934</v>
       </c>
       <c r="K592" t="n">
-        <v>-28.8135593220339</v>
+        <v>-6.25</v>
       </c>
       <c r="L592" t="n">
         <v>446.8</v>
@@ -30471,7 +30491,7 @@
         <v>1935</v>
       </c>
       <c r="K593" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>446.7</v>
@@ -30522,7 +30542,7 @@
         <v>1940</v>
       </c>
       <c r="K594" t="n">
-        <v>-25.42372881355932</v>
+        <v>0</v>
       </c>
       <c r="L594" t="n">
         <v>446.2</v>
@@ -30573,7 +30593,7 @@
         <v>1945</v>
       </c>
       <c r="K595" t="n">
-        <v>-10</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L595" t="n">
         <v>446.7</v>
@@ -30624,7 +30644,7 @@
         <v>1951</v>
       </c>
       <c r="K596" t="n">
-        <v>-15.625</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L596" t="n">
         <v>446</v>
@@ -30675,7 +30695,7 @@
         <v>1955</v>
       </c>
       <c r="K597" t="n">
-        <v>-6.060606060606061</v>
+        <v>-12.5</v>
       </c>
       <c r="L597" t="n">
         <v>446.1</v>
@@ -30726,7 +30746,7 @@
         <v>1957</v>
       </c>
       <c r="K598" t="n">
-        <v>-4.477611940298507</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L598" t="n">
         <v>445.9</v>
@@ -30777,7 +30797,7 @@
         <v>1959</v>
       </c>
       <c r="K599" t="n">
-        <v>-10.44776119402985</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L599" t="n">
         <v>445.5</v>
@@ -30828,7 +30848,7 @@
         <v>1960</v>
       </c>
       <c r="K600" t="n">
-        <v>-15.15151515151515</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L600" t="n">
         <v>445.6</v>
@@ -30879,7 +30899,7 @@
         <v>1965</v>
       </c>
       <c r="K601" t="n">
-        <v>-4.347826086956522</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L601" t="n">
         <v>446.3</v>
@@ -30930,7 +30950,7 @@
         <v>1966</v>
       </c>
       <c r="K602" t="n">
-        <v>-4.347826086956522</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L602" t="n">
         <v>446.7</v>
@@ -30981,7 +31001,7 @@
         <v>1970</v>
       </c>
       <c r="K603" t="n">
-        <v>-2.941176470588235</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L603" t="n">
         <v>446.6</v>
@@ -31032,7 +31052,7 @@
         <v>1972</v>
       </c>
       <c r="K604" t="n">
-        <v>1.449275362318841</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L604" t="n">
         <v>447.2</v>
@@ -31083,7 +31103,7 @@
         <v>1974</v>
       </c>
       <c r="K605" t="n">
-        <v>12.12121212121212</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L605" t="n">
         <v>447.5</v>
@@ -31134,7 +31154,7 @@
         <v>1975</v>
       </c>
       <c r="K606" t="n">
-        <v>4.918032786885246</v>
+        <v>30</v>
       </c>
       <c r="L606" t="n">
         <v>448.5</v>
@@ -31185,7 +31205,7 @@
         <v>1978</v>
       </c>
       <c r="K607" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L607" t="n">
         <v>449.4</v>
@@ -31236,7 +31256,7 @@
         <v>1979</v>
       </c>
       <c r="K608" t="n">
-        <v>10.71428571428571</v>
+        <v>50</v>
       </c>
       <c r="L608" t="n">
         <v>450.2</v>
@@ -31287,7 +31307,7 @@
         <v>1981</v>
       </c>
       <c r="K609" t="n">
-        <v>6.896551724137931</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L609" t="n">
         <v>451</v>
@@ -31338,7 +31358,7 @@
         <v>1981</v>
       </c>
       <c r="K610" t="n">
-        <v>19.23076923076923</v>
+        <v>25</v>
       </c>
       <c r="L610" t="n">
         <v>451.9</v>
@@ -31389,7 +31409,7 @@
         <v>1983</v>
       </c>
       <c r="K611" t="n">
-        <v>16.9811320754717</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L611" t="n">
         <v>452.1</v>
@@ -31440,7 +31460,7 @@
         <v>1983</v>
       </c>
       <c r="K612" t="n">
-        <v>10.20408163265306</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L612" t="n">
         <v>452.2</v>
@@ -31491,7 +31511,7 @@
         <v>1983</v>
       </c>
       <c r="K613" t="n">
-        <v>8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L613" t="n">
         <v>452.7</v>
@@ -31542,7 +31562,7 @@
         <v>1983</v>
       </c>
       <c r="K614" t="n">
-        <v>20.93023255813954</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L614" t="n">
         <v>453</v>
@@ -31593,7 +31613,7 @@
         <v>1986</v>
       </c>
       <c r="K615" t="n">
-        <v>2.439024390243902</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L615" t="n">
         <v>452.8</v>
@@ -31644,7 +31664,7 @@
         <v>1988</v>
       </c>
       <c r="K616" t="n">
-        <v>24.32432432432433</v>
+        <v>-40</v>
       </c>
       <c r="L616" t="n">
         <v>452.7</v>
@@ -31695,7 +31715,7 @@
         <v>1988</v>
       </c>
       <c r="K617" t="n">
-        <v>15.15151515151515</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L617" t="n">
         <v>452.3</v>
@@ -31746,7 +31766,7 @@
         <v>1990</v>
       </c>
       <c r="K618" t="n">
-        <v>3.03030303030303</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L618" t="n">
         <v>451.6</v>
@@ -31797,7 +31817,7 @@
         <v>1991</v>
       </c>
       <c r="K619" t="n">
-        <v>6.25</v>
+        <v>-60</v>
       </c>
       <c r="L619" t="n">
         <v>451</v>
@@ -31848,7 +31868,7 @@
         <v>1993</v>
       </c>
       <c r="K620" t="n">
-        <v>15.15151515151515</v>
+        <v>-20</v>
       </c>
       <c r="L620" t="n">
         <v>450.6</v>
@@ -31899,7 +31919,7 @@
         <v>1994</v>
       </c>
       <c r="K621" t="n">
-        <v>-3.448275862068965</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L621" t="n">
         <v>450.3</v>
@@ -31950,7 +31970,7 @@
         <v>1994</v>
       </c>
       <c r="K622" t="n">
-        <v>-7.142857142857142</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L622" t="n">
         <v>450</v>
@@ -32001,7 +32021,7 @@
         <v>1994</v>
       </c>
       <c r="K623" t="n">
-        <v>8.333333333333332</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L623" t="n">
         <v>449.7</v>
@@ -32052,7 +32072,7 @@
         <v>1996</v>
       </c>
       <c r="K624" t="n">
-        <v>-8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L624" t="n">
         <v>449.2</v>
@@ -32103,7 +32123,7 @@
         <v>1996</v>
       </c>
       <c r="K625" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L625" t="n">
         <v>449</v>
@@ -32154,7 +32174,7 @@
         <v>1996</v>
       </c>
       <c r="K626" t="n">
-        <v>-23.80952380952381</v>
+        <v>-50</v>
       </c>
       <c r="L626" t="n">
         <v>448.6</v>
@@ -32205,7 +32225,7 @@
         <v>1997</v>
       </c>
       <c r="K627" t="n">
-        <v>-36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L627" t="n">
         <v>448.3</v>
@@ -32256,7 +32276,7 @@
         <v>1998</v>
       </c>
       <c r="K628" t="n">
-        <v>-36.84210526315789</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L628" t="n">
         <v>448.3</v>
@@ -32307,7 +32327,7 @@
         <v>1999</v>
       </c>
       <c r="K629" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>448.5</v>
@@ -32358,7 +32378,7 @@
         <v>1999</v>
       </c>
       <c r="K630" t="n">
-        <v>-22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L630" t="n">
         <v>448.5</v>
@@ -32409,7 +32429,7 @@
         <v>2000</v>
       </c>
       <c r="K631" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L631" t="n">
         <v>448.7</v>
@@ -32460,7 +32480,7 @@
         <v>2001</v>
       </c>
       <c r="K632" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L632" t="n">
         <v>449</v>
@@ -32511,7 +32531,7 @@
         <v>2003</v>
       </c>
       <c r="K633" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L633" t="n">
         <v>449.5</v>
@@ -32562,7 +32582,7 @@
         <v>2004</v>
       </c>
       <c r="K634" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L634" t="n">
         <v>450.3</v>
@@ -32613,7 +32633,7 @@
         <v>2006</v>
       </c>
       <c r="K635" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L635" t="n">
         <v>450.9</v>
@@ -32664,7 +32684,7 @@
         <v>2006</v>
       </c>
       <c r="K636" t="n">
-        <v>11.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L636" t="n">
         <v>451.5</v>
@@ -32715,7 +32735,7 @@
         <v>2008</v>
       </c>
       <c r="K637" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L637" t="n">
         <v>451.8</v>
@@ -32817,7 +32837,7 @@
         <v>2009</v>
       </c>
       <c r="K639" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>452</v>
@@ -32868,7 +32888,7 @@
         <v>2009</v>
       </c>
       <c r="K640" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L640" t="n">
         <v>452</v>
@@ -32919,7 +32939,7 @@
         <v>2011</v>
       </c>
       <c r="K641" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L641" t="n">
         <v>452.1</v>
@@ -32970,7 +32990,7 @@
         <v>2013</v>
       </c>
       <c r="K642" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>452.3</v>
@@ -33021,7 +33041,7 @@
         <v>2015</v>
       </c>
       <c r="K643" t="n">
-        <v>14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L643" t="n">
         <v>452.1</v>
@@ -33072,7 +33092,7 @@
         <v>2018</v>
       </c>
       <c r="K644" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L644" t="n">
         <v>451.5</v>
@@ -33123,7 +33143,7 @@
         <v>2022</v>
       </c>
       <c r="K645" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L645" t="n">
         <v>450.7</v>
@@ -33174,7 +33194,7 @@
         <v>2027</v>
       </c>
       <c r="K646" t="n">
-        <v>9.67741935483871</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L646" t="n">
         <v>450.4</v>
@@ -33225,7 +33245,7 @@
         <v>2027</v>
       </c>
       <c r="K647" t="n">
-        <v>6.666666666666667</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L647" t="n">
         <v>450.3</v>
@@ -33276,7 +33296,7 @@
         <v>2028</v>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L648" t="n">
         <v>450.1</v>
@@ -33327,7 +33347,7 @@
         <v>2032</v>
       </c>
       <c r="K649" t="n">
-        <v>9.090909090909092</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L649" t="n">
         <v>450.4</v>
@@ -33378,7 +33398,7 @@
         <v>2038</v>
       </c>
       <c r="K650" t="n">
-        <v>-7.692307692307693</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L650" t="n">
         <v>450.1</v>
@@ -33429,7 +33449,7 @@
         <v>2038</v>
       </c>
       <c r="K651" t="n">
-        <v>-10.52631578947368</v>
+        <v>-28</v>
       </c>
       <c r="L651" t="n">
         <v>449.6</v>
@@ -33480,7 +33500,7 @@
         <v>2041</v>
       </c>
       <c r="K652" t="n">
-        <v>-20</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L652" t="n">
         <v>448.6</v>
@@ -33531,7 +33551,7 @@
         <v>2041</v>
       </c>
       <c r="K653" t="n">
-        <v>-26.31578947368421</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L653" t="n">
         <v>447.8</v>
@@ -33582,7 +33602,7 @@
         <v>2041</v>
       </c>
       <c r="K654" t="n">
-        <v>-29.72972972972973</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L654" t="n">
         <v>447.3</v>
@@ -33633,7 +33653,7 @@
         <v>2041</v>
       </c>
       <c r="K655" t="n">
-        <v>-25.71428571428571</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L655" t="n">
         <v>447.2</v>
@@ -33684,7 +33704,7 @@
         <v>2041</v>
       </c>
       <c r="K656" t="n">
-        <v>-25.71428571428571</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L656" t="n">
         <v>446.6</v>
@@ -33735,7 +33755,7 @@
         <v>2043</v>
       </c>
       <c r="K657" t="n">
-        <v>-25.71428571428571</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L657" t="n">
         <v>445.8</v>
@@ -33786,7 +33806,7 @@
         <v>2048</v>
       </c>
       <c r="K658" t="n">
-        <v>-10</v>
+        <v>-37.5</v>
       </c>
       <c r="L658" t="n">
         <v>445.6</v>
@@ -33837,7 +33857,7 @@
         <v>2049</v>
       </c>
       <c r="K659" t="n">
-        <v>-5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L659" t="n">
         <v>445.1</v>
@@ -33888,7 +33908,7 @@
         <v>2053</v>
       </c>
       <c r="K660" t="n">
-        <v>-13.63636363636363</v>
+        <v>-20</v>
       </c>
       <c r="L660" t="n">
         <v>444.8</v>
@@ -33939,7 +33959,7 @@
         <v>2053</v>
       </c>
       <c r="K661" t="n">
-        <v>-19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>444.5</v>
@@ -33990,7 +34010,7 @@
         <v>2059</v>
       </c>
       <c r="K662" t="n">
-        <v>-34.78260869565217</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L662" t="n">
         <v>443.9</v>
@@ -34041,7 +34061,7 @@
         <v>2069</v>
       </c>
       <c r="K663" t="n">
-        <v>-44.44444444444444</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L663" t="n">
         <v>442.3</v>
@@ -34092,7 +34112,7 @@
         <v>2069</v>
       </c>
       <c r="K664" t="n">
-        <v>-41.17647058823529</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L664" t="n">
         <v>440.7</v>
@@ -34143,7 +34163,7 @@
         <v>2072</v>
       </c>
       <c r="K665" t="n">
-        <v>-28</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L665" t="n">
         <v>439.4</v>
@@ -34194,7 +34214,7 @@
         <v>2076</v>
       </c>
       <c r="K666" t="n">
-        <v>-30.61224489795918</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L666" t="n">
         <v>438.5</v>
@@ -34245,7 +34265,7 @@
         <v>2076</v>
       </c>
       <c r="K667" t="n">
-        <v>-30.61224489795918</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L667" t="n">
         <v>437.8</v>
@@ -34296,7 +34316,7 @@
         <v>2078</v>
       </c>
       <c r="K668" t="n">
-        <v>-32</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L668" t="n">
         <v>436.4</v>
@@ -34347,7 +34367,7 @@
         <v>2078</v>
       </c>
       <c r="K669" t="n">
-        <v>-43.47826086956522</v>
+        <v>-44</v>
       </c>
       <c r="L669" t="n">
         <v>434.9</v>
@@ -34398,7 +34418,7 @@
         <v>2084</v>
       </c>
       <c r="K670" t="n">
-        <v>-43.47826086956522</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L670" t="n">
         <v>433.2</v>
@@ -34449,7 +34469,7 @@
         <v>2084</v>
       </c>
       <c r="K671" t="n">
-        <v>-43.47826086956522</v>
+        <v>-44</v>
       </c>
       <c r="L671" t="n">
         <v>431.5</v>
@@ -34500,7 +34520,7 @@
         <v>2088</v>
       </c>
       <c r="K672" t="n">
-        <v>-27.65957446808511</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L672" t="n">
         <v>430.8</v>
@@ -34551,7 +34571,7 @@
         <v>2091</v>
       </c>
       <c r="K673" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="L673" t="n">
         <v>430.8</v>
@@ -34602,7 +34622,7 @@
         <v>2091</v>
       </c>
       <c r="K674" t="n">
-        <v>-32</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L674" t="n">
         <v>430.8</v>
@@ -34653,7 +34673,7 @@
         <v>2094</v>
       </c>
       <c r="K675" t="n">
-        <v>-35.84905660377358</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L675" t="n">
         <v>430.2</v>
@@ -34704,7 +34724,7 @@
         <v>2095</v>
       </c>
       <c r="K676" t="n">
-        <v>-33.33333333333333</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L676" t="n">
         <v>429.3</v>
@@ -34755,7 +34775,7 @@
         <v>2095</v>
       </c>
       <c r="K677" t="n">
-        <v>-30.76923076923077</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L677" t="n">
         <v>428.4</v>
@@ -34806,7 +34826,7 @@
         <v>2097</v>
       </c>
       <c r="K678" t="n">
-        <v>-38.77551020408163</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L678" t="n">
         <v>427.9</v>
@@ -34857,7 +34877,7 @@
         <v>2097</v>
       </c>
       <c r="K679" t="n">
-        <v>-41.66666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L679" t="n">
         <v>427.4</v>
@@ -34908,7 +34928,7 @@
         <v>2098</v>
       </c>
       <c r="K680" t="n">
-        <v>-37.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L680" t="n">
         <v>427.4</v>
@@ -34959,7 +34979,7 @@
         <v>2098</v>
       </c>
       <c r="K681" t="n">
-        <v>-37.77777777777778</v>
+        <v>-40</v>
       </c>
       <c r="L681" t="n">
         <v>427.4</v>
@@ -35010,7 +35030,7 @@
         <v>2100</v>
       </c>
       <c r="K682" t="n">
-        <v>-31.70731707317073</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L682" t="n">
         <v>426.8</v>
@@ -35061,7 +35081,7 @@
         <v>2100</v>
       </c>
       <c r="K683" t="n">
-        <v>-9.67741935483871</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L683" t="n">
         <v>426.5</v>
@@ -35112,7 +35132,7 @@
         <v>2102</v>
       </c>
       <c r="K684" t="n">
-        <v>-3.03030303030303</v>
+        <v>25</v>
       </c>
       <c r="L684" t="n">
         <v>426.4</v>
@@ -35163,7 +35183,7 @@
         <v>2102</v>
       </c>
       <c r="K685" t="n">
-        <v>-13.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L685" t="n">
         <v>426.6</v>
@@ -35214,7 +35234,7 @@
         <v>2104</v>
       </c>
       <c r="K686" t="n">
-        <v>-35.71428571428572</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L686" t="n">
         <v>426.5</v>
@@ -35265,7 +35285,7 @@
         <v>2104</v>
       </c>
       <c r="K687" t="n">
-        <v>-35.71428571428572</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L687" t="n">
         <v>426.4</v>
@@ -35316,7 +35336,7 @@
         <v>2105</v>
       </c>
       <c r="K688" t="n">
-        <v>-25.92592592592592</v>
+        <v>-25</v>
       </c>
       <c r="L688" t="n">
         <v>426.2</v>
@@ -35367,7 +35387,7 @@
         <v>2112</v>
       </c>
       <c r="K689" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L689" t="n">
         <v>426.7</v>
@@ -35418,7 +35438,7 @@
         <v>2112</v>
       </c>
       <c r="K690" t="n">
-        <v>21.42857142857143</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L690" t="n">
         <v>427.3</v>
@@ -35469,7 +35489,7 @@
         <v>2113</v>
       </c>
       <c r="K691" t="n">
-        <v>17.24137931034483</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L691" t="n">
         <v>427.8</v>
@@ -35520,7 +35540,7 @@
         <v>2113</v>
       </c>
       <c r="K692" t="n">
-        <v>4</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L692" t="n">
         <v>428.5</v>
@@ -35571,7 +35591,7 @@
         <v>2117</v>
       </c>
       <c r="K693" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L693" t="n">
         <v>428.8</v>
@@ -35622,7 +35642,7 @@
         <v>2124</v>
       </c>
       <c r="K694" t="n">
-        <v>21.21212121212121</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L694" t="n">
         <v>429.6</v>
@@ -35673,7 +35693,7 @@
         <v>2129</v>
       </c>
       <c r="K695" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L695" t="n">
         <v>430.9</v>
@@ -35724,7 +35744,7 @@
         <v>2130</v>
       </c>
       <c r="K696" t="n">
-        <v>42.85714285714285</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L696" t="n">
         <v>432.5</v>
@@ -35775,7 +35795,7 @@
         <v>2136</v>
       </c>
       <c r="K697" t="n">
-        <v>51.21951219512195</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L697" t="n">
         <v>434.7</v>
@@ -35826,7 +35846,7 @@
         <v>2137</v>
       </c>
       <c r="K698" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L698" t="n">
         <v>436.9</v>
@@ -35877,7 +35897,7 @@
         <v>2138</v>
       </c>
       <c r="K699" t="n">
-        <v>46.34146341463415</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L699" t="n">
         <v>438.3</v>
@@ -35928,7 +35948,7 @@
         <v>2142</v>
       </c>
       <c r="K700" t="n">
-        <v>36.36363636363637</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L700" t="n">
         <v>439.3</v>
@@ -35979,7 +35999,7 @@
         <v>2148</v>
       </c>
       <c r="K701" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L701" t="n">
         <v>439.8</v>
@@ -36030,7 +36050,7 @@
         <v>2150</v>
       </c>
       <c r="K702" t="n">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L702" t="n">
         <v>440.5</v>
@@ -36081,7 +36101,7 @@
         <v>2153</v>
       </c>
       <c r="K703" t="n">
-        <v>32.0754716981132</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L703" t="n">
         <v>441.9</v>
@@ -36132,7 +36152,7 @@
         <v>2155</v>
       </c>
       <c r="K704" t="n">
-        <v>24.52830188679245</v>
+        <v>0</v>
       </c>
       <c r="L704" t="n">
         <v>442.4</v>
@@ -36183,7 +36203,7 @@
         <v>2156</v>
       </c>
       <c r="K705" t="n">
-        <v>22.22222222222222</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L705" t="n">
         <v>442.3</v>
@@ -36234,7 +36254,7 @@
         <v>2157</v>
       </c>
       <c r="K706" t="n">
-        <v>24.52830188679245</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L706" t="n">
         <v>442</v>
@@ -36285,7 +36305,7 @@
         <v>2159</v>
       </c>
       <c r="K707" t="n">
-        <v>27.27272727272727</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L707" t="n">
         <v>441.3</v>
@@ -36336,7 +36356,7 @@
         <v>2159</v>
       </c>
       <c r="K708" t="n">
-        <v>25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L708" t="n">
         <v>440.5</v>
@@ -36387,7 +36407,7 @@
         <v>2161</v>
       </c>
       <c r="K709" t="n">
-        <v>10.20408163265306</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L709" t="n">
         <v>439.6</v>
@@ -36438,7 +36458,7 @@
         <v>2162</v>
       </c>
       <c r="K710" t="n">
-        <v>12</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L710" t="n">
         <v>439.2</v>
@@ -36489,7 +36509,7 @@
         <v>2162</v>
       </c>
       <c r="K711" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L711" t="n">
         <v>439.4</v>
@@ -36540,7 +36560,7 @@
         <v>2165</v>
       </c>
       <c r="K712" t="n">
-        <v>19.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="L712" t="n">
         <v>439.7</v>
@@ -36591,7 +36611,7 @@
         <v>2168</v>
       </c>
       <c r="K713" t="n">
-        <v>21.56862745098039</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L713" t="n">
         <v>439.4</v>
@@ -36642,7 +36662,7 @@
         <v>2174</v>
       </c>
       <c r="K714" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L714" t="n">
         <v>438.7</v>
@@ -36693,7 +36713,7 @@
         <v>2180</v>
       </c>
       <c r="K715" t="n">
-        <v>-1.96078431372549</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L715" t="n">
         <v>438.7</v>
@@ -36744,7 +36764,7 @@
         <v>2181</v>
       </c>
       <c r="K716" t="n">
-        <v>-1.96078431372549</v>
+        <v>0</v>
       </c>
       <c r="L716" t="n">
         <v>438.9</v>
@@ -36795,7 +36815,7 @@
         <v>2182</v>
       </c>
       <c r="K717" t="n">
-        <v>-17.39130434782609</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L717" t="n">
         <v>438.8</v>
@@ -36846,7 +36866,7 @@
         <v>2184</v>
       </c>
       <c r="K718" t="n">
-        <v>-23.40425531914894</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L718" t="n">
         <v>438.5</v>
@@ -36897,7 +36917,7 @@
         <v>2184</v>
       </c>
       <c r="K719" t="n">
-        <v>-21.73913043478261</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L719" t="n">
         <v>438.4</v>
@@ -36948,7 +36968,7 @@
         <v>2184</v>
       </c>
       <c r="K720" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L720" t="n">
         <v>438.2</v>
@@ -36999,7 +37019,7 @@
         <v>2187</v>
       </c>
       <c r="K721" t="n">
-        <v>7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L721" t="n">
         <v>438.3</v>
@@ -37101,7 +37121,7 @@
         <v>2189</v>
       </c>
       <c r="K723" t="n">
-        <v>-5.555555555555555</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L723" t="n">
         <v>438.1</v>
@@ -37152,7 +37172,7 @@
         <v>2189</v>
       </c>
       <c r="K724" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L724" t="n">
         <v>438.8</v>
@@ -37203,7 +37223,7 @@
         <v>2194</v>
       </c>
       <c r="K725" t="n">
-        <v>-10.52631578947368</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L725" t="n">
         <v>438.4</v>
@@ -37254,7 +37274,7 @@
         <v>2198</v>
       </c>
       <c r="K726" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L726" t="n">
         <v>438.3</v>
@@ -37305,7 +37325,7 @@
         <v>2198</v>
       </c>
       <c r="K727" t="n">
-        <v>-2.564102564102564</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L727" t="n">
         <v>438.3</v>
@@ -37356,7 +37376,7 @@
         <v>2203</v>
       </c>
       <c r="K728" t="n">
-        <v>-13.63636363636363</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L728" t="n">
         <v>438</v>
@@ -37407,7 +37427,7 @@
         <v>2204</v>
       </c>
       <c r="K729" t="n">
-        <v>-11.62790697674419</v>
+        <v>-20</v>
       </c>
       <c r="L729" t="n">
         <v>437.6</v>
@@ -37458,7 +37478,7 @@
         <v>2205</v>
       </c>
       <c r="K730" t="n">
-        <v>-16.27906976744186</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L730" t="n">
         <v>437.1</v>
@@ -37509,7 +37529,7 @@
         <v>2206</v>
       </c>
       <c r="K731" t="n">
-        <v>-18.18181818181818</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L731" t="n">
         <v>436.2</v>
@@ -37560,7 +37580,7 @@
         <v>2207</v>
       </c>
       <c r="K732" t="n">
-        <v>-23.80952380952381</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L732" t="n">
         <v>435.5</v>
@@ -37611,7 +37631,7 @@
         <v>2211</v>
       </c>
       <c r="K733" t="n">
-        <v>-6.976744186046512</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L733" t="n">
         <v>435.1</v>
@@ -37662,7 +37682,7 @@
         <v>2214</v>
       </c>
       <c r="K734" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L734" t="n">
         <v>434.4</v>
@@ -37713,7 +37733,7 @@
         <v>2217</v>
       </c>
       <c r="K735" t="n">
-        <v>-8.108108108108109</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L735" t="n">
         <v>434.5</v>
@@ -37764,7 +37784,7 @@
         <v>2221</v>
       </c>
       <c r="K736" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L736" t="n">
         <v>434.6</v>
@@ -37815,7 +37835,7 @@
         <v>2221</v>
       </c>
       <c r="K737" t="n">
-        <v>2.564102564102564</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L737" t="n">
         <v>434.7</v>
@@ -37866,7 +37886,7 @@
         <v>2226</v>
       </c>
       <c r="K738" t="n">
-        <v>-4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L738" t="n">
         <v>434.8</v>
@@ -37917,7 +37937,7 @@
         <v>2234</v>
       </c>
       <c r="K739" t="n">
-        <v>12</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L739" t="n">
         <v>435.8</v>
@@ -37968,7 +37988,7 @@
         <v>2234</v>
       </c>
       <c r="K740" t="n">
-        <v>12</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L740" t="n">
         <v>436.9</v>
@@ -38019,7 +38039,7 @@
         <v>2236</v>
       </c>
       <c r="K741" t="n">
-        <v>10.20408163265306</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L741" t="n">
         <v>438.3</v>
@@ -38070,7 +38090,7 @@
         <v>2243</v>
       </c>
       <c r="K742" t="n">
-        <v>-1.818181818181818</v>
+        <v>6.25</v>
       </c>
       <c r="L742" t="n">
         <v>438.9</v>
@@ -38121,7 +38141,7 @@
         <v>2244</v>
       </c>
       <c r="K743" t="n">
-        <v>-5.454545454545454</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L743" t="n">
         <v>439</v>
@@ -38172,7 +38192,7 @@
         <v>2244</v>
       </c>
       <c r="K744" t="n">
-        <v>-5.454545454545454</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L744" t="n">
         <v>439.4</v>
@@ -38223,7 +38243,7 @@
         <v>2250</v>
       </c>
       <c r="K745" t="n">
-        <v>14.28571428571428</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L745" t="n">
         <v>440.1</v>
@@ -38274,7 +38294,7 @@
         <v>2250</v>
       </c>
       <c r="K746" t="n">
-        <v>7.692307692307693</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L746" t="n">
         <v>440.4</v>
@@ -38325,7 +38345,7 @@
         <v>2253</v>
       </c>
       <c r="K747" t="n">
-        <v>12.72727272727273</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L747" t="n">
         <v>441</v>
@@ -38376,7 +38396,7 @@
         <v>2254</v>
       </c>
       <c r="K748" t="n">
-        <v>25.49019607843137</v>
+        <v>20</v>
       </c>
       <c r="L748" t="n">
         <v>442.2</v>
@@ -38427,7 +38447,7 @@
         <v>2254</v>
       </c>
       <c r="K749" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L749" t="n">
         <v>442.6</v>
@@ -38478,7 +38498,7 @@
         <v>2257</v>
       </c>
       <c r="K750" t="n">
-        <v>34.61538461538461</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L750" t="n">
         <v>443.3</v>
@@ -38529,7 +38549,7 @@
         <v>2257</v>
       </c>
       <c r="K751" t="n">
-        <v>37.25490196078432</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L751" t="n">
         <v>443.8</v>
@@ -38580,7 +38600,7 @@
         <v>2257</v>
       </c>
       <c r="K752" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L752" t="n">
         <v>445</v>
@@ -38631,7 +38651,7 @@
         <v>2257</v>
       </c>
       <c r="K753" t="n">
-        <v>30.43478260869566</v>
+        <v>100</v>
       </c>
       <c r="L753" t="n">
         <v>446.3</v>
@@ -38682,7 +38702,7 @@
         <v>2257</v>
       </c>
       <c r="K754" t="n">
-        <v>39.53488372093023</v>
+        <v>100</v>
       </c>
       <c r="L754" t="n">
         <v>447.6</v>
@@ -38733,7 +38753,7 @@
         <v>2258</v>
       </c>
       <c r="K755" t="n">
-        <v>36.58536585365854</v>
+        <v>100</v>
       </c>
       <c r="L755" t="n">
         <v>448.4</v>
@@ -38784,7 +38804,7 @@
         <v>2258</v>
       </c>
       <c r="K756" t="n">
-        <v>29.72972972972973</v>
+        <v>100</v>
       </c>
       <c r="L756" t="n">
         <v>449.2</v>
@@ -38835,7 +38855,7 @@
         <v>2258</v>
       </c>
       <c r="K757" t="n">
-        <v>29.72972972972973</v>
+        <v>100</v>
       </c>
       <c r="L757" t="n">
         <v>449.7</v>
@@ -38886,7 +38906,7 @@
         <v>2258</v>
       </c>
       <c r="K758" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L758" t="n">
         <v>450.1</v>
@@ -38937,7 +38957,7 @@
         <v>2258</v>
       </c>
       <c r="K759" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L759" t="n">
         <v>450.5</v>
@@ -38988,7 +39008,7 @@
         <v>2260</v>
       </c>
       <c r="K760" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L760" t="n">
         <v>450.4</v>
@@ -39039,7 +39059,7 @@
         <v>2261</v>
       </c>
       <c r="K761" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L761" t="n">
         <v>450.4</v>
@@ -39090,7 +39110,7 @@
         <v>2263</v>
       </c>
       <c r="K762" t="n">
-        <v>50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L762" t="n">
         <v>450.2</v>
@@ -39141,7 +39161,7 @@
         <v>2263</v>
       </c>
       <c r="K763" t="n">
-        <v>57.89473684210527</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L763" t="n">
         <v>450</v>
@@ -39192,7 +39212,7 @@
         <v>2263</v>
       </c>
       <c r="K764" t="n">
-        <v>57.89473684210527</v>
+        <v>-60</v>
       </c>
       <c r="L764" t="n">
         <v>449.8</v>
@@ -39243,7 +39263,7 @@
         <v>2263</v>
       </c>
       <c r="K765" t="n">
-        <v>38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L765" t="n">
         <v>449.5</v>
@@ -39294,7 +39314,7 @@
         <v>2268</v>
       </c>
       <c r="K766" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="L766" t="n">
         <v>448.7</v>
@@ -39345,7 +39365,7 @@
         <v>2274</v>
       </c>
       <c r="K767" t="n">
-        <v>14.28571428571428</v>
+        <v>-12.5</v>
       </c>
       <c r="L767" t="n">
         <v>448.5</v>
@@ -39396,7 +39416,7 @@
         <v>2274</v>
       </c>
       <c r="K768" t="n">
-        <v>10</v>
+        <v>-12.5</v>
       </c>
       <c r="L768" t="n">
         <v>448.3</v>
@@ -39447,7 +39467,7 @@
         <v>2274</v>
       </c>
       <c r="K769" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L769" t="n">
         <v>448.1</v>
@@ -39549,7 +39569,7 @@
         <v>2275</v>
       </c>
       <c r="K771" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L771" t="n">
         <v>448.2</v>
@@ -39600,7 +39620,7 @@
         <v>2275</v>
       </c>
       <c r="K772" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L772" t="n">
         <v>448.4</v>
@@ -39651,7 +39671,7 @@
         <v>2275</v>
       </c>
       <c r="K773" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L773" t="n">
         <v>448.6</v>
@@ -39702,7 +39722,7 @@
         <v>2277</v>
       </c>
       <c r="K774" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L774" t="n">
         <v>448.6</v>
@@ -39753,7 +39773,7 @@
         <v>2278</v>
       </c>
       <c r="K775" t="n">
-        <v>-20</v>
+        <v>40</v>
       </c>
       <c r="L775" t="n">
         <v>448.5</v>
@@ -39804,7 +39824,7 @@
         <v>2280</v>
       </c>
       <c r="K776" t="n">
-        <v>-27.27272727272727</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L776" t="n">
         <v>448.7</v>
@@ -39855,7 +39875,7 @@
         <v>2280</v>
       </c>
       <c r="K777" t="n">
-        <v>-27.27272727272727</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L777" t="n">
         <v>448.3</v>
@@ -39906,7 +39926,7 @@
         <v>2285</v>
       </c>
       <c r="K778" t="n">
-        <v>-3.703703703703703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L778" t="n">
         <v>448.4</v>
@@ -39957,7 +39977,7 @@
         <v>2289</v>
       </c>
       <c r="K779" t="n">
-        <v>-16.12903225806452</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L779" t="n">
         <v>448.1</v>
@@ -40008,7 +40028,7 @@
         <v>2293</v>
       </c>
       <c r="K780" t="n">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L780" t="n">
         <v>448.1</v>
@@ -40059,7 +40079,7 @@
         <v>2297</v>
       </c>
       <c r="K781" t="n">
-        <v>-11.11111111111111</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L781" t="n">
         <v>447.7</v>
@@ -40110,7 +40130,7 @@
         <v>2297</v>
       </c>
       <c r="K782" t="n">
-        <v>-5.88235294117647</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L782" t="n">
         <v>447.3</v>
@@ -40161,7 +40181,7 @@
         <v>2299</v>
       </c>
       <c r="K783" t="n">
-        <v>-11.11111111111111</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L783" t="n">
         <v>446.7</v>
@@ -40212,7 +40232,7 @@
         <v>2303</v>
       </c>
       <c r="K784" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L784" t="n">
         <v>446.7</v>
@@ -40263,7 +40283,7 @@
         <v>2303</v>
       </c>
       <c r="K785" t="n">
-        <v>0</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L785" t="n">
         <v>446.8</v>
@@ -40314,7 +40334,7 @@
         <v>2303</v>
       </c>
       <c r="K786" t="n">
-        <v>14.28571428571428</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L786" t="n">
         <v>447.1</v>
@@ -40365,7 +40385,7 @@
         <v>2309</v>
       </c>
       <c r="K787" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L787" t="n">
         <v>446.8</v>
@@ -40416,7 +40436,7 @@
         <v>2315</v>
       </c>
       <c r="K788" t="n">
-        <v>-2.439024390243902</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L788" t="n">
         <v>446.6</v>
@@ -40467,7 +40487,7 @@
         <v>2322</v>
       </c>
       <c r="K789" t="n">
-        <v>-16.66666666666666</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L789" t="n">
         <v>446.1</v>
@@ -40518,7 +40538,7 @@
         <v>2322</v>
       </c>
       <c r="K790" t="n">
-        <v>-19.14893617021277</v>
+        <v>-20</v>
       </c>
       <c r="L790" t="n">
         <v>445.2</v>
@@ -40569,7 +40589,7 @@
         <v>2322</v>
       </c>
       <c r="K791" t="n">
-        <v>-19.14893617021277</v>
+        <v>-20</v>
       </c>
       <c r="L791" t="n">
         <v>444.7</v>
@@ -40620,7 +40640,7 @@
         <v>2322</v>
       </c>
       <c r="K792" t="n">
-        <v>-19.14893617021277</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L792" t="n">
         <v>444.2</v>
@@ -40671,7 +40691,7 @@
         <v>2336</v>
       </c>
       <c r="K793" t="n">
-        <v>-37.70491803278689</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L793" t="n">
         <v>442.5</v>
@@ -40722,7 +40742,7 @@
         <v>2337</v>
       </c>
       <c r="K794" t="n">
-        <v>-33.33333333333333</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L794" t="n">
         <v>440.5</v>
@@ -40773,7 +40793,7 @@
         <v>2338</v>
       </c>
       <c r="K795" t="n">
-        <v>-30</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L795" t="n">
         <v>438.6</v>
@@ -40824,7 +40844,7 @@
         <v>2354</v>
       </c>
       <c r="K796" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L796" t="n">
         <v>438.3</v>
@@ -40875,7 +40895,7 @@
         <v>2372</v>
       </c>
       <c r="K797" t="n">
-        <v>-19.56521739130435</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L797" t="n">
         <v>436.8</v>
@@ -40926,7 +40946,7 @@
         <v>2375</v>
       </c>
       <c r="K798" t="n">
-        <v>-22.22222222222222</v>
+        <v>-20.75471698113208</v>
       </c>
       <c r="L798" t="n">
         <v>435</v>
@@ -40977,7 +40997,7 @@
         <v>2390</v>
       </c>
       <c r="K799" t="n">
-        <v>-0.9900990099009901</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L799" t="n">
         <v>435.4</v>
@@ -41028,7 +41048,7 @@
         <v>2401</v>
       </c>
       <c r="K800" t="n">
-        <v>-14.81481481481481</v>
+        <v>-8.860759493670885</v>
       </c>
       <c r="L800" t="n">
         <v>434.7</v>
@@ -41079,7 +41099,7 @@
         <v>2401</v>
       </c>
       <c r="K801" t="n">
-        <v>-11.53846153846154</v>
+        <v>-8.860759493670885</v>
       </c>
       <c r="L801" t="n">
         <v>434</v>
@@ -41130,7 +41150,7 @@
         <v>2401</v>
       </c>
       <c r="K802" t="n">
-        <v>-11.53846153846154</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="L802" t="n">
         <v>433.3</v>
@@ -41181,7 +41201,7 @@
         <v>2404</v>
       </c>
       <c r="K803" t="n">
-        <v>-6.666666666666667</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="L803" t="n">
         <v>434.3</v>
@@ -41232,7 +41252,7 @@
         <v>2408</v>
       </c>
       <c r="K804" t="n">
-        <v>-6.666666666666667</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="L804" t="n">
         <v>435.6</v>
@@ -41283,7 +41303,7 @@
         <v>2408</v>
       </c>
       <c r="K805" t="n">
-        <v>-6.666666666666667</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L805" t="n">
         <v>436.8</v>
@@ -41334,7 +41354,7 @@
         <v>2415</v>
       </c>
       <c r="K806" t="n">
-        <v>-12.5</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L806" t="n">
         <v>435.7</v>
@@ -41385,7 +41405,7 @@
         <v>2417</v>
       </c>
       <c r="K807" t="n">
-        <v>-5.555555555555555</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L807" t="n">
         <v>436.6</v>
@@ -41436,7 +41456,7 @@
         <v>2417</v>
       </c>
       <c r="K808" t="n">
-        <v>-11.76470588235294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L808" t="n">
         <v>437.2</v>
@@ -41487,7 +41507,7 @@
         <v>2420</v>
       </c>
       <c r="K809" t="n">
-        <v>-2.040816326530612</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L809" t="n">
         <v>436.6</v>
@@ -41538,7 +41558,7 @@
         <v>2421</v>
       </c>
       <c r="K810" t="n">
-        <v>-1.01010101010101</v>
+        <v>30</v>
       </c>
       <c r="L810" t="n">
         <v>437.2</v>
@@ -41589,7 +41609,7 @@
         <v>2421</v>
       </c>
       <c r="K811" t="n">
-        <v>-1.01010101010101</v>
+        <v>30</v>
       </c>
       <c r="L811" t="n">
         <v>437.8</v>
@@ -41640,7 +41660,7 @@
         <v>2422</v>
       </c>
       <c r="K812" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L812" t="n">
         <v>438.5</v>
@@ -41691,7 +41711,7 @@
         <v>2422</v>
       </c>
       <c r="K813" t="n">
-        <v>16.27906976744186</v>
+        <v>0</v>
       </c>
       <c r="L813" t="n">
         <v>438.9</v>
@@ -41742,7 +41762,7 @@
         <v>2424</v>
       </c>
       <c r="K814" t="n">
-        <v>12.64367816091954</v>
+        <v>-12.5</v>
       </c>
       <c r="L814" t="n">
         <v>438.7</v>
@@ -41793,7 +41813,7 @@
         <v>2424</v>
       </c>
       <c r="K815" t="n">
-        <v>11.62790697674419</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L815" t="n">
         <v>438.5</v>
@@ -41844,7 +41864,7 @@
         <v>2424</v>
       </c>
       <c r="K816" t="n">
-        <v>-8.571428571428571</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L816" t="n">
         <v>439</v>
@@ -41895,7 +41915,7 @@
         <v>2424</v>
       </c>
       <c r="K817" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L817" t="n">
         <v>439.3</v>
@@ -41946,7 +41966,7 @@
         <v>2424</v>
       </c>
       <c r="K818" t="n">
-        <v>18.36734693877551</v>
+        <v>0</v>
       </c>
       <c r="L818" t="n">
         <v>439.6</v>
@@ -41997,7 +42017,7 @@
         <v>2428</v>
       </c>
       <c r="K819" t="n">
-        <v>-26.31578947368421</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L819" t="n">
         <v>439.2</v>
@@ -42048,7 +42068,7 @@
         <v>2428</v>
       </c>
       <c r="K820" t="n">
-        <v>3.703703703703703</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L820" t="n">
         <v>438.7</v>
@@ -42099,7 +42119,7 @@
         <v>2429</v>
       </c>
       <c r="K821" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L821" t="n">
         <v>438.1</v>
@@ -42150,7 +42170,7 @@
         <v>2436</v>
       </c>
       <c r="K822" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L822" t="n">
         <v>436.7</v>
@@ -42201,7 +42221,7 @@
         <v>2438</v>
       </c>
       <c r="K823" t="n">
-        <v>-23.52941176470588</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L823" t="n">
         <v>435.5</v>
@@ -42252,7 +42272,7 @@
         <v>2440</v>
       </c>
       <c r="K824" t="n">
-        <v>-43.75</v>
+        <v>-75</v>
       </c>
       <c r="L824" t="n">
         <v>434.3</v>
@@ -42303,7 +42323,7 @@
         <v>2440</v>
       </c>
       <c r="K825" t="n">
-        <v>-43.75</v>
+        <v>-75</v>
       </c>
       <c r="L825" t="n">
         <v>433.1</v>
@@ -42354,7 +42374,7 @@
         <v>2443</v>
       </c>
       <c r="K826" t="n">
-        <v>-35.71428571428572</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L826" t="n">
         <v>431.6</v>
@@ -42405,7 +42425,7 @@
         <v>2444</v>
       </c>
       <c r="K827" t="n">
-        <v>-40.74074074074074</v>
+        <v>-70</v>
       </c>
       <c r="L827" t="n">
         <v>430.2</v>
@@ -42456,7 +42476,7 @@
         <v>2446</v>
       </c>
       <c r="K828" t="n">
-        <v>-31.03448275862069</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L828" t="n">
         <v>429</v>
@@ -42507,7 +42527,7 @@
         <v>2446</v>
       </c>
       <c r="K829" t="n">
-        <v>-46.15384615384615</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L829" t="n">
         <v>428.2</v>
@@ -42558,7 +42578,7 @@
         <v>2448</v>
       </c>
       <c r="K830" t="n">
-        <v>-40.74074074074074</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L830" t="n">
         <v>427.6</v>
@@ -42609,7 +42629,7 @@
         <v>2452</v>
       </c>
       <c r="K831" t="n">
-        <v>-48.38709677419355</v>
+        <v>-12.5</v>
       </c>
       <c r="L831" t="n">
         <v>426.7</v>
@@ -42660,7 +42680,7 @@
         <v>2452</v>
       </c>
       <c r="K832" t="n">
-        <v>-53.33333333333334</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L832" t="n">
         <v>426.5</v>
@@ -42711,7 +42731,7 @@
         <v>2453</v>
       </c>
       <c r="K833" t="n">
-        <v>-54.83870967741935</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L833" t="n">
         <v>426</v>
@@ -42762,7 +42782,7 @@
         <v>2456</v>
       </c>
       <c r="K834" t="n">
-        <v>-56.25</v>
+        <v>-37.5</v>
       </c>
       <c r="L834" t="n">
         <v>425.4</v>
@@ -42813,7 +42833,7 @@
         <v>2456</v>
       </c>
       <c r="K835" t="n">
-        <v>-56.25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L835" t="n">
         <v>424.8</v>
@@ -42864,7 +42884,7 @@
         <v>2456</v>
       </c>
       <c r="K836" t="n">
-        <v>-56.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L836" t="n">
         <v>424.5</v>
@@ -42915,7 +42935,7 @@
         <v>2458</v>
       </c>
       <c r="K837" t="n">
-        <v>-58.82352941176471</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L837" t="n">
         <v>423.9</v>
@@ -42966,7 +42986,7 @@
         <v>2461</v>
       </c>
       <c r="K838" t="n">
-        <v>-62.16216216216216</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L838" t="n">
         <v>422.8</v>
@@ -43017,7 +43037,7 @@
         <v>2461</v>
       </c>
       <c r="K839" t="n">
-        <v>-57.57575757575758</v>
+        <v>-100</v>
       </c>
       <c r="L839" t="n">
         <v>421.7</v>
@@ -43068,7 +43088,7 @@
         <v>2461</v>
       </c>
       <c r="K840" t="n">
-        <v>-57.57575757575758</v>
+        <v>-100</v>
       </c>
       <c r="L840" t="n">
         <v>420.4</v>
@@ -43119,7 +43139,7 @@
         <v>2469</v>
       </c>
       <c r="K841" t="n">
-        <v>-25</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L841" t="n">
         <v>420.3</v>
@@ -43170,7 +43190,7 @@
         <v>2469</v>
       </c>
       <c r="K842" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L842" t="n">
         <v>420.2</v>
@@ -43221,7 +43241,7 @@
         <v>2479</v>
       </c>
       <c r="K843" t="n">
-        <v>-36.58536585365854</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L843" t="n">
         <v>419.2</v>
@@ -43272,7 +43292,7 @@
         <v>2481</v>
       </c>
       <c r="K844" t="n">
-        <v>-26.82926829268293</v>
+        <v>-20</v>
       </c>
       <c r="L844" t="n">
         <v>418.7</v>
@@ -43323,7 +43343,7 @@
         <v>2483</v>
       </c>
       <c r="K845" t="n">
-        <v>-30.23255813953488</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L845" t="n">
         <v>418</v>
@@ -43374,7 +43394,7 @@
         <v>2485</v>
       </c>
       <c r="K846" t="n">
-        <v>-19.04761904761905</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L846" t="n">
         <v>417.5</v>
@@ -43425,7 +43445,7 @@
         <v>2486</v>
       </c>
       <c r="K847" t="n">
-        <v>-23.80952380952381</v>
+        <v>-4</v>
       </c>
       <c r="L847" t="n">
         <v>417.1</v>
@@ -43476,7 +43496,7 @@
         <v>2486</v>
       </c>
       <c r="K848" t="n">
-        <v>-30</v>
+        <v>-4</v>
       </c>
       <c r="L848" t="n">
         <v>417</v>
@@ -43527,7 +43547,7 @@
         <v>2486</v>
       </c>
       <c r="K849" t="n">
-        <v>-30</v>
+        <v>-4</v>
       </c>
       <c r="L849" t="n">
         <v>416.9</v>
@@ -43578,7 +43598,7 @@
         <v>2487</v>
       </c>
       <c r="K850" t="n">
-        <v>-38.46153846153847</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L850" t="n">
         <v>416.7</v>
@@ -43629,7 +43649,7 @@
         <v>2493</v>
       </c>
       <c r="K851" t="n">
-        <v>-12.19512195121951</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L851" t="n">
         <v>416.3</v>
@@ -43680,7 +43700,7 @@
         <v>2493</v>
       </c>
       <c r="K852" t="n">
-        <v>-12.19512195121951</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L852" t="n">
         <v>415.9</v>
@@ -43731,7 +43751,7 @@
         <v>2503</v>
       </c>
       <c r="K853" t="n">
-        <v>12</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L853" t="n">
         <v>417.5</v>
@@ -43782,7 +43802,7 @@
         <v>2509</v>
       </c>
       <c r="K854" t="n">
-        <v>5.660377358490567</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L854" t="n">
         <v>418.3</v>
@@ -43833,7 +43853,7 @@
         <v>2512</v>
       </c>
       <c r="K855" t="n">
-        <v>0</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L855" t="n">
         <v>419</v>
@@ -43884,7 +43904,7 @@
         <v>2513</v>
       </c>
       <c r="K856" t="n">
-        <v>-1.754385964912281</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L856" t="n">
         <v>419.4</v>
@@ -43935,7 +43955,7 @@
         <v>2513</v>
       </c>
       <c r="K857" t="n">
-        <v>1.818181818181818</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L857" t="n">
         <v>419.9</v>
@@ -43986,7 +44006,7 @@
         <v>2518</v>
       </c>
       <c r="K858" t="n">
-        <v>-1.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="L858" t="n">
         <v>419.9</v>
@@ -44037,7 +44057,7 @@
         <v>2518</v>
       </c>
       <c r="K859" t="n">
-        <v>-1.754385964912281</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L859" t="n">
         <v>419.9</v>
@@ -44088,7 +44108,7 @@
         <v>2523</v>
       </c>
       <c r="K860" t="n">
-        <v>6.451612903225806</v>
+        <v>0</v>
       </c>
       <c r="L860" t="n">
         <v>420.5</v>
@@ -44139,7 +44159,7 @@
         <v>2527</v>
       </c>
       <c r="K861" t="n">
-        <v>-13.79310344827586</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L861" t="n">
         <v>420.1</v>
@@ -44190,7 +44210,7 @@
         <v>2531</v>
       </c>
       <c r="K862" t="n">
-        <v>-6.451612903225806</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L862" t="n">
         <v>420.1</v>
@@ -44241,7 +44261,7 @@
         <v>2531</v>
       </c>
       <c r="K863" t="n">
-        <v>11.53846153846154</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L863" t="n">
         <v>419.1</v>
@@ -44292,7 +44312,7 @@
         <v>2531</v>
       </c>
       <c r="K864" t="n">
-        <v>8</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L864" t="n">
         <v>418.7</v>
@@ -44343,7 +44363,7 @@
         <v>2532</v>
       </c>
       <c r="K865" t="n">
-        <v>14.28571428571428</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L865" t="n">
         <v>418.7</v>
@@ -44394,7 +44414,7 @@
         <v>2532</v>
       </c>
       <c r="K866" t="n">
-        <v>10.63829787234043</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L866" t="n">
         <v>418.8</v>
@@ -44445,7 +44465,7 @@
         <v>2533</v>
       </c>
       <c r="K867" t="n">
-        <v>10.63829787234043</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L867" t="n">
         <v>418.8</v>
@@ -44496,7 +44516,7 @@
         <v>2533</v>
       </c>
       <c r="K868" t="n">
-        <v>10.63829787234043</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L868" t="n">
         <v>419.3</v>
@@ -44547,7 +44567,7 @@
         <v>2533</v>
       </c>
       <c r="K869" t="n">
-        <v>10.63829787234043</v>
+        <v>0</v>
       </c>
       <c r="L869" t="n">
         <v>419.8</v>
@@ -44598,7 +44618,7 @@
         <v>2533</v>
       </c>
       <c r="K870" t="n">
-        <v>13.04347826086956</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L870" t="n">
         <v>419.8</v>
@@ -44751,7 +44771,7 @@
         <v>2537</v>
       </c>
       <c r="K873" t="n">
-        <v>-41.17647058823529</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L873" t="n">
         <v>419.8</v>
@@ -44802,7 +44822,7 @@
         <v>2538</v>
       </c>
       <c r="K874" t="n">
-        <v>-24.13793103448276</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L874" t="n">
         <v>419.5</v>
@@ -44853,7 +44873,7 @@
         <v>2538</v>
       </c>
       <c r="K875" t="n">
-        <v>-15.38461538461539</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L875" t="n">
         <v>419.1</v>
@@ -44904,7 +44924,7 @@
         <v>2538</v>
       </c>
       <c r="K876" t="n">
-        <v>-12</v>
+        <v>-60</v>
       </c>
       <c r="L876" t="n">
         <v>418.7</v>
@@ -45006,7 +45026,7 @@
         <v>2544</v>
       </c>
       <c r="K878" t="n">
-        <v>7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L878" t="n">
         <v>418.4</v>
@@ -45057,7 +45077,7 @@
         <v>2549</v>
       </c>
       <c r="K879" t="n">
-        <v>22.58064516129032</v>
+        <v>12.5</v>
       </c>
       <c r="L879" t="n">
         <v>418.6</v>
@@ -45108,7 +45128,7 @@
         <v>2549</v>
       </c>
       <c r="K880" t="n">
-        <v>7.692307692307693</v>
+        <v>12.5</v>
       </c>
       <c r="L880" t="n">
         <v>418.8</v>
@@ -45159,7 +45179,7 @@
         <v>2550</v>
       </c>
       <c r="K881" t="n">
-        <v>30.43478260869566</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L881" t="n">
         <v>419.1</v>
@@ -45210,7 +45230,7 @@
         <v>2555</v>
       </c>
       <c r="K882" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L882" t="n">
         <v>419.9</v>
@@ -45261,7 +45281,7 @@
         <v>2558</v>
       </c>
       <c r="K883" t="n">
-        <v>18.51851851851852</v>
+        <v>40</v>
       </c>
       <c r="L883" t="n">
         <v>420.8</v>
@@ -45312,7 +45332,7 @@
         <v>2566</v>
       </c>
       <c r="K884" t="n">
-        <v>-8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L884" t="n">
         <v>420.8</v>
@@ -45363,7 +45383,7 @@
         <v>2572</v>
       </c>
       <c r="K885" t="n">
-        <v>5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L885" t="n">
         <v>421.4</v>
@@ -45414,7 +45434,7 @@
         <v>2573</v>
       </c>
       <c r="K886" t="n">
-        <v>2.439024390243902</v>
+        <v>6.25</v>
       </c>
       <c r="L886" t="n">
         <v>421.9</v>
@@ -45465,7 +45485,7 @@
         <v>2574</v>
       </c>
       <c r="K887" t="n">
-        <v>7.317073170731707</v>
+        <v>20</v>
       </c>
       <c r="L887" t="n">
         <v>422.2</v>
@@ -45516,7 +45536,7 @@
         <v>2574</v>
       </c>
       <c r="K888" t="n">
-        <v>7.317073170731707</v>
+        <v>4</v>
       </c>
       <c r="L888" t="n">
         <v>422.8</v>
@@ -45567,7 +45587,7 @@
         <v>2578</v>
       </c>
       <c r="K889" t="n">
-        <v>-2.222222222222222</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L889" t="n">
         <v>422.5</v>
@@ -45618,7 +45638,7 @@
         <v>2578</v>
       </c>
       <c r="K890" t="n">
-        <v>-2.222222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L890" t="n">
         <v>422.2</v>
@@ -45669,7 +45689,7 @@
         <v>2578</v>
       </c>
       <c r="K891" t="n">
-        <v>-2.222222222222222</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L891" t="n">
         <v>421.8</v>
@@ -45720,7 +45740,7 @@
         <v>2579</v>
       </c>
       <c r="K892" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L892" t="n">
         <v>420.8</v>
@@ -45771,7 +45791,7 @@
         <v>2580</v>
       </c>
       <c r="K893" t="n">
-        <v>6.976744186046512</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L893" t="n">
         <v>420.2</v>
@@ -45822,7 +45842,7 @@
         <v>2581</v>
       </c>
       <c r="K894" t="n">
-        <v>2.325581395348837</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L894" t="n">
         <v>420.3</v>
@@ -45873,7 +45893,7 @@
         <v>2583</v>
       </c>
       <c r="K895" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L895" t="n">
         <v>420</v>
@@ -45924,7 +45944,7 @@
         <v>2583</v>
       </c>
       <c r="K896" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L896" t="n">
         <v>419.8</v>
@@ -45975,7 +45995,7 @@
         <v>2583</v>
       </c>
       <c r="K897" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L897" t="n">
         <v>419.5</v>
@@ -46026,7 +46046,7 @@
         <v>2584</v>
       </c>
       <c r="K898" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L898" t="n">
         <v>419.1</v>
@@ -46077,7 +46097,7 @@
         <v>2585</v>
       </c>
       <c r="K899" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L899" t="n">
         <v>419</v>
@@ -46128,7 +46148,7 @@
         <v>2586</v>
       </c>
       <c r="K900" t="n">
-        <v>-13.51351351351351</v>
+        <v>-25</v>
       </c>
       <c r="L900" t="n">
         <v>418.8</v>
@@ -46179,7 +46199,7 @@
         <v>2586</v>
       </c>
       <c r="K901" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L901" t="n">
         <v>418.6</v>
@@ -46230,7 +46250,7 @@
         <v>2587</v>
       </c>
       <c r="K902" t="n">
-        <v>-37.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L902" t="n">
         <v>418.4</v>
@@ -46281,7 +46301,7 @@
         <v>2590</v>
       </c>
       <c r="K903" t="n">
-        <v>-37.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L903" t="n">
         <v>417.8</v>
@@ -46332,7 +46352,7 @@
         <v>2590</v>
       </c>
       <c r="K904" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L904" t="n">
         <v>417.3</v>
@@ -46383,7 +46403,7 @@
         <v>2590</v>
       </c>
       <c r="K905" t="n">
-        <v>-55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L905" t="n">
         <v>416.6</v>
@@ -46434,7 +46454,7 @@
         <v>2591</v>
       </c>
       <c r="K906" t="n">
-        <v>-44.44444444444444</v>
+        <v>-75</v>
       </c>
       <c r="L906" t="n">
         <v>416</v>
@@ -46485,7 +46505,7 @@
         <v>2592</v>
       </c>
       <c r="K907" t="n">
-        <v>-55.55555555555556</v>
+        <v>-75</v>
       </c>
       <c r="L907" t="n">
         <v>415.3</v>
@@ -46536,7 +46556,7 @@
         <v>2594</v>
       </c>
       <c r="K908" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L908" t="n">
         <v>414.9</v>
@@ -46587,7 +46607,7 @@
         <v>2597</v>
       </c>
       <c r="K909" t="n">
-        <v>-36.84210526315789</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L909" t="n">
         <v>414.3</v>
@@ -46638,7 +46658,7 @@
         <v>2597</v>
       </c>
       <c r="K910" t="n">
-        <v>-36.84210526315789</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L910" t="n">
         <v>413.8</v>
@@ -46689,7 +46709,7 @@
         <v>2597</v>
       </c>
       <c r="K911" t="n">
-        <v>-36.84210526315789</v>
+        <v>-40</v>
       </c>
       <c r="L911" t="n">
         <v>413.3</v>
@@ -46740,7 +46760,7 @@
         <v>2599</v>
       </c>
       <c r="K912" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L912" t="n">
         <v>412.7</v>
@@ -46791,7 +46811,7 @@
         <v>2601</v>
       </c>
       <c r="K913" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L913" t="n">
         <v>412.6</v>
@@ -46842,7 +46862,7 @@
         <v>2602</v>
       </c>
       <c r="K914" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L914" t="n">
         <v>412.4</v>
@@ -46893,7 +46913,7 @@
         <v>2603</v>
       </c>
       <c r="K915" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L915" t="n">
         <v>412.1</v>
@@ -46944,7 +46964,7 @@
         <v>2603</v>
       </c>
       <c r="K916" t="n">
-        <v>-50</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L916" t="n">
         <v>411.7</v>
@@ -46995,7 +47015,7 @@
         <v>2606</v>
       </c>
       <c r="K917" t="n">
-        <v>-56.52173913043478</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L917" t="n">
         <v>411.1</v>

--- a/BackTest/2019-11-01 BackTest DAD.xlsx
+++ b/BackTest/2019-11-01 BackTest DAD.xlsx
@@ -766,14 +766,20 @@
         <v>543.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>486</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -801,14 +807,20 @@
         <v>542.6666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>489</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -836,14 +848,20 @@
         <v>541.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>485</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -878,7 +896,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -913,7 +935,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -948,7 +974,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1013,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1052,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1091,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1088,7 +1130,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1169,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1208,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1193,7 +1247,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1286,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1325,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1364,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1403,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1442,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1481,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1520,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1559,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1598,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1637,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1676,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1613,7 +1715,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1648,7 +1754,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1683,7 +1793,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1718,7 +1832,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1753,7 +1871,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1788,7 +1910,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1823,7 +1949,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1858,7 +1988,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1893,7 +2027,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +2066,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2105,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2144,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2033,7 +2183,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2222,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2261,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2300,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2339,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2378,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2417,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2456,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2495,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2534,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2573,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2612,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2651,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2690,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2729,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2768,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2807,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2846,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2885,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2924,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2963,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +3002,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +3041,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +3080,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +3119,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3158,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3197,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3236,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +3275,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3048,7 +3314,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3353,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3118,7 +3392,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3431,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3470,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3509,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3548,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3587,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3626,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3665,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3704,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3743,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3782,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3821,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3860,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3899,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3938,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3977,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +4016,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +4055,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +4094,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +4133,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +4172,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4211,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +4250,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4289,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4328,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4367,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4406,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4445,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4484,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4523,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4562,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4601,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4640,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4679,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4718,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4757,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4796,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4835,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4874,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4913,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4952,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4991,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +5030,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +5069,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +5108,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +5147,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5186,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +5225,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +5264,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5303,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5342,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5381,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5420,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5459,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5498,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5537,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5576,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5615,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5654,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5693,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5732,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5771,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5810,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5849,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5888,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5927,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5966,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +6005,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +6044,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +6083,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +6122,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6161,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +6200,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +6239,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +6278,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +6317,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +6356,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +6395,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6434,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6473,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6512,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6551,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6590,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6629,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6668,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6707,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6746,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6785,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6824,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6863,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6902,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6941,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6980,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +7019,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +7058,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +7097,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +7136,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +7175,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +7214,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +7253,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +7292,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +7331,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +7370,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +7409,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7448,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7487,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7526,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7565,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7604,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7643,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7682,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7721,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7760,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7799,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7838,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7877,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7916,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7955,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7994,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +8033,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +8072,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +8111,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +8150,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +8189,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +8228,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +8267,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +8306,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +8345,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +8384,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +8423,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +8462,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8501,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +8540,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +8579,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8618,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8657,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8696,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8735,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8774,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8813,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8852,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8891,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8930,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8969,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +9008,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +9047,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +9086,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +9125,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +9164,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +9203,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +9242,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +9281,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +9320,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +9359,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +9398,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +9437,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +9476,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9515,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9554,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9593,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +9632,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8749,14 +9667,16 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8784,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -8924,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -8959,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -11444,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
@@ -11479,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
@@ -11514,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
@@ -11549,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
@@ -11584,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
@@ -11864,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
@@ -11899,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
@@ -12004,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
@@ -12039,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
@@ -12879,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
@@ -18304,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
@@ -19876,14 +20796,20 @@
         <v>490.6166666666667</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>458</v>
+      </c>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -19911,14 +20837,20 @@
         <v>489.7833333333334</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>460</v>
+      </c>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -19946,14 +20878,20 @@
         <v>489.0666666666667</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>457</v>
+      </c>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -19981,14 +20919,20 @@
         <v>488.3333333333333</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>465</v>
+      </c>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20016,14 +20960,20 @@
         <v>487.5666666666667</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>465</v>
+      </c>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20051,14 +21001,20 @@
         <v>486.8</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>463</v>
+      </c>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20093,7 +21049,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20121,14 +21081,20 @@
         <v>485.4</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>464</v>
+      </c>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20156,14 +21122,20 @@
         <v>484.8333333333333</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>469</v>
+      </c>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20191,14 +21163,20 @@
         <v>484.2333333333333</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>474</v>
+      </c>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20226,14 +21204,20 @@
         <v>483.6333333333333</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>472</v>
+      </c>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20268,7 +21252,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20303,7 +21291,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +21330,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20373,7 +21369,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20408,7 +21408,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20443,7 +21447,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20478,7 +21486,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20513,7 +21525,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20548,7 +21564,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20583,7 +21603,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +21642,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -20653,7 +21681,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -20688,7 +21720,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -20723,7 +21759,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -20758,7 +21798,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -20793,7 +21837,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -20828,7 +21876,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -20863,7 +21915,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -20898,7 +21954,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -20933,7 +21993,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -20968,7 +22032,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21003,7 +22071,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21038,7 +22110,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21073,7 +22149,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21108,7 +22188,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21143,7 +22227,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21178,7 +22266,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21213,7 +22305,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21248,7 +22344,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21283,7 +22383,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21318,7 +22422,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21353,7 +22461,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21388,7 +22500,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21423,7 +22539,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21458,7 +22578,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21493,7 +22617,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21528,7 +22656,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21563,7 +22695,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -21598,7 +22734,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -21633,7 +22773,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -21668,7 +22812,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -21703,7 +22851,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -21738,7 +22890,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +22929,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -21808,7 +22968,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -21843,7 +23007,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -21878,7 +23046,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -21913,7 +23085,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -21948,7 +23124,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -21983,7 +23163,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22018,7 +23202,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22053,7 +23241,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22088,7 +23280,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22123,7 +23319,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22158,7 +23358,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22193,7 +23397,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22228,7 +23436,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22263,7 +23475,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22298,7 +23514,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22333,7 +23553,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22368,7 +23592,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22403,7 +23631,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22438,7 +23670,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22473,7 +23709,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22508,7 +23748,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22543,7 +23787,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22578,7 +23826,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -22613,7 +23865,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -22648,7 +23904,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -22683,7 +23943,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -22718,7 +23982,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -22753,7 +24021,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -22788,7 +24060,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -22823,7 +24099,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -22858,7 +24138,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -22893,7 +24177,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +24216,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -22963,7 +24255,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -22998,7 +24294,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23033,7 +24333,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23068,7 +24372,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23103,7 +24411,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23138,7 +24450,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23173,7 +24489,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23208,7 +24528,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23243,7 +24567,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23278,7 +24606,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +24645,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23348,7 +24684,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23383,7 +24723,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23418,7 +24762,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23453,7 +24801,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23488,7 +24840,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23523,7 +24879,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23558,7 +24918,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23593,7 +24957,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23628,7 +24996,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -23663,7 +25035,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -23698,7 +25074,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -23733,7 +25113,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -23768,7 +25152,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -23803,7 +25191,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -23838,7 +25230,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -23873,7 +25269,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -23908,7 +25308,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -23943,7 +25347,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -23978,7 +25386,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24013,7 +25425,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24048,7 +25464,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +25503,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24118,7 +25542,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24153,7 +25581,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24188,7 +25620,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24223,7 +25659,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24258,7 +25698,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24293,7 +25737,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24328,7 +25776,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24363,7 +25815,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24398,7 +25854,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24433,7 +25893,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24468,7 +25932,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24503,7 +25971,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24538,7 +26010,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24573,7 +26049,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24608,7 +26088,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24643,7 +26127,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -24678,7 +26166,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -24713,7 +26205,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -24748,7 +26244,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -24783,7 +26283,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -24818,7 +26322,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -24853,7 +26361,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -24888,7 +26400,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -24923,7 +26439,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +26478,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -24993,7 +26517,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25028,7 +26556,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25063,7 +26595,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25098,7 +26634,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25133,7 +26673,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25168,7 +26712,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25203,7 +26751,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +26790,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25273,7 +26829,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25308,7 +26868,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25343,7 +26907,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25378,7 +26946,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25413,7 +26985,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25448,7 +27024,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25483,7 +27063,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25518,7 +27102,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25553,7 +27141,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25588,7 +27180,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -25623,7 +27219,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -25658,7 +27258,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -25693,7 +27297,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -25728,7 +27336,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -25763,7 +27375,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -25798,7 +27414,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -25833,7 +27453,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -25868,7 +27492,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -25903,7 +27531,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -25938,7 +27570,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -25973,7 +27609,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26008,7 +27648,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26043,7 +27687,11 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26078,7 +27726,11 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26113,7 +27765,11 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26148,7 +27804,11 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26183,7 +27843,11 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26218,7 +27882,11 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26253,7 +27921,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26288,7 +27960,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26323,7 +27999,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26358,7 +28038,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +28077,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26428,7 +28116,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26463,7 +28155,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26498,7 +28194,11 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26533,7 +28233,11 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -26568,7 +28272,11 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -26603,7 +28311,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -26638,7 +28350,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -26673,7 +28389,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -26708,7 +28428,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -26743,7 +28467,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -26778,7 +28506,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -26813,7 +28545,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -26848,7 +28584,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -26883,7 +28623,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -26918,7 +28662,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -26953,7 +28701,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -26988,7 +28740,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27023,7 +28779,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27058,7 +28818,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27093,7 +28857,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27128,7 +28896,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27163,7 +28935,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27198,7 +28974,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27233,7 +29013,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27268,7 +29052,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27303,7 +29091,11 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27338,7 +29130,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27373,7 +29169,11 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -27408,7 +29208,11 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -27443,7 +29247,11 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -27478,7 +29286,11 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -27513,7 +29325,11 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +29364,11 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -27583,7 +29403,11 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -27618,7 +29442,11 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -27653,7 +29481,11 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -27688,7 +29520,11 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -27723,7 +29559,11 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -27758,7 +29598,11 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -27793,7 +29637,11 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -27828,7 +29676,11 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -27863,7 +29715,11 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -27898,7 +29754,11 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -27933,7 +29793,11 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -27968,7 +29832,11 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28003,7 +29871,11 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28038,7 +29910,11 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28073,7 +29949,11 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28108,7 +29988,11 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28143,7 +30027,11 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28178,7 +30066,11 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28213,7 +30105,11 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28248,7 +30144,11 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28283,7 +30183,11 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28318,7 +30222,11 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28353,7 +30261,11 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -28388,7 +30300,11 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -28423,7 +30339,11 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -28458,7 +30378,11 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -28493,7 +30417,11 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -28528,7 +30456,11 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -28563,7 +30495,11 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -28598,7 +30534,11 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -28633,7 +30573,11 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -28668,7 +30612,11 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +30651,11 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -28738,7 +30690,11 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -28773,7 +30729,11 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -28808,7 +30768,11 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -28843,7 +30807,11 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -28878,7 +30846,11 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -28913,7 +30885,11 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -28948,7 +30924,11 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -28983,7 +30963,11 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29018,7 +31002,11 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29053,7 +31041,11 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29088,7 +31080,11 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29123,7 +31119,11 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29158,7 +31158,11 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -29193,7 +31197,11 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -29228,7 +31236,11 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -29263,7 +31275,11 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -29298,7 +31314,11 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -29333,7 +31353,11 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -29368,7 +31392,11 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -29403,7 +31431,11 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -29438,7 +31470,11 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -29466,18 +31502,16 @@
         <v>438.1666666666667</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
-      <c r="J831" t="n">
-        <v>429</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
       <c r="L831" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M831" t="n">
@@ -29507,14 +31541,12 @@
         <v>437.75</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>425</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
       <c r="L832" t="inlineStr">
         <is>
@@ -29548,14 +31580,12 @@
         <v>437.3166666666667</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>425</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
       <c r="L833" t="inlineStr">
         <is>
@@ -29589,14 +31619,12 @@
         <v>436.8666666666667</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>423</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
       <c r="L834" t="inlineStr">
         <is>
@@ -29630,14 +31658,12 @@
         <v>436.4333333333333</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="n">
         <v>0</v>
       </c>
-      <c r="J835" t="n">
-        <v>422</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="inlineStr">
         <is>
@@ -29671,14 +31697,12 @@
         <v>436.0333333333334</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="n">
         <v>0</v>
       </c>
-      <c r="J836" t="n">
-        <v>422</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
       <c r="L836" t="inlineStr">
         <is>
@@ -29712,14 +31736,12 @@
         <v>435.6</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="n">
         <v>0</v>
       </c>
-      <c r="J837" t="n">
-        <v>423</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
       <c r="L837" t="inlineStr">
         <is>
@@ -29753,14 +31775,12 @@
         <v>435.0333333333334</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="n">
         <v>0</v>
       </c>
-      <c r="J838" t="n">
-        <v>418</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="inlineStr">
         <is>
@@ -29794,14 +31814,12 @@
         <v>434.5333333333334</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>416</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
       <c r="L839" t="inlineStr">
         <is>
@@ -29835,14 +31853,12 @@
         <v>433.9666666666666</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>418</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
       <c r="L840" t="inlineStr">
         <is>
@@ -29876,14 +31892,12 @@
         <v>433.6</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>417</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
       <c r="L841" t="inlineStr">
         <is>
@@ -29917,14 +31931,12 @@
         <v>433.2333333333333</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>424</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
       <c r="L842" t="inlineStr">
         <is>
@@ -29958,14 +31970,12 @@
         <v>432.7333333333333</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>424</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
       <c r="L843" t="inlineStr">
         <is>
@@ -29999,14 +32009,12 @@
         <v>432.2</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
       </c>
-      <c r="J844" t="n">
-        <v>415</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
       <c r="L844" t="inlineStr">
         <is>
@@ -30040,14 +32048,12 @@
         <v>431.6333333333333</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="n">
         <v>0</v>
       </c>
-      <c r="J845" t="n">
-        <v>416</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
       <c r="L845" t="inlineStr">
         <is>
@@ -30081,14 +32087,12 @@
         <v>431.1</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I846" t="n">
         <v>0</v>
       </c>
-      <c r="J846" t="n">
-        <v>416</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
       <c r="L846" t="inlineStr">
         <is>
@@ -30122,14 +32126,12 @@
         <v>430.65</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="n">
         <v>0</v>
       </c>
-      <c r="J847" t="n">
-        <v>415</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="inlineStr">
         <is>
@@ -30163,14 +32165,12 @@
         <v>430.1</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="n">
         <v>0</v>
       </c>
-      <c r="J848" t="n">
-        <v>415</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="inlineStr">
         <is>
@@ -30204,14 +32204,12 @@
         <v>429.6666666666667</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="n">
         <v>0</v>
       </c>
-      <c r="J849" t="n">
-        <v>415</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
       <c r="L849" t="inlineStr">
         <is>
@@ -30245,14 +32243,12 @@
         <v>429.2166666666666</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="n">
         <v>0</v>
       </c>
-      <c r="J850" t="n">
-        <v>419</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
       <c r="L850" t="inlineStr">
         <is>
@@ -30286,14 +32282,12 @@
         <v>428.8666666666667</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
         <v>0</v>
       </c>
-      <c r="J851" t="n">
-        <v>415</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
       <c r="L851" t="inlineStr">
         <is>
@@ -30327,14 +32321,12 @@
         <v>428.5166666666667</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="n">
         <v>0</v>
       </c>
-      <c r="J852" t="n">
-        <v>420</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
       <c r="L852" t="inlineStr">
         <is>
@@ -30368,14 +32360,12 @@
         <v>428.5666666666667</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
       </c>
-      <c r="J853" t="n">
-        <v>420</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
       <c r="L853" t="inlineStr">
         <is>
@@ -30409,14 +32399,12 @@
         <v>428.5</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="n">
         <v>0</v>
       </c>
-      <c r="J854" t="n">
-        <v>430</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
       <c r="L854" t="inlineStr">
         <is>
@@ -30450,14 +32438,12 @@
         <v>428.3666666666667</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
         <v>0</v>
       </c>
-      <c r="J855" t="n">
-        <v>421</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
       <c r="L855" t="inlineStr">
         <is>
@@ -30491,14 +32477,12 @@
         <v>427.95</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>0</v>
       </c>
-      <c r="J856" t="n">
-        <v>425</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
       <c r="L856" t="inlineStr">
         <is>
@@ -30532,14 +32516,12 @@
         <v>427.8333333333333</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="n">
         <v>0</v>
       </c>
-      <c r="J857" t="n">
-        <v>420</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
       <c r="L857" t="inlineStr">
         <is>
@@ -30573,14 +32555,12 @@
         <v>427.5833333333333</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I858" t="n">
         <v>0</v>
       </c>
-      <c r="J858" t="n">
-        <v>420</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
       <c r="L858" t="inlineStr">
         <is>
@@ -30614,14 +32594,12 @@
         <v>427.0833333333333</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="n">
         <v>0</v>
       </c>
-      <c r="J859" t="n">
-        <v>416</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr">
         <is>
@@ -30655,14 +32633,12 @@
         <v>426.85</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I860" t="n">
         <v>0</v>
       </c>
-      <c r="J860" t="n">
-        <v>420</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
       <c r="L860" t="inlineStr">
         <is>
@@ -30696,14 +32672,12 @@
         <v>426.55</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I861" t="n">
         <v>0</v>
       </c>
-      <c r="J861" t="n">
-        <v>416</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
       <c r="L861" t="inlineStr">
         <is>
@@ -30737,14 +32711,12 @@
         <v>426.3166666666667</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I862" t="n">
         <v>0</v>
       </c>
-      <c r="J862" t="n">
-        <v>417</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
       <c r="L862" t="inlineStr">
         <is>
@@ -30778,14 +32750,12 @@
         <v>426.0333333333334</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I863" t="n">
         <v>0</v>
       </c>
-      <c r="J863" t="n">
-        <v>420</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
       <c r="L863" t="inlineStr">
         <is>
@@ -30819,14 +32789,12 @@
         <v>425.6833333333333</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I864" t="n">
         <v>0</v>
       </c>
-      <c r="J864" t="n">
-        <v>420</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
       <c r="L864" t="inlineStr">
         <is>
@@ -30860,14 +32828,12 @@
         <v>425.35</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I865" t="n">
         <v>0</v>
       </c>
-      <c r="J865" t="n">
-        <v>421</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
       <c r="L865" t="inlineStr">
         <is>
@@ -30901,14 +32867,12 @@
         <v>425.1333333333333</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I866" t="n">
         <v>0</v>
       </c>
-      <c r="J866" t="n">
-        <v>421</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
       <c r="L866" t="inlineStr">
         <is>
@@ -30942,14 +32906,12 @@
         <v>424.8666666666667</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I867" t="n">
         <v>0</v>
       </c>
-      <c r="J867" t="n">
-        <v>420</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
       <c r="L867" t="inlineStr">
         <is>
@@ -30983,14 +32945,12 @@
         <v>424.6</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I868" t="n">
         <v>0</v>
       </c>
-      <c r="J868" t="n">
-        <v>422</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
       <c r="L868" t="inlineStr">
         <is>
@@ -31024,14 +32984,12 @@
         <v>424.2833333333334</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869" t="n">
         <v>0</v>
       </c>
-      <c r="J869" t="n">
-        <v>420</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
       <c r="L869" t="inlineStr">
         <is>
@@ -31065,14 +33023,12 @@
         <v>423.95</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I870" t="n">
         <v>0</v>
       </c>
-      <c r="J870" t="n">
-        <v>420</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
       <c r="L870" t="inlineStr">
         <is>
@@ -31106,14 +33062,12 @@
         <v>423.6166666666667</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I871" t="n">
         <v>0</v>
       </c>
-      <c r="J871" t="n">
-        <v>420</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
       <c r="L871" t="inlineStr">
         <is>
@@ -31147,14 +33101,12 @@
         <v>423.2666666666667</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I872" t="n">
         <v>0</v>
       </c>
-      <c r="J872" t="n">
-        <v>420</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
       <c r="L872" t="inlineStr">
         <is>
@@ -31188,14 +33140,12 @@
         <v>422.85</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I873" t="n">
         <v>0</v>
       </c>
-      <c r="J873" t="n">
-        <v>420</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
       <c r="L873" t="inlineStr">
         <is>
@@ -31229,14 +33179,12 @@
         <v>422.4833333333333</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I874" t="n">
         <v>0</v>
       </c>
-      <c r="J874" t="n">
-        <v>417</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
       <c r="L874" t="inlineStr">
         <is>
@@ -31270,14 +33218,12 @@
         <v>422.1166666666667</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I875" t="n">
         <v>0</v>
       </c>
-      <c r="J875" t="n">
-        <v>418</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
       <c r="L875" t="inlineStr">
         <is>
@@ -31311,14 +33257,12 @@
         <v>421.75</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I876" t="n">
         <v>0</v>
       </c>
-      <c r="J876" t="n">
-        <v>417</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
       <c r="L876" t="inlineStr">
         <is>
@@ -31352,14 +33296,12 @@
         <v>421.4333333333333</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I877" t="n">
         <v>0</v>
       </c>
-      <c r="J877" t="n">
-        <v>419</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
       <c r="L877" t="inlineStr">
         <is>
@@ -31393,14 +33335,12 @@
         <v>421.0666666666667</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I878" t="n">
         <v>0</v>
       </c>
-      <c r="J878" t="n">
-        <v>420</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
       <c r="L878" t="inlineStr">
         <is>
@@ -31434,14 +33374,12 @@
         <v>420.85</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I879" t="n">
         <v>0</v>
       </c>
-      <c r="J879" t="n">
-        <v>422</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
       <c r="L879" t="inlineStr">
         <is>
@@ -31475,14 +33413,12 @@
         <v>420.6333333333333</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I880" t="n">
         <v>0</v>
       </c>
-      <c r="J880" t="n">
-        <v>422</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
       <c r="L880" t="inlineStr">
         <is>
@@ -31516,14 +33452,12 @@
         <v>420.45</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I881" t="n">
         <v>0</v>
       </c>
-      <c r="J881" t="n">
-        <v>423</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
       <c r="L881" t="inlineStr">
         <is>
@@ -31557,14 +33491,12 @@
         <v>420.4666666666666</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I882" t="n">
         <v>0</v>
       </c>
-      <c r="J882" t="n">
-        <v>428</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
       <c r="L882" t="inlineStr">
         <is>
@@ -31598,14 +33530,12 @@
         <v>420.4</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I883" t="n">
         <v>0</v>
       </c>
-      <c r="J883" t="n">
-        <v>423</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
       <c r="L883" t="inlineStr">
         <is>
@@ -31639,14 +33569,12 @@
         <v>420.2333333333333</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I884" t="n">
         <v>0</v>
       </c>
-      <c r="J884" t="n">
-        <v>424</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
       <c r="L884" t="inlineStr">
         <is>
@@ -31680,14 +33608,12 @@
         <v>420.1666666666667</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="n">
         <v>0</v>
       </c>
-      <c r="J885" t="n">
-        <v>418</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
       <c r="L885" t="inlineStr">
         <is>
@@ -31721,14 +33647,12 @@
         <v>420.1333333333333</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I886" t="n">
         <v>0</v>
       </c>
-      <c r="J886" t="n">
-        <v>422</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
       <c r="L886" t="inlineStr">
         <is>
@@ -31762,14 +33686,12 @@
         <v>420.1</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I887" t="n">
         <v>0</v>
       </c>
-      <c r="J887" t="n">
-        <v>423</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
       <c r="L887" t="inlineStr">
         <is>
@@ -31803,14 +33725,12 @@
         <v>420.0333333333334</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I888" t="n">
         <v>0</v>
       </c>
-      <c r="J888" t="n">
-        <v>423</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
       <c r="L888" t="inlineStr">
         <is>
@@ -31844,14 +33764,12 @@
         <v>419.9</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I889" t="n">
         <v>0</v>
       </c>
-      <c r="J889" t="n">
-        <v>420</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
       <c r="L889" t="inlineStr">
         <is>
@@ -31885,14 +33803,12 @@
         <v>419.7333333333333</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I890" t="n">
         <v>0</v>
       </c>
-      <c r="J890" t="n">
-        <v>419</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
       <c r="L890" t="inlineStr">
         <is>
@@ -31926,14 +33842,12 @@
         <v>419.6333333333333</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I891" t="n">
         <v>0</v>
       </c>
-      <c r="J891" t="n">
-        <v>420</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
       <c r="L891" t="inlineStr">
         <is>
@@ -31967,14 +33881,12 @@
         <v>419.5166666666667</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I892" t="n">
         <v>0</v>
       </c>
-      <c r="J892" t="n">
-        <v>419</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
       <c r="L892" t="inlineStr">
         <is>
@@ -32008,14 +33920,12 @@
         <v>419.4333333333333</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I893" t="n">
         <v>0</v>
       </c>
-      <c r="J893" t="n">
-        <v>418</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
       <c r="L893" t="inlineStr">
         <is>
@@ -32049,14 +33959,12 @@
         <v>419.3833333333333</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I894" t="n">
         <v>0</v>
       </c>
-      <c r="J894" t="n">
-        <v>419</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
       <c r="L894" t="inlineStr">
         <is>
@@ -32090,14 +33998,12 @@
         <v>419.3666666666667</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I895" t="n">
         <v>0</v>
       </c>
-      <c r="J895" t="n">
-        <v>419</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
       <c r="L895" t="inlineStr">
         <is>
@@ -32131,14 +34037,12 @@
         <v>419.35</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I896" t="n">
         <v>0</v>
       </c>
-      <c r="J896" t="n">
-        <v>420</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
       <c r="L896" t="inlineStr">
         <is>

--- a/BackTest/2019-11-01 BackTest DAD.xlsx
+++ b/BackTest/2019-11-01 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>203425.3041725079</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>341809.199812547</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>391230.185990842</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>340784.033781165</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>289729.1120402931</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>278150.777453999</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>209949.079940449</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>42785.35664044904</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>83267.58984044904</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-32269.94325955096</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>7009.313632901045</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>31070.76997575704</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3246.780124242956</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4825.988386988044</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>98950.70428964305</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>84492.09798964305</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>98076.53478964305</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>119982.051397039</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>92519.92026825705</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>89130.70017346204</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>97025.74507346204</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>159965.671247444</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>162267.290647444</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>200808.243647444</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>175119.055174401</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>202974.533890133</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>176155.175990133</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>137216.758790133</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>160949.666726496</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>93902.47992649605</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>81378.46172649604</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>64708.28572649604</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>23972.93992649604</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>108908.405526496</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>89846.51915355104</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>110802.671837634</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>74910.53369826605</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>85615.11859826605</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>82745.44679826606</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>54396.81809826606</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>40858.24889826606</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>58878.02719826606</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>103828.686057528</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>103830.686057528</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>139894.134120833</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>110829.110320833</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>112180.856720833</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>106262.4723208331</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>102885.208120833</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>102885.208120833</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>107720.367594871</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>87101.53222751204</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>79871.44272751204</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>79895.27742751205</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>135379.8384965871</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>125864.3292965871</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>121480.7352965871</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>105750.6335965871</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>113291.3199833201</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>119570.2212833201</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>113900.8564833201</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>115268.7423833201</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>124639.9071833201</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>127717.5072833201</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>134377.5073833201</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>133170.8120833201</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>134632.9443833201</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>134632.9443833201</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>130303.3311342861</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>149690.7989852811</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>160672.2194236691</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>160059.8043236691</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>160209.9192236691</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>160478.2175028271</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>158031.9508028271</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>202182.9895236691</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>251398.4083998491</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>238480.5280998491</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>273124.0345136611</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>268577.3818099581</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>266246.6784099581</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>193753.0900099581</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>190122.1604099581</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>190372.1604099581</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>155217.3104099581</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>178425.3467099581</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>130672.7304988471</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>89213.17349884714</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>81229.62339884715</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>82467.97569884715</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>103035.3185290542</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>102155.8077290542</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>106981.5963698852</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>108812.8487277292</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>107337.4405277292</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>105923.5869277292</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>115363.4967277292</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>168090.0624277292</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>330932.6395277292</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>262438.6093277292</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>262438.6093277292</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>262438.6093277292</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>262438.6093277292</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-189089.4268722708</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-457674.8489722708</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-592459.4446722708</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-225621.1720177258</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-814687.4459177258</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-323557.1207177258</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-909413.6844177258</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1958243.516227167</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-2688603.085227167</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-2688603.085227167</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-3254175.060127167</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-2568706.766656915</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-2263698.765656915</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-2263698.765656915</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1786925.786856915</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1786925.786856915</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1786921.796456915</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1845201.364656915</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1854868.593856915</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1851705.286767167</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1842788.234267167</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1845022.340267167</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -24475,10 +24475,14 @@
         <v>-5957393.73192202</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>427</v>
+      </c>
+      <c r="J730" t="n">
+        <v>427</v>
+      </c>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
@@ -24511,8 +24515,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>427</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24541,11 +24551,19 @@
         <v>-6010147.47492202</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>431</v>
+      </c>
+      <c r="J732" t="n">
+        <v>427</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24574,11 +24592,19 @@
         <v>-6010147.47492202</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>428</v>
+      </c>
+      <c r="J733" t="n">
+        <v>427</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24607,11 +24633,19 @@
         <v>-6012249.27602202</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>428</v>
+      </c>
+      <c r="J734" t="n">
+        <v>427</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +24674,19 @@
         <v>-5997314.857922019</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>425</v>
+      </c>
+      <c r="J735" t="n">
+        <v>427</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +24715,19 @@
         <v>-5997314.857922019</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>426</v>
+      </c>
+      <c r="J736" t="n">
+        <v>427</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +24756,19 @@
         <v>-5996637.69442202</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>426</v>
+      </c>
+      <c r="J737" t="n">
+        <v>427</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24739,11 +24797,19 @@
         <v>-5996637.69442202</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>428</v>
+      </c>
+      <c r="J738" t="n">
+        <v>427</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24838,19 @@
         <v>-6043015.575122019</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>428</v>
+      </c>
+      <c r="J739" t="n">
+        <v>427</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24879,19 @@
         <v>-6043015.575122019</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>427</v>
+      </c>
+      <c r="J740" t="n">
+        <v>427</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +24920,19 @@
         <v>-6167541.546722019</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>427</v>
+      </c>
+      <c r="J741" t="n">
+        <v>427</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +24961,19 @@
         <v>-6167541.546722019</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>425</v>
+      </c>
+      <c r="J742" t="n">
+        <v>427</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25002,19 @@
         <v>-5863938.546722019</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>425</v>
+      </c>
+      <c r="J743" t="n">
+        <v>427</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25043,19 @@
         <v>-5863938.546722019</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>427</v>
+      </c>
+      <c r="J744" t="n">
+        <v>427</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24973,8 +25087,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>427</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25006,8 +25126,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>427</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25039,8 +25165,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>427</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25201,19 @@
         <v>-5877503.045222019</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>426</v>
+      </c>
+      <c r="J748" t="n">
+        <v>427</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25242,19 @@
         <v>-5877503.045222019</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>433</v>
+      </c>
+      <c r="J749" t="n">
+        <v>427</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25283,19 @@
         <v>-5879392.045222019</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>433</v>
+      </c>
+      <c r="J750" t="n">
+        <v>427</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25324,19 @@
         <v>-5879392.045222019</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>432</v>
+      </c>
+      <c r="J751" t="n">
+        <v>427</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25365,19 @@
         <v>-5880552.156104426</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>432</v>
+      </c>
+      <c r="J752" t="n">
+        <v>427</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25406,19 @@
         <v>-5867068.605604426</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>428</v>
+      </c>
+      <c r="J753" t="n">
+        <v>427</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25447,19 @@
         <v>-5864589.581504426</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>435</v>
+      </c>
+      <c r="J754" t="n">
+        <v>427</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25488,19 @@
         <v>-5849858.502704426</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>440</v>
+      </c>
+      <c r="J755" t="n">
+        <v>427</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25529,19 @@
         <v>-5836597.266804426</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>441</v>
+      </c>
+      <c r="J756" t="n">
+        <v>427</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25369,8 +25573,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>427</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25402,8 +25612,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>427</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25435,8 +25651,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>427</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25468,8 +25690,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>427</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25501,8 +25729,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>427</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25534,8 +25768,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>427</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25567,8 +25807,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>427</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25600,8 +25846,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>427</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25633,8 +25885,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>427</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25666,8 +25924,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>427</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25699,8 +25963,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>427</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25732,8 +26002,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>427</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25765,8 +26041,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>427</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25798,8 +26080,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>427</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25831,8 +26119,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>427</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25864,8 +26158,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>427</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25897,8 +26197,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>427</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25930,8 +26236,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>427</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25963,8 +26275,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>427</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25996,8 +26314,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>427</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26029,8 +26353,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>427</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26062,8 +26392,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>427</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26095,8 +26431,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>427</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26128,8 +26470,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>427</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26161,8 +26509,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>427</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26194,8 +26548,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>427</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26227,8 +26587,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>427</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26260,8 +26626,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>427</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26293,8 +26665,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>427</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26326,8 +26704,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>427</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26359,8 +26743,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>427</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26779,19 @@
         <v>-5839527.598004426</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>434</v>
+      </c>
+      <c r="J788" t="n">
+        <v>427</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26820,19 @@
         <v>-5853260.119404426</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>433</v>
+      </c>
+      <c r="J789" t="n">
+        <v>427</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26861,19 @@
         <v>-5859361.236304426</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>432</v>
+      </c>
+      <c r="J790" t="n">
+        <v>427</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26902,19 @@
         <v>-5854625.218404425</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>431</v>
+      </c>
+      <c r="J791" t="n">
+        <v>427</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26943,19 @@
         <v>-5854604.730704425</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>432</v>
+      </c>
+      <c r="J792" t="n">
+        <v>427</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26984,19 @@
         <v>-5855144.326904424</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>436</v>
+      </c>
+      <c r="J793" t="n">
+        <v>427</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +27025,19 @@
         <v>-5855095.477204424</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>433</v>
+      </c>
+      <c r="J794" t="n">
+        <v>427</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26623,8 +27069,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>427</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +27105,19 @@
         <v>-5854728.301504425</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>440</v>
+      </c>
+      <c r="J796" t="n">
+        <v>427</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +27146,19 @@
         <v>-5859610.592804424</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>440</v>
+      </c>
+      <c r="J797" t="n">
+        <v>427</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +27187,19 @@
         <v>-5859608.409304424</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>435</v>
+      </c>
+      <c r="J798" t="n">
+        <v>427</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +27228,19 @@
         <v>-5859608.409304424</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>443</v>
+      </c>
+      <c r="J799" t="n">
+        <v>427</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +27269,19 @@
         <v>-5859378.094304424</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>443</v>
+      </c>
+      <c r="J800" t="n">
+        <v>427</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +27310,19 @@
         <v>-5859943.876504424</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>445</v>
+      </c>
+      <c r="J801" t="n">
+        <v>427</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26851,11 +27351,19 @@
         <v>-5864411.133304424</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>438</v>
+      </c>
+      <c r="J802" t="n">
+        <v>427</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +27392,19 @@
         <v>-5864411.133304424</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>437</v>
+      </c>
+      <c r="J803" t="n">
+        <v>427</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +27433,19 @@
         <v>-5864348.133304424</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>437</v>
+      </c>
+      <c r="J804" t="n">
+        <v>427</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26950,11 +27474,19 @@
         <v>-5864348.133304424</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>443</v>
+      </c>
+      <c r="J805" t="n">
+        <v>427</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26983,11 +27515,19 @@
         <v>-5863349.133304424</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>443</v>
+      </c>
+      <c r="J806" t="n">
+        <v>427</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27016,11 +27556,19 @@
         <v>-5862731.966404424</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>446</v>
+      </c>
+      <c r="J807" t="n">
+        <v>427</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27052,8 +27600,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>427</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27085,8 +27639,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>427</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27118,8 +27678,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>427</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27151,8 +27717,14 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>427</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27184,8 +27756,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>427</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27217,8 +27795,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>427</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27250,8 +27834,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>427</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27283,8 +27873,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>427</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27316,8 +27912,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>427</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27349,8 +27951,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>427</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27382,8 +27990,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>427</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27415,8 +28029,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>427</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27448,8 +28068,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>427</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27481,8 +28107,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>427</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27514,8 +28146,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>427</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27547,8 +28185,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>427</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27580,8 +28224,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>427</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27613,8 +28263,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>427</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27646,8 +28302,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>427</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27679,8 +28341,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>427</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27712,8 +28380,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>427</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27745,8 +28419,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>427</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27778,8 +28458,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>427</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27811,8 +28497,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>427</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27844,8 +28536,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>427</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27877,8 +28575,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>427</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27910,8 +28614,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>427</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27943,8 +28653,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>427</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27976,8 +28692,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>427</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28009,8 +28731,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>427</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28042,8 +28770,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>427</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28075,8 +28809,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>427</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28108,8 +28848,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>427</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28141,8 +28887,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>427</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28174,8 +28926,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>427</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28207,8 +28965,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>427</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28240,8 +29004,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>427</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28273,8 +29043,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>427</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28306,8 +29082,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>427</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28339,8 +29121,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>427</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28372,8 +29160,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>427</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28402,11 +29196,19 @@
         <v>-5877004.401939613</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>441</v>
+      </c>
+      <c r="J849" t="n">
+        <v>427</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,11 +29237,19 @@
         <v>-5877004.401939613</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>441</v>
+      </c>
+      <c r="J850" t="n">
+        <v>427</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28468,11 +29278,19 @@
         <v>-5877004.401939613</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>441</v>
+      </c>
+      <c r="J851" t="n">
+        <v>427</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +29319,19 @@
         <v>-5881149.071039612</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>441</v>
+      </c>
+      <c r="J852" t="n">
+        <v>427</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +29360,19 @@
         <v>-5880149.338039612</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>427</v>
+      </c>
+      <c r="J853" t="n">
+        <v>427</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +29401,19 @@
         <v>-5879686.277539613</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>428</v>
+      </c>
+      <c r="J854" t="n">
+        <v>427</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +29442,19 @@
         <v>-5879393.143439612</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>429</v>
+      </c>
+      <c r="J855" t="n">
+        <v>427</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +29483,19 @@
         <v>-5880607.465939612</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>445</v>
+      </c>
+      <c r="J856" t="n">
+        <v>427</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +29524,19 @@
         <v>-5880495.284039612</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>427</v>
+      </c>
+      <c r="J857" t="n">
+        <v>427</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +29565,19 @@
         <v>-5874057.625799163</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>430</v>
+      </c>
+      <c r="J858" t="n">
+        <v>427</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +29606,19 @@
         <v>-5874093.876299163</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>445</v>
+      </c>
+      <c r="J859" t="n">
+        <v>427</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +29647,19 @@
         <v>-5874093.876299163</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>434</v>
+      </c>
+      <c r="J860" t="n">
+        <v>427</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +29688,19 @@
         <v>-5874093.876299163</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>434</v>
+      </c>
+      <c r="J861" t="n">
+        <v>427</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28831,11 +29729,19 @@
         <v>-5873900.993899164</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>434</v>
+      </c>
+      <c r="J862" t="n">
+        <v>427</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28864,11 +29770,19 @@
         <v>-5873741.964299164</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>437</v>
+      </c>
+      <c r="J863" t="n">
+        <v>427</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +29811,19 @@
         <v>-5873741.964299164</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>441</v>
+      </c>
+      <c r="J864" t="n">
+        <v>427</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28930,11 +29852,19 @@
         <v>-5874013.557499164</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>441</v>
+      </c>
+      <c r="J865" t="n">
+        <v>427</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28963,11 +29893,19 @@
         <v>-5873987.434199164</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>434</v>
+      </c>
+      <c r="J866" t="n">
+        <v>427</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -28996,11 +29934,19 @@
         <v>-5873987.434199164</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>436</v>
+      </c>
+      <c r="J867" t="n">
+        <v>427</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +29975,19 @@
         <v>-5873961.310899164</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>436</v>
+      </c>
+      <c r="J868" t="n">
+        <v>427</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +30016,19 @@
         <v>-5873186.178699164</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>439</v>
+      </c>
+      <c r="J869" t="n">
+        <v>427</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +30057,19 @@
         <v>-5873186.178699164</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>440</v>
+      </c>
+      <c r="J870" t="n">
+        <v>427</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +30098,19 @@
         <v>-5872274.771799164</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>440</v>
+      </c>
+      <c r="J871" t="n">
+        <v>427</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29164,8 +30142,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>427</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29197,8 +30181,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>427</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29230,8 +30220,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>427</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29263,8 +30259,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>427</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29293,11 +30295,19 @@
         <v>-5872276.766799164</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>439</v>
+      </c>
+      <c r="J876" t="n">
+        <v>427</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29329,8 +30339,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>427</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29359,11 +30375,19 @@
         <v>-5874714.939599164</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>439</v>
+      </c>
+      <c r="J878" t="n">
+        <v>427</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29392,11 +30416,19 @@
         <v>-5874714.939599164</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>435</v>
+      </c>
+      <c r="J879" t="n">
+        <v>427</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29425,11 +30457,19 @@
         <v>-5875257.805599164</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>435</v>
+      </c>
+      <c r="J880" t="n">
+        <v>427</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29458,11 +30498,19 @@
         <v>-5881148.079599164</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>434</v>
+      </c>
+      <c r="J881" t="n">
+        <v>427</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29491,11 +30539,19 @@
         <v>-5880472.258999164</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>427</v>
+      </c>
+      <c r="J882" t="n">
+        <v>427</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29524,11 +30580,19 @@
         <v>-5880527.409499165</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>429</v>
+      </c>
+      <c r="J883" t="n">
+        <v>427</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +30621,19 @@
         <v>-5880527.409499165</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>427</v>
+      </c>
+      <c r="J884" t="n">
+        <v>427</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +30662,19 @@
         <v>-5887275.730099165</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>427</v>
+      </c>
+      <c r="J885" t="n">
+        <v>427</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +30703,19 @@
         <v>-5886971.291899165</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>424</v>
+      </c>
+      <c r="J886" t="n">
+        <v>427</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +30744,19 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>425</v>
+      </c>
+      <c r="J887" t="n">
+        <v>427</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +30785,19 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>427</v>
+      </c>
+      <c r="J888" t="n">
+        <v>427</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +30826,19 @@
         <v>-5886853.435599165</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>427</v>
+      </c>
+      <c r="J889" t="n">
+        <v>427</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +30867,19 @@
         <v>-5886863.435599165</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>429</v>
+      </c>
+      <c r="J890" t="n">
+        <v>427</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +30908,19 @@
         <v>-5886863.435599165</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>425</v>
+      </c>
+      <c r="J891" t="n">
+        <v>427</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29821,11 +30949,19 @@
         <v>-5888761.448999165</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>425</v>
+      </c>
+      <c r="J892" t="n">
+        <v>427</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +30990,19 @@
         <v>-5895753.588499164</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>424</v>
+      </c>
+      <c r="J893" t="n">
+        <v>427</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29887,11 +31031,19 @@
         <v>-5895753.588499164</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>421</v>
+      </c>
+      <c r="J894" t="n">
+        <v>427</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +31072,19 @@
         <v>-5895753.588499164</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>421</v>
+      </c>
+      <c r="J895" t="n">
+        <v>427</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29953,11 +31113,19 @@
         <v>-5909178.323799164</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>421</v>
+      </c>
+      <c r="J896" t="n">
+        <v>427</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +31154,19 @@
         <v>-5916469.353411201</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>419</v>
+      </c>
+      <c r="J897" t="n">
+        <v>427</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +31195,19 @@
         <v>-5916469.353411201</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>416</v>
+      </c>
+      <c r="J898" t="n">
+        <v>427</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +31236,19 @@
         <v>-5916469.353411201</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>416</v>
+      </c>
+      <c r="J899" t="n">
+        <v>427</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30085,11 +31277,19 @@
         <v>-5911485.592003655</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>416</v>
+      </c>
+      <c r="J900" t="n">
+        <v>427</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30118,11 +31318,19 @@
         <v>-5911485.592003655</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>424</v>
+      </c>
+      <c r="J901" t="n">
+        <v>427</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30151,11 +31359,19 @@
         <v>-5927643.497603655</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>424</v>
+      </c>
+      <c r="J902" t="n">
+        <v>427</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30184,11 +31400,19 @@
         <v>-5918587.941203655</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>414</v>
+      </c>
+      <c r="J903" t="n">
+        <v>427</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30217,15 +31441,17 @@
         <v>-5921717.815503655</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I904" t="n">
         <v>416</v>
       </c>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>427</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L904" t="n">
@@ -30256,12 +31482,14 @@
         <v>-5921586.100303655</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I905" t="n">
         <v>414</v>
       </c>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>427</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30295,12 +31523,14 @@
         <v>-5921675.795403655</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I906" t="n">
         <v>416</v>
       </c>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>427</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30334,12 +31564,14 @@
         <v>-5921675.795403655</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>415</v>
       </c>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>427</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30373,12 +31605,14 @@
         <v>-5921675.795403655</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I908" t="n">
         <v>415</v>
       </c>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>427</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30412,12 +31646,14 @@
         <v>-5930139.398003655</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I909" t="n">
         <v>415</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>427</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30451,12 +31687,14 @@
         <v>-5929288.403603654</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I910" t="n">
         <v>414</v>
       </c>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>427</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30490,12 +31728,14 @@
         <v>-5929288.403603654</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I911" t="n">
         <v>420</v>
       </c>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>427</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30529,12 +31769,14 @@
         <v>-5923489.498003654</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I912" t="n">
         <v>420</v>
       </c>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>427</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30568,12 +31810,14 @@
         <v>-5925406.839203654</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>430</v>
       </c>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>427</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30607,12 +31851,14 @@
         <v>-5925937.325503654</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>424</v>
       </c>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>427</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30646,12 +31892,14 @@
         <v>-5931396.259103654</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I915" t="n">
         <v>421</v>
       </c>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>427</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30685,12 +31933,14 @@
         <v>-5931396.259103654</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>420</v>
       </c>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>427</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30724,12 +31974,14 @@
         <v>-5935414.427703654</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>420</v>
       </c>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>427</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30763,12 +32015,14 @@
         <v>-5935414.427703654</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>415</v>
       </c>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>427</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30802,12 +32056,14 @@
         <v>-5935408.031103655</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>415</v>
       </c>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>427</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30841,12 +32097,14 @@
         <v>-5936381.106703655</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I920" t="n">
         <v>420</v>
       </c>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>427</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30880,12 +32138,14 @@
         <v>-5934243.269803654</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>416</v>
       </c>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>427</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30919,12 +32179,14 @@
         <v>-5934243.269803654</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I922" t="n">
         <v>420</v>
       </c>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>427</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30958,12 +32220,14 @@
         <v>-5934243.269803654</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I923" t="n">
         <v>420</v>
       </c>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>427</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30997,12 +32261,14 @@
         <v>-5932897.353103654</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I924" t="n">
         <v>420</v>
       </c>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>427</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31036,12 +32302,14 @@
         <v>-5932897.353103654</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I925" t="n">
         <v>421</v>
       </c>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>427</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31075,12 +32343,14 @@
         <v>-5933282.227803654</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I926" t="n">
         <v>421</v>
       </c>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>427</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31114,12 +32384,14 @@
         <v>-5933282.227803654</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I927" t="n">
         <v>420</v>
       </c>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>427</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31153,12 +32425,14 @@
         <v>-5933282.227803654</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928" t="n">
         <v>420</v>
       </c>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>427</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31192,12 +32466,14 @@
         <v>-5933282.227803654</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I929" t="n">
         <v>420</v>
       </c>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>427</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31231,12 +32507,14 @@
         <v>-5933282.227803654</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I930" t="n">
         <v>420</v>
       </c>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>427</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31270,12 +32548,14 @@
         <v>-5933282.227803654</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I931" t="n">
         <v>420</v>
       </c>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>427</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31309,12 +32589,14 @@
         <v>-5937605.090703654</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I932" t="n">
         <v>420</v>
       </c>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>427</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31348,12 +32630,14 @@
         <v>-5933567.340403654</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I933" t="n">
         <v>416</v>
       </c>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>427</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31387,12 +32671,14 @@
         <v>-5933567.340403654</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>417</v>
       </c>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>427</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31426,12 +32712,14 @@
         <v>-5933567.340403654</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I935" t="n">
         <v>417</v>
       </c>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>427</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31465,12 +32753,14 @@
         <v>-5930882.182903654</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>417</v>
       </c>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>427</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31504,12 +32794,14 @@
         <v>-5936797.943003654</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>420</v>
       </c>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>427</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31543,12 +32835,14 @@
         <v>-5936796.943003654</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I938" t="n">
         <v>417</v>
       </c>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>427</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31582,12 +32876,14 @@
         <v>-5936796.943003654</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939" t="n">
         <v>422</v>
       </c>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>427</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31621,12 +32917,14 @@
         <v>-5933692.95465015</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I940" t="n">
         <v>422</v>
       </c>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>427</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31660,12 +32958,14 @@
         <v>-5933691.95465015</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941" t="n">
         <v>423</v>
       </c>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>427</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31699,12 +32999,14 @@
         <v>-5937760.87405015</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I942" t="n">
         <v>428</v>
       </c>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>427</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31738,12 +33040,14 @@
         <v>-5937829.17205015</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I943" t="n">
         <v>425</v>
       </c>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>427</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31777,12 +33081,14 @@
         <v>-5936366.43375015</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I944" t="n">
         <v>417</v>
       </c>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>427</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31816,12 +33122,14 @@
         <v>-5936390.76425015</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945" t="n">
         <v>423</v>
       </c>
-      <c r="J945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>427</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31855,12 +33163,14 @@
         <v>-5935818.22835015</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I946" t="n">
         <v>422</v>
       </c>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>427</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31894,12 +33204,14 @@
         <v>-5935818.22835015</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I947" t="n">
         <v>423</v>
       </c>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>427</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31933,12 +33245,14 @@
         <v>-5936642.236850151</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I948" t="n">
         <v>423</v>
       </c>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>427</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31972,12 +33286,14 @@
         <v>-5936642.236850151</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I949" t="n">
         <v>419</v>
       </c>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>427</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32011,12 +33327,14 @@
         <v>-5936642.236850151</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I950" t="n">
         <v>419</v>
       </c>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>427</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32050,12 +33368,14 @@
         <v>-5937585.713250151</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I951" t="n">
         <v>419</v>
       </c>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>427</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32089,12 +33409,14 @@
         <v>-5936416.425850151</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952" t="n">
         <v>418</v>
       </c>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>427</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32128,12 +33450,14 @@
         <v>-5938600.875350151</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953" t="n">
         <v>419</v>
       </c>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>427</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32167,12 +33491,14 @@
         <v>-5936491.483250151</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954" t="n">
         <v>418</v>
       </c>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>427</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32206,12 +33532,14 @@
         <v>-5936491.483250151</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I955" t="n">
         <v>420</v>
       </c>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>427</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32245,12 +33573,14 @@
         <v>-5936491.483250151</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I956" t="n">
         <v>420</v>
       </c>
-      <c r="J956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>427</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32284,12 +33614,14 @@
         <v>-5947837.437150151</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>420</v>
       </c>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>427</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32323,12 +33655,14 @@
         <v>-5955291.777250151</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>419</v>
       </c>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>427</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32362,12 +33696,14 @@
         <v>-5958065.597103246</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>418</v>
       </c>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>427</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32401,12 +33737,14 @@
         <v>-5958065.597103246</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>417</v>
       </c>
-      <c r="J960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>427</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32440,12 +33778,14 @@
         <v>-5965212.904203246</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>417</v>
       </c>
-      <c r="J961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>427</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32479,12 +33819,14 @@
         <v>-5966283.062403247</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I962" t="n">
         <v>416</v>
       </c>
-      <c r="J962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>427</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32518,12 +33860,14 @@
         <v>-5966283.062403247</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I963" t="n">
         <v>413</v>
       </c>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>427</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32557,12 +33901,14 @@
         <v>-5966283.062403247</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I964" t="n">
         <v>413</v>
       </c>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>427</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32596,12 +33942,14 @@
         <v>-5962456.767803247</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I965" t="n">
         <v>413</v>
       </c>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>427</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32613,6 +33961,6 @@
       <c r="M965" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest DAD.xlsx
+++ b/BackTest/2019-11-01 BackTest DAD.xlsx
@@ -616,7 +616,7 @@
         <v>93664.42549675994</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>144496.3797967599</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>185370.9724011999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>206473.6694725079</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>203425.3041725079</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>212089.0170513399</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>231699.1278513399</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>273790.3404755919</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>303077.9837784909</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>287432.0561720789</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>254314.7313657549</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>265901.9068771729</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>265082.615777173</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>346558.707076724</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>398646.40788183</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>391230.185990842</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>340784.033781165</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>289729.1120402931</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>278150.777453999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>209949.079940449</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>83267.58984044904</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-32269.94325955096</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>7009.313632901045</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>31070.76997575704</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3246.780124242956</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4825.988386988044</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>98950.70428964305</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>84492.09798964305</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>98076.53478964305</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>92519.92026825705</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>89130.70017346204</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>162267.290647444</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>200808.243647444</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>175119.055174401</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>196607.574274401</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>161112.104974401</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>188257.398174401</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>202974.533890133</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -28699,14 +28699,10 @@
         <v>-5874057.625799163</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>430</v>
-      </c>
-      <c r="J858" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
@@ -28739,14 +28735,8 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>430</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28778,14 +28768,8 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>430</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29672,10 +29656,14 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>425</v>
+      </c>
+      <c r="J887" t="n">
+        <v>425</v>
+      </c>
       <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
@@ -29705,11 +29693,19 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>427</v>
+      </c>
+      <c r="J888" t="n">
+        <v>425</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29738,11 +29734,19 @@
         <v>-5886853.435599165</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>427</v>
+      </c>
+      <c r="J889" t="n">
+        <v>425</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29804,10 +29808,14 @@
         <v>-5886863.435599165</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>425</v>
+      </c>
+      <c r="J891" t="n">
+        <v>425</v>
+      </c>
       <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
@@ -29837,11 +29845,19 @@
         <v>-5888761.448999165</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>425</v>
+      </c>
+      <c r="J892" t="n">
+        <v>425</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29870,11 +29886,19 @@
         <v>-5895753.588499164</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>424</v>
+      </c>
+      <c r="J893" t="n">
+        <v>425</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29908,10 +29932,12 @@
       <c r="I894" t="n">
         <v>421</v>
       </c>
-      <c r="J894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>425</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L894" t="n">
@@ -29947,7 +29973,9 @@
       <c r="I895" t="n">
         <v>421</v>
       </c>
-      <c r="J895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>425</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29986,7 +30014,9 @@
       <c r="I896" t="n">
         <v>421</v>
       </c>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>425</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30025,7 +30055,9 @@
       <c r="I897" t="n">
         <v>419</v>
       </c>
-      <c r="J897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>425</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30064,7 +30096,9 @@
       <c r="I898" t="n">
         <v>416</v>
       </c>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>425</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30103,7 +30137,9 @@
       <c r="I899" t="n">
         <v>416</v>
       </c>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>425</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30142,7 +30178,9 @@
       <c r="I900" t="n">
         <v>416</v>
       </c>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>425</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30181,7 +30219,9 @@
       <c r="I901" t="n">
         <v>424</v>
       </c>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>425</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30220,7 +30260,9 @@
       <c r="I902" t="n">
         <v>424</v>
       </c>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>425</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30259,7 +30301,9 @@
       <c r="I903" t="n">
         <v>414</v>
       </c>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>425</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30298,7 +30342,9 @@
       <c r="I904" t="n">
         <v>416</v>
       </c>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>425</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30337,7 +30383,9 @@
       <c r="I905" t="n">
         <v>414</v>
       </c>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>425</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30376,7 +30424,9 @@
       <c r="I906" t="n">
         <v>416</v>
       </c>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>425</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30415,7 +30465,9 @@
       <c r="I907" t="n">
         <v>415</v>
       </c>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>425</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30454,7 +30506,9 @@
       <c r="I908" t="n">
         <v>415</v>
       </c>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>425</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30493,7 +30547,9 @@
       <c r="I909" t="n">
         <v>415</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>425</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30532,7 +30588,9 @@
       <c r="I910" t="n">
         <v>414</v>
       </c>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>425</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30571,7 +30629,9 @@
       <c r="I911" t="n">
         <v>420</v>
       </c>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>425</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30610,7 +30670,9 @@
       <c r="I912" t="n">
         <v>420</v>
       </c>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>425</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30649,7 +30711,9 @@
       <c r="I913" t="n">
         <v>430</v>
       </c>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>425</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30688,7 +30752,9 @@
       <c r="I914" t="n">
         <v>424</v>
       </c>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>425</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30727,7 +30793,9 @@
       <c r="I915" t="n">
         <v>421</v>
       </c>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>425</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30766,7 +30834,9 @@
       <c r="I916" t="n">
         <v>420</v>
       </c>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>425</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30805,7 +30875,9 @@
       <c r="I917" t="n">
         <v>420</v>
       </c>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>425</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30844,7 +30916,9 @@
       <c r="I918" t="n">
         <v>415</v>
       </c>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>425</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30883,7 +30957,9 @@
       <c r="I919" t="n">
         <v>415</v>
       </c>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>425</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30922,7 +30998,9 @@
       <c r="I920" t="n">
         <v>420</v>
       </c>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>425</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30961,7 +31039,9 @@
       <c r="I921" t="n">
         <v>416</v>
       </c>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>425</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31000,7 +31080,9 @@
       <c r="I922" t="n">
         <v>420</v>
       </c>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>425</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31039,7 +31121,9 @@
       <c r="I923" t="n">
         <v>420</v>
       </c>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>425</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31078,7 +31162,9 @@
       <c r="I924" t="n">
         <v>420</v>
       </c>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>425</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31117,7 +31203,9 @@
       <c r="I925" t="n">
         <v>421</v>
       </c>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>425</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31156,7 +31244,9 @@
       <c r="I926" t="n">
         <v>421</v>
       </c>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>425</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31195,7 +31285,9 @@
       <c r="I927" t="n">
         <v>420</v>
       </c>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>425</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31234,7 +31326,9 @@
       <c r="I928" t="n">
         <v>420</v>
       </c>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>425</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31273,7 +31367,9 @@
       <c r="I929" t="n">
         <v>420</v>
       </c>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>425</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31312,7 +31408,9 @@
       <c r="I930" t="n">
         <v>420</v>
       </c>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>425</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31351,7 +31449,9 @@
       <c r="I931" t="n">
         <v>420</v>
       </c>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>425</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31390,7 +31490,9 @@
       <c r="I932" t="n">
         <v>420</v>
       </c>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>425</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31429,7 +31531,9 @@
       <c r="I933" t="n">
         <v>416</v>
       </c>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>425</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31468,7 +31572,9 @@
       <c r="I934" t="n">
         <v>417</v>
       </c>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>425</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31507,7 +31613,9 @@
       <c r="I935" t="n">
         <v>417</v>
       </c>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>425</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31546,7 +31654,9 @@
       <c r="I936" t="n">
         <v>417</v>
       </c>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>425</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31585,7 +31695,9 @@
       <c r="I937" t="n">
         <v>420</v>
       </c>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>425</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31624,7 +31736,9 @@
       <c r="I938" t="n">
         <v>417</v>
       </c>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>425</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31663,7 +31777,9 @@
       <c r="I939" t="n">
         <v>422</v>
       </c>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>425</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31702,7 +31818,9 @@
       <c r="I940" t="n">
         <v>422</v>
       </c>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>425</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31741,7 +31859,9 @@
       <c r="I941" t="n">
         <v>423</v>
       </c>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>425</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31780,7 +31900,9 @@
       <c r="I942" t="n">
         <v>428</v>
       </c>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>425</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31819,7 +31941,9 @@
       <c r="I943" t="n">
         <v>425</v>
       </c>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>425</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31858,7 +31982,9 @@
       <c r="I944" t="n">
         <v>417</v>
       </c>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>425</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31897,7 +32023,9 @@
       <c r="I945" t="n">
         <v>423</v>
       </c>
-      <c r="J945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>425</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31936,7 +32064,9 @@
       <c r="I946" t="n">
         <v>422</v>
       </c>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>425</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31975,7 +32105,9 @@
       <c r="I947" t="n">
         <v>423</v>
       </c>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>425</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32014,7 +32146,9 @@
       <c r="I948" t="n">
         <v>423</v>
       </c>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>425</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32053,7 +32187,9 @@
       <c r="I949" t="n">
         <v>419</v>
       </c>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>425</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32092,7 +32228,9 @@
       <c r="I950" t="n">
         <v>419</v>
       </c>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>425</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32131,7 +32269,9 @@
       <c r="I951" t="n">
         <v>419</v>
       </c>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>425</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32170,7 +32310,9 @@
       <c r="I952" t="n">
         <v>418</v>
       </c>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>425</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32209,7 +32351,9 @@
       <c r="I953" t="n">
         <v>419</v>
       </c>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>425</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32248,7 +32392,9 @@
       <c r="I954" t="n">
         <v>418</v>
       </c>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>425</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32287,7 +32433,9 @@
       <c r="I955" t="n">
         <v>420</v>
       </c>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>425</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32326,7 +32474,9 @@
       <c r="I956" t="n">
         <v>420</v>
       </c>
-      <c r="J956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>425</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32365,7 +32515,9 @@
       <c r="I957" t="n">
         <v>420</v>
       </c>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>425</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32404,7 +32556,9 @@
       <c r="I958" t="n">
         <v>419</v>
       </c>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>425</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32443,7 +32597,9 @@
       <c r="I959" t="n">
         <v>418</v>
       </c>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>425</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32482,7 +32638,9 @@
       <c r="I960" t="n">
         <v>417</v>
       </c>
-      <c r="J960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>425</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32521,7 +32679,9 @@
       <c r="I961" t="n">
         <v>417</v>
       </c>
-      <c r="J961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>425</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32560,7 +32720,9 @@
       <c r="I962" t="n">
         <v>416</v>
       </c>
-      <c r="J962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>425</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32599,7 +32761,9 @@
       <c r="I963" t="n">
         <v>413</v>
       </c>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>425</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32638,7 +32802,9 @@
       <c r="I964" t="n">
         <v>413</v>
       </c>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>425</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32677,7 +32843,9 @@
       <c r="I965" t="n">
         <v>413</v>
       </c>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>425</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
